--- a/2023/japan_j3-league_2023.xlsx
+++ b/2023/japan_j3-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V291"/>
+  <dimension ref="A1:V292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.94</v>
+        <v>2.41</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.18</v>
+        <v>2.43</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>18/03/2023 05:36</t>
+          <t>18/03/2023 05:49</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.16</v>
+        <v>2.92</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>18/03/2023 05:04</t>
+          <t>18/03/2023 05:49</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.19</v>
+        <v>2.78</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>2.99</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>18/03/2023 05:36</t>
+          <t>18/03/2023 05:49</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-iwate-grulla-morioka/48gjc2Kt/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-vanraure/2e7m7cHd/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.41</v>
+        <v>2.94</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.43</v>
+        <v>3.18</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>18/03/2023 05:49</t>
+          <t>18/03/2023 05:36</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.92</v>
+        <v>3.16</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>18/03/2023 05:49</t>
+          <t>18/03/2023 05:04</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.78</v>
+        <v>2.19</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.99</v>
+        <v>2.25</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>18/03/2023 05:49</t>
+          <t>18/03/2023 05:36</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-vanraure/2e7m7cHd/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-iwate-grulla-morioka/48gjc2Kt/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.04</v>
+        <v>3.06</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.06</v>
+        <v>4.95</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:50</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.07</v>
+        <v>3.19</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.21</v>
+        <v>3.41</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:50</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.31</v>
+        <v>2.11</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.65</v>
+        <v>1.74</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:50</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ryukyu/EgyxETk9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-matsumoto-yamaga/KWyYE9z3/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.72</v>
+        <v>3.31</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.09</v>
+        <v>3.65</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>19/03/2023 04:16</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-ehime/bVhfdMZn/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ryukyu/EgyxETk9/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.51</v>
+        <v>2.19</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.11</v>
+        <v>3.43</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.84</v>
+        <v>3.09</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:16</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-tegevajaro-miyazaki/niPyvuKI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-ehime/bVhfdMZn/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.06</v>
+        <v>2.16</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4.95</v>
+        <v>2.51</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:50</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.19</v>
+        <v>3.08</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.41</v>
+        <v>3.11</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:50</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.74</v>
+        <v>2.84</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:50</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-matsumoto-yamaga/KWyYE9z3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-tegevajaro-miyazaki/niPyvuKI/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26/03/2023 05:55</t>
+          <t>26/03/2023 05:57</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.35</v>
+        <v>3.69</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>26/03/2023 05:55</t>
+          <t>26/03/2023 05:57</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.06</v>
+        <v>3.72</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.6</v>
+        <v>3.89</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>26/03/2023 05:55</t>
+          <t>26/03/2023 05:57</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-sc-sagamihara/QozG6orq/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-kamatamare-sanuki/YgrlBRZR/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>26/03/2023 05:57</t>
+          <t>26/03/2023 05:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.69</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>26/03/2023 05:57</t>
+          <t>26/03/2023 05:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.72</v>
+        <v>3.49</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.89</v>
+        <v>3.85</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>26/03/2023 05:57</t>
+          <t>26/03/2023 05:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-kamatamare-sanuki/YgrlBRZR/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-yscc-yokohama/f3qpC7KL/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>26/03/2023 05:59</t>
+          <t>26/03/2023 05:55</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.24</v>
+        <v>3.45</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3652,11 +3652,11 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>26/03/2023 05:59</t>
+          <t>26/03/2023 05:55</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.49</v>
+        <v>4.06</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>26/03/2023 05:59</t>
+          <t>26/03/2023 05:55</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-yscc-yokohama/f3qpC7KL/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-sc-sagamihara/QozG6orq/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.83</v>
+        <v>2.19</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,32 +3832,32 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>26/03/2023 06:53</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>23/03/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
           <t>26/03/2023 06:56</t>
         </is>
       </c>
-      <c r="R37" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>23/03/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>26/03/2023 06:56</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-tegevajaro-miyazaki/dO7agKJ5/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-nagano-parceiro/4xZJ55ck/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,48 +3908,48 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2.96</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>26/03/2023 06:56</t>
+          <t>26/03/2023 06:52</t>
         </is>
       </c>
       <c r="N38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>23/03/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
         <v>3.12</v>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>26/03/2023 05:44</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S38" t="inlineStr">
         <is>
           <t>23/03/2023 14:42</t>
         </is>
       </c>
-      <c r="P38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>26/03/2023 06:53</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>23/03/2023 14:42</t>
-        </is>
-      </c>
       <c r="T38" t="n">
-        <v>3.04</v>
+        <v>2.42</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>26/03/2023 06:56</t>
+          <t>26/03/2023 06:52</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-nagano-parceiro/4xZJ55ck/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gifu/xMibetkg/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.96</v>
+        <v>1.88</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>26/03/2023 06:52</t>
+          <t>26/03/2023 06:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>26/03/2023 05:44</t>
+          <t>26/03/2023 06:56</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.44</v>
+        <v>3.77</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.42</v>
+        <v>4.07</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>26/03/2023 06:52</t>
+          <t>26/03/2023 06:56</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gifu/xMibetkg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-tegevajaro-miyazaki/dO7agKJ5/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.23</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.51</v>
+        <v>3.49</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2.85</v>
+        <v>3.24</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.03</v>
+        <v>2.04</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.11</v>
+        <v>2.1</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-giravanz-kitakyushu/4dgq8bJm/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-iwate-grulla-morioka/Iacm7IYg/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.64</v>
+        <v>3.75</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.08</v>
+        <v>3.28</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.16</v>
+        <v>1.91</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-azul-claro-numazu/0Onh6xl0/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-kagoshima-united/nuk43zYI/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.97</v>
+        <v>2.64</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.46</v>
+        <v>3.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.72</v>
+        <v>3.16</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.63</v>
+        <v>2.6</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-gainare-tottori/vFod5d36/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-azul-claro-numazu/0Onh6xl0/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>2.23</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.75</v>
+        <v>2.51</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.28</v>
+        <v>2.97</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.35</v>
+        <v>2.85</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.91</v>
+        <v>3.03</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.98</v>
+        <v>3.11</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-kagoshima-united/nuk43zYI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-giravanz-kitakyushu/4dgq8bJm/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.1</v>
+        <v>1.79</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.49</v>
+        <v>1.97</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.04</v>
+        <v>3.72</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.1</v>
+        <v>3.63</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-iwate-grulla-morioka/Iacm7IYg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-gainare-tottori/vFod5d36/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.49</v>
+        <v>1.71</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.3</v>
+        <v>1.68</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>08/04/2023 06:53</t>
+          <t>08/04/2023 05:53</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.05</v>
+        <v>3.63</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>08/04/2023 06:53</t>
+          <t>08/04/2023 06:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.69</v>
+        <v>4.16</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.24</v>
+        <v>4.95</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>08/04/2023 06:53</t>
+          <t>08/04/2023 06:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-fukushima-united/djIMLHmm/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-sc-sagamihara/IaJIMcYt/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.71</v>
+        <v>2.49</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>08/04/2023 05:53</t>
+          <t>08/04/2023 06:53</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.41</v>
+        <v>3.01</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.63</v>
+        <v>3.05</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>08/04/2023 06:44</t>
+          <t>08/04/2023 06:53</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.16</v>
+        <v>2.69</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.95</v>
+        <v>3.24</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>08/04/2023 06:44</t>
+          <t>08/04/2023 06:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-sc-sagamihara/IaJIMcYt/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-fukushima-united/djIMLHmm/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.93</v>
+        <v>3.29</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kamatamare-sanuki/r74rHg2I/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-tegevajaro-miyazaki/Mc3nGDHO/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.29</v>
+        <v>3.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-tegevajaro-miyazaki/Mc3nGDHO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kamatamare-sanuki/r74rHg2I/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.97</v>
+        <v>2.77</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>29/04/2023 05:55</t>
+          <t>29/04/2023 05:31</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.47</v>
+        <v>3.19</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.71</v>
+        <v>3.38</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>29/04/2023 05:56</t>
+          <t>29/04/2023 04:01</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.21</v>
+        <v>2.32</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>29/04/2023 05:56</t>
+          <t>29/04/2023 05:31</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-nara-club/tGBsnE1h/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-azul-claro-numazu/Ct7wmfnn/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.77</v>
+        <v>1.97</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/04/2023 05:31</t>
+          <t>29/04/2023 05:55</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.19</v>
+        <v>3.47</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.38</v>
+        <v>3.71</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/04/2023 04:01</t>
+          <t>29/04/2023 05:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.32</v>
+        <v>3.21</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/04/2023 05:31</t>
+          <t>29/04/2023 05:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-azul-claro-numazu/Ct7wmfnn/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-nara-club/tGBsnE1h/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>4.01</v>
+        <v>2.42</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4.71</v>
+        <v>2.9</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/04/2023 05:50</t>
+          <t>30/04/2023 05:54</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.47</v>
+        <v>2.99</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.73</v>
+        <v>3.1</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/04/2023 05:57</t>
+          <t>30/04/2023 05:54</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.76</v>
+        <v>2.8</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.69</v>
+        <v>2.48</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/04/2023 05:57</t>
+          <t>30/04/2023 05:54</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-imabari/UcJatAVT/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-gifu/W65RyUwo/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Imabari</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>2</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Gifu</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
       <c r="J80" t="n">
-        <v>2.42</v>
+        <v>4.01</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.9</v>
+        <v>4.71</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>30/04/2023 05:54</t>
+          <t>30/04/2023 05:50</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2.99</v>
+        <v>3.47</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.1</v>
+        <v>3.73</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>30/04/2023 05:54</t>
+          <t>30/04/2023 05:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.8</v>
+        <v>1.76</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.48</v>
+        <v>1.69</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>30/04/2023 05:54</t>
+          <t>30/04/2023 05:57</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-gifu/W65RyUwo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-imabari/UcJatAVT/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.72</v>
+        <v>2.34</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.95</v>
+        <v>2.43</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>13/05/2023 05:59</t>
+          <t>13/05/2023 05:57</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>13/05/2023 05:59</t>
+          <t>13/05/2023 05:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.18</v>
+        <v>2.78</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.88</v>
+        <v>2.73</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>13/05/2023 05:59</t>
+          <t>13/05/2023 05:57</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-fc-osaka/fc2daOy9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-sc-sagamihara/G63h04M2/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.34</v>
+        <v>1.72</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>13/05/2023 05:57</t>
+          <t>13/05/2023 05:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>13/05/2023 05:56</t>
+          <t>13/05/2023 05:59</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.78</v>
+        <v>4.18</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.73</v>
+        <v>3.88</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>13/05/2023 05:57</t>
+          <t>13/05/2023 05:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-sc-sagamihara/G63h04M2/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-fc-osaka/fc2daOy9/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.67</v>
+        <v>1.94</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>14/05/2023 04:28</t>
+          <t>14/05/2023 05:44</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.09</v>
+        <v>3.28</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.16</v>
+        <v>3.63</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>14/05/2023 04:33</t>
+          <t>14/05/2023 05:31</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.41</v>
+        <v>3.39</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.51</v>
+        <v>2.92</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>14/05/2023 04:28</t>
+          <t>14/05/2023 05:44</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-iwate-grulla-morioka/pne9dMLR/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ehime/nesyhtUr/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,14 +9321,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>1.81</v>
+        <v>2.67</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.07</v>
+        <v>2.77</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>13/05/2023 23:01</t>
+          <t>14/05/2023 04:28</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.46</v>
+        <v>3.09</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>14/05/2023 04:52</t>
+          <t>14/05/2023 04:33</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.58</v>
+        <v>2.41</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.29</v>
+        <v>2.51</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>14/05/2023 04:52</t>
+          <t>14/05/2023 04:28</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ryukyu/fLtui0qk/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-iwate-grulla-morioka/pne9dMLR/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/05/2023 05:44</t>
+          <t>13/05/2023 23:01</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.28</v>
+        <v>3.46</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/05/2023 05:31</t>
+          <t>14/05/2023 04:52</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.39</v>
+        <v>3.58</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.92</v>
+        <v>3.29</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/05/2023 05:44</t>
+          <t>14/05/2023 04:52</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ehime/nesyhtUr/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ryukyu/fLtui0qk/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.85</v>
+        <v>2.99</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>13/05/2023 16:44</t>
+          <t>14/05/2023 06:57</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.37</v>
+        <v>3.09</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.59</v>
+        <v>3.18</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>14/05/2023 06:36</t>
+          <t>14/05/2023 06:57</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.56</v>
+        <v>2.24</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.97</v>
+        <v>2.23</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>14/05/2023 06:36</t>
+          <t>14/05/2023 06:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-fukushima-united/YBuqjKbe/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-gifu/GzVmkvE1/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.99</v>
+        <v>2.51</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.09</v>
+        <v>3.01</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,32 +9628,32 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.36</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>14/05/2023 06:02</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>12/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
           <t>14/05/2023 06:57</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>12/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>14/05/2023 06:57</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-gifu/GzVmkvE1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-tegevajaro-miyazaki/UwZilbT7/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Fukushima Utd</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Tegevajaro Miyazaki</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
       <c r="J101" t="n">
-        <v>2.51</v>
+        <v>1.85</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.76</v>
+        <v>1.85</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>14/05/2023 06:57</t>
+          <t>13/05/2023 16:44</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.01</v>
+        <v>3.37</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>14/05/2023 06:02</t>
+          <t>14/05/2023 06:36</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.61</v>
+        <v>3.56</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.43</v>
+        <v>3.97</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>14/05/2023 06:57</t>
+          <t>14/05/2023 06:36</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-tegevajaro-miyazaki/UwZilbT7/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-fukushima-united/YBuqjKbe/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.74</v>
+        <v>1.95</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>28/05/2023 03:43</t>
+          <t>28/05/2023 05:52</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>28/05/2023 04:01</t>
+          <t>28/05/2023 05:52</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.37</v>
+        <v>3.27</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.5</v>
+        <v>3.06</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/05/2023 03:43</t>
+          <t>28/05/2023 05:52</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-iwate-grulla-morioka/UweN3wTf/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gainare-tottori/nF5I4JDl/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.95</v>
+        <v>2.74</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>28/05/2023 05:52</t>
+          <t>28/05/2023 03:43</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.37</v>
+        <v>3.14</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>28/05/2023 05:52</t>
+          <t>28/05/2023 04:01</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.27</v>
+        <v>2.37</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.06</v>
+        <v>2.5</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>28/05/2023 05:52</t>
+          <t>28/05/2023 03:43</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gainare-tottori/nF5I4JDl/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-iwate-grulla-morioka/UweN3wTf/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.43</v>
+        <v>1.66</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.59</v>
+        <v>1.63</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/06/2023 06:57</t>
+          <t>04/06/2023 06:58</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.09</v>
+        <v>3.55</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.87</v>
+        <v>3.59</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/06/2023 06:57</t>
+          <t>04/06/2023 06:58</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.71</v>
+        <v>4.33</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.97</v>
+        <v>5.55</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>04/06/2023 06:57</t>
+          <t>04/06/2023 06:53</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-tegevajaro-miyazaki/tCa0FzS6/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-kamatamare-sanuki/Ozk5EfsD/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.66</v>
+        <v>2.43</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.63</v>
+        <v>2.59</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>04/06/2023 06:58</t>
+          <t>04/06/2023 06:57</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.55</v>
+        <v>3.09</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.59</v>
+        <v>2.87</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>04/06/2023 06:58</t>
+          <t>04/06/2023 06:57</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>4.33</v>
+        <v>2.71</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.55</v>
+        <v>2.97</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>04/06/2023 06:53</t>
+          <t>04/06/2023 06:57</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-kamatamare-sanuki/Ozk5EfsD/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-tegevajaro-miyazaki/tCa0FzS6/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12100,11 +12100,11 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>11/06/2023 08:58</t>
+          <t>11/06/2023 08:59</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.28</v>
+        <v>3.53</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>11/06/2023 08:58</t>
+          <t>11/06/2023 07:08</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>11/06/2023 08:58</t>
+          <t>11/06/2023 08:59</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-nara-club/xvFvTgd6/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-iwate-grulla-morioka/K2KZTZt0/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12192,11 +12192,11 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>11/06/2023 08:59</t>
+          <t>11/06/2023 08:58</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.53</v>
+        <v>3.28</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>11/06/2023 07:08</t>
+          <t>11/06/2023 08:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>11/06/2023 08:59</t>
+          <t>11/06/2023 08:58</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-iwate-grulla-morioka/K2KZTZt0/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-nara-club/xvFvTgd6/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>2</v>
       </c>
       <c r="J130" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>08/06/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
         <v>2.18</v>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>11/06/2023 10:54</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O130" t="inlineStr">
         <is>
           <t>08/06/2023 09:13</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>11/06/2023 10:49</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O130" t="inlineStr">
+      <c r="P130" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>11/06/2023 10:59</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S130" t="inlineStr">
         <is>
           <t>08/06/2023 09:13</t>
         </is>
       </c>
-      <c r="P130" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>11/06/2023 09:29</t>
-        </is>
-      </c>
-      <c r="R130" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>08/06/2023 09:13</t>
-        </is>
-      </c>
       <c r="T130" t="n">
-        <v>2.73</v>
+        <v>3.12</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>11/06/2023 10:49</t>
+          <t>11/06/2023 10:59</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-matsumoto-yamaga/MTuG95eo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ryukyu/AiDnRXQI/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.18</v>
+        <v>2.55</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>11/06/2023 10:54</t>
+          <t>11/06/2023 10:49</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.43</v>
+        <v>3.2</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>11/06/2023 10:59</t>
+          <t>11/06/2023 09:29</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.12</v>
+        <v>2.73</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>11/06/2023 10:59</t>
+          <t>11/06/2023 10:49</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ryukyu/AiDnRXQI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-matsumoto-yamaga/MTuG95eo/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.52</v>
+        <v>2.31</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>17/06/2023 10:57</t>
+          <t>17/06/2023 10:51</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.06</v>
+        <v>3.28</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>17/06/2023 10:57</t>
+          <t>17/06/2023 10:51</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.78</v>
+        <v>3.28</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.95</v>
+        <v>3</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>17/06/2023 10:57</t>
+          <t>17/06/2023 10:51</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-kamatamare-sanuki/CI44GyUc/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-nara-club/j938Feq4/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.63</v>
+        <v>1.6</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.69</v>
+        <v>1.52</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>17/06/2023 10:58</t>
+          <t>17/06/2023 10:57</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2.94</v>
+        <v>3.58</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.21</v>
+        <v>4.06</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.51</v>
+        <v>4.78</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2.57</v>
+        <v>5.95</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>17/06/2023 10:58</t>
+          <t>17/06/2023 10:57</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-toyama/4h50HHEi/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-kamatamare-sanuki/CI44GyUc/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.31</v>
+        <v>2.69</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>17/06/2023 10:51</t>
+          <t>17/06/2023 10:58</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.28</v>
+        <v>3.21</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>17/06/2023 10:51</t>
+          <t>17/06/2023 10:57</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.28</v>
+        <v>2.51</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>17/06/2023 10:51</t>
+          <t>17/06/2023 10:58</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-nara-club/j938Feq4/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-toyama/4h50HHEi/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="n">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>18/06/2023 06:54</t>
+          <t>18/06/2023 06:57</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.42</v>
+        <v>2.86</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>18/06/2023 06:54</t>
+          <t>18/06/2023 06:57</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>2.73</v>
+        <v>3.23</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2.64</v>
+        <v>3.64</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>18/06/2023 06:54</t>
+          <t>18/06/2023 06:57</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kagoshima-united/tbdLCgTM/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-fukushima-united/nycHDZDG/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>18/06/2023 06:31</t>
+          <t>18/06/2023 06:54</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.33</v>
+        <v>3.42</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>18/06/2023 06:31</t>
+          <t>18/06/2023 06:54</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.36</v>
+        <v>2.73</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>18/06/2023 06:31</t>
+          <t>18/06/2023 06:54</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-yscc-yokohama/KlePBDrT/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kagoshima-united/tbdLCgTM/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>18/06/2023 06:57</t>
+          <t>18/06/2023 06:31</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.02</v>
+        <v>3.22</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2.86</v>
+        <v>3.33</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>18/06/2023 06:57</t>
+          <t>18/06/2023 06:31</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>3.64</v>
+        <v>3.1</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>18/06/2023 06:57</t>
+          <t>18/06/2023 06:31</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-fukushima-united/nycHDZDG/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-yscc-yokohama/KlePBDrT/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>1.76</v>
+        <v>2.71</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.88</v>
+        <v>3.05</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>24/06/2023 10:05</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.48</v>
+        <v>2.95</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.59</v>
+        <v>2.99</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>24/06/2023 10:17</t>
+          <t>24/06/2023 11:56</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.87</v>
+        <v>2.46</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>3.85</v>
+        <v>2.45</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>24/06/2023 10:17</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-gainare-tottori/C0FxJUkd/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-gifu/Y9GYJAzj/</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -14289,14 +14289,14 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>2.71</v>
+        <v>1.76</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>3.05</v>
+        <v>1.88</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 10:05</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>2.95</v>
+        <v>3.48</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2.99</v>
+        <v>3.59</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>24/06/2023 11:56</t>
+          <t>24/06/2023 10:17</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.46</v>
+        <v>3.87</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2.45</v>
+        <v>3.85</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 10:17</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-gifu/Y9GYJAzj/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-gainare-tottori/C0FxJUkd/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.94</v>
+        <v>2.06</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,11 +14764,11 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>3.02</v>
+        <v>2.16</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>01/07/2023 09:03</t>
+          <t>01/07/2023 10:41</t>
         </is>
       </c>
       <c r="N156" t="n">
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>01/07/2023 10:04</t>
+          <t>01/07/2023 09:02</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.24</v>
+        <v>3.22</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.26</v>
+        <v>3.24</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>01/07/2023 09:03</t>
+          <t>01/07/2023 10:41</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-imabari/b9NPvCCF/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-ehime/p6JLuhc9/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J157" t="n">
-        <v>2.06</v>
+        <v>2.94</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,11 +14856,11 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.16</v>
+        <v>3.02</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>01/07/2023 10:41</t>
+          <t>01/07/2023 09:03</t>
         </is>
       </c>
       <c r="N157" t="n">
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>01/07/2023 09:02</t>
+          <t>01/07/2023 10:04</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.22</v>
+        <v>2.24</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>3.24</v>
+        <v>2.26</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>01/07/2023 10:41</t>
+          <t>01/07/2023 09:03</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-ehime/p6JLuhc9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-imabari/b9NPvCCF/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.83</v>
+        <v>2.57</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.93</v>
+        <v>2.33</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.22</v>
+        <v>2.98</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.38</v>
+        <v>3.01</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:56</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>3.85</v>
+        <v>2.56</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>4.08</v>
+        <v>3.39</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-azul-claro-numazu/4ASwnTJr/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-nagano-parceiro/SlyCj9BR/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>2.57</v>
+        <v>1.83</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.33</v>
+        <v>1.93</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>2.98</v>
+        <v>3.22</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,32 +15792,32 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.01</v>
+        <v>3.38</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
+          <t>08/07/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>06/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
           <t>08/07/2023 11:56</t>
         </is>
       </c>
-      <c r="R167" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>06/07/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T167" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="U167" t="inlineStr">
-        <is>
-          <t>08/07/2023 11:56</t>
-        </is>
-      </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-nagano-parceiro/SlyCj9BR/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-azul-claro-numazu/4ASwnTJr/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G172" t="n">
+        <v>3</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Nara Club</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
         <v>2</v>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Tegevajaro Miyazaki</t>
-        </is>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
       <c r="J172" t="n">
-        <v>2.64</v>
+        <v>3.59</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>2.98</v>
+        <v>3.21</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.06</v>
+        <v>3.44</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.59</v>
+        <v>1.99</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2.59</v>
+        <v>1.88</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-tegevajaro-miyazaki/pnZDmtem/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-nara-club/0d8x7Ue8/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,14 +16313,14 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2.47</v>
+        <v>2.64</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.81</v>
+        <v>2.9</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.32</v>
+        <v>3.06</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:56</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-imabari/6ezAlMus/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-tegevajaro-miyazaki/pnZDmtem/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>1.81</v>
+        <v>2.47</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.12</v>
+        <v>2.81</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.34</v>
+        <v>3.05</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:56</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>4</v>
+        <v>2.79</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.63</v>
+        <v>2.5</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-ryukyu/EaCt6lBE/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-imabari/6ezAlMus/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>3.59</v>
+        <v>1.81</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>4.23</v>
+        <v>2.12</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.21</v>
+        <v>3.34</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.44</v>
+        <v>3.23</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>1.99</v>
+        <v>4</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>1.88</v>
+        <v>3.63</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-nara-club/0d8x7Ue8/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-ryukyu/EaCt6lBE/</t>
         </is>
       </c>
     </row>
@@ -17225,22 +17225,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.82</v>
+        <v>2.23</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:44</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:59</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>3.88</v>
+        <v>4.34</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>4.7</v>
+        <v>3.32</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:44</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-nagano-parceiro/fHhd0Jvg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-vanraure/tElh1aPn/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2.23</v>
+        <v>1.82</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:44</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:59</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>4.34</v>
+        <v>3.88</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>3.32</v>
+        <v>4.7</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:44</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-vanraure/tElh1aPn/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-nagano-parceiro/fHhd0Jvg/</t>
         </is>
       </c>
     </row>
@@ -17409,22 +17409,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>3.71</v>
+        <v>2.78</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>22/07/2023 10:57</t>
+          <t>22/07/2023 10:37</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.33</v>
+        <v>3.12</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>22/07/2023 10:57</t>
+          <t>22/07/2023 10:37</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>1.92</v>
+        <v>2.43</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>22/07/2023 10:57</t>
+          <t>22/07/2023 10:50</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-imabari/bkam2uAt/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-azul-claro-numazu/lvh0awfa/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>2.78</v>
+        <v>3.71</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>22/07/2023 10:37</t>
+          <t>22/07/2023 10:57</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.12</v>
+        <v>3.33</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>22/07/2023 10:37</t>
+          <t>22/07/2023 10:57</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>2.43</v>
+        <v>1.92</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>22/07/2023 10:50</t>
+          <t>22/07/2023 10:57</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-azul-claro-numazu/lvh0awfa/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-imabari/bkam2uAt/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.23</v>
+        <v>1.83</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>23/07/2023 10:57</t>
+          <t>23/07/2023 10:55</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>23/07/2023 10:57</t>
+          <t>23/07/2023 10:55</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>3.41</v>
+        <v>4.41</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>3.16</v>
+        <v>4.97</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>23/07/2023 10:57</t>
+          <t>23/07/2023 10:55</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ehime/fcADfF8U/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-kamatamare-sanuki/tf69eegO/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191" t="n">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1.83</v>
+        <v>2.23</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>23/07/2023 10:55</t>
+          <t>23/07/2023 10:57</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>23/07/2023 10:55</t>
+          <t>23/07/2023 10:57</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>4.41</v>
+        <v>3.41</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>4.97</v>
+        <v>3.16</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>23/07/2023 10:55</t>
+          <t>23/07/2023 10:57</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-kamatamare-sanuki/tf69eegO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ehime/fcADfF8U/</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -18613,14 +18613,14 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>29/07/2023 11:59</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.14</v>
+        <v>3.43</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>29/07/2023 11:59</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>3.04</v>
+        <v>4.19</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.13</v>
+        <v>3.83</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>29/07/2023 11:59</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-toyama/hnF0SyOo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-tegevajaro-miyazaki/vqRI3hoo/</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -18705,14 +18705,14 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.01</v>
+        <v>2.37</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:59</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.43</v>
+        <v>3.14</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:59</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>4.19</v>
+        <v>3.04</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.83</v>
+        <v>3.13</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:59</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-tegevajaro-miyazaki/vqRI3hoo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-toyama/hnF0SyOo/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:54</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,15 +19104,15 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.47</v>
+        <v>3.03</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:57</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>2.49</v>
+        <v>2.73</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:54</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-imabari/EL5LNDxH/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kamatamare-sanuki/zV6HOgNA/</t>
         </is>
       </c>
     </row>
@@ -19157,22 +19157,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204" t="n">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -19180,15 +19180,15 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1.97</v>
+        <v>2.72</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:54</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -19196,15 +19196,15 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.24</v>
+        <v>3.47</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:57</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
@@ -19212,16 +19212,16 @@
         </is>
       </c>
       <c r="T204" t="n">
-        <v>4.13</v>
+        <v>2.49</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:54</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-ehime/dpeQMXiN/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-imabari/EL5LNDxH/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.78</v>
+        <v>1.97</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,11 +19288,11 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.03</v>
+        <v>3.24</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="R205" t="n">
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>2.73</v>
+        <v>4.13</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kamatamare-sanuki/zV6HOgNA/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-ehime/dpeQMXiN/</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -20453,14 +20453,14 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218" t="n">
-        <v>1.56</v>
+        <v>2.05</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -20468,15 +20468,15 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>1.78</v>
+        <v>2.23</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>13/08/2023 10:58</t>
+          <t>13/08/2023 10:45</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.74</v>
+        <v>3.22</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -20484,15 +20484,15 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>13/08/2023 10:58</t>
+          <t>13/08/2023 10:03</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>5.19</v>
+        <v>3.3</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
@@ -20500,16 +20500,16 @@
         </is>
       </c>
       <c r="T218" t="n">
-        <v>4.39</v>
+        <v>3.18</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>13/08/2023 10:03</t>
+          <t>13/08/2023 10:45</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-sc-sagamihara/ALbSxprL/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-gainare-tottori/48TRv6D8/</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -20545,14 +20545,14 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>2.05</v>
+        <v>1.56</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -20560,15 +20560,15 @@
         </is>
       </c>
       <c r="L219" t="n">
-        <v>2.23</v>
+        <v>1.78</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>13/08/2023 10:45</t>
+          <t>13/08/2023 10:58</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.22</v>
+        <v>3.74</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -20576,32 +20576,32 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
+          <t>13/08/2023 10:58</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>10/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
           <t>13/08/2023 10:03</t>
         </is>
       </c>
-      <c r="R219" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>10/08/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T219" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U219" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:45</t>
-        </is>
-      </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-gainare-tottori/48TRv6D8/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-sc-sagamihara/ALbSxprL/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J221" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>2.53</v>
+        <v>2.87</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>19/08/2023 10:51</t>
+          <t>19/08/2023 09:08</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>19/08/2023 10:51</t>
+          <t>19/08/2023 09:08</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>19/08/2023 10:51</t>
+          <t>19/08/2023 09:02</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-yscc-yokohama/6ipbXN5r/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-gifu/Kfl2WsLl/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G222" t="n">
+        <v>2</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>YSCC</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
         <v>1</v>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Gifu</t>
-        </is>
-      </c>
-      <c r="I222" t="n">
-        <v>5</v>
-      </c>
       <c r="J222" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.87</v>
+        <v>2.53</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>19/08/2023 09:08</t>
+          <t>19/08/2023 10:51</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>19/08/2023 09:08</t>
+          <t>19/08/2023 10:51</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>19/08/2023 09:02</t>
+          <t>19/08/2023 10:51</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-gifu/Kfl2WsLl/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-yscc-yokohama/6ipbXN5r/</t>
         </is>
       </c>
     </row>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -21189,14 +21189,14 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J226" t="n">
-        <v>1.89</v>
+        <v>2.75</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -21204,15 +21204,15 @@
         </is>
       </c>
       <c r="L226" t="n">
-        <v>2.44</v>
+        <v>2.92</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>3.31</v>
+        <v>2.98</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -21220,15 +21220,15 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>3.24</v>
+        <v>2.99</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="R226" t="n">
-        <v>3.69</v>
+        <v>2.49</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
@@ -21236,16 +21236,16 @@
         </is>
       </c>
       <c r="T226" t="n">
-        <v>2.96</v>
+        <v>2.63</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-tegevajaro-miyazaki/lztJSaKD/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-azul-claro-numazu/tAxBULk1/</t>
         </is>
       </c>
     </row>
@@ -21273,22 +21273,22 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
         <v>2</v>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Azul Claro Numazu</t>
-        </is>
-      </c>
-      <c r="I227" t="n">
-        <v>3</v>
-      </c>
       <c r="J227" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -21296,15 +21296,15 @@
         </is>
       </c>
       <c r="L227" t="n">
-        <v>2.92</v>
+        <v>2.34</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 10:54</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>2.98</v>
+        <v>3.24</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -21312,15 +21312,15 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 10:54</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>2.49</v>
+        <v>3.28</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
@@ -21328,16 +21328,16 @@
         </is>
       </c>
       <c r="T227" t="n">
-        <v>2.63</v>
+        <v>2.91</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 10:54</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-azul-claro-numazu/tAxBULk1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-matsumoto-yamaga/4rA3zCwK/</t>
         </is>
       </c>
     </row>
@@ -21457,22 +21457,22 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G229" t="n">
+        <v>2</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Tegevajaro Miyazaki</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>Yamaga</t>
-        </is>
-      </c>
-      <c r="I229" t="n">
-        <v>2</v>
-      </c>
       <c r="J229" t="n">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -21480,48 +21480,48 @@
         </is>
       </c>
       <c r="L229" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>19/08/2023 10:54</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="N229" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>17/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
         <v>3.24</v>
       </c>
-      <c r="O229" t="inlineStr">
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>19/08/2023 11:45</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S229" t="inlineStr">
         <is>
           <t>17/08/2023 09:13</t>
         </is>
       </c>
-      <c r="P229" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q229" t="inlineStr">
-        <is>
-          <t>19/08/2023 10:54</t>
-        </is>
-      </c>
-      <c r="R229" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="S229" t="inlineStr">
-        <is>
-          <t>17/08/2023 09:13</t>
-        </is>
-      </c>
       <c r="T229" t="n">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>19/08/2023 10:54</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-matsumoto-yamaga/4rA3zCwK/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-tegevajaro-miyazaki/lztJSaKD/</t>
         </is>
       </c>
     </row>
@@ -22101,22 +22101,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J236" t="n">
-        <v>1.68</v>
+        <v>1.97</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -22124,15 +22124,15 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>26/08/2023 11:09</t>
+          <t>26/08/2023 10:09</t>
         </is>
       </c>
       <c r="N236" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -22140,15 +22140,15 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>26/08/2023 11:09</t>
+          <t>26/08/2023 10:09</t>
         </is>
       </c>
       <c r="R236" t="n">
-        <v>4.5</v>
+        <v>3.56</v>
       </c>
       <c r="S236" t="inlineStr">
         <is>
@@ -22156,16 +22156,16 @@
         </is>
       </c>
       <c r="T236" t="n">
-        <v>4.57</v>
+        <v>3.64</v>
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>26/08/2023 11:09</t>
+          <t>26/08/2023 11:53</t>
         </is>
       </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kamatamare-sanuki/QLtaPoVI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-sc-sagamihara/hSUtlV7J/</t>
         </is>
       </c>
     </row>
@@ -22193,22 +22193,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I237" t="n">
         <v>1</v>
       </c>
       <c r="J237" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -22216,15 +22216,15 @@
         </is>
       </c>
       <c r="L237" t="n">
-        <v>2.19</v>
+        <v>2.59</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>26/08/2023 11:49</t>
+          <t>26/08/2023 05:17</t>
         </is>
       </c>
       <c r="N237" t="n">
-        <v>3.24</v>
+        <v>3.06</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -22232,15 +22232,15 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>26/08/2023 11:49</t>
+          <t>26/08/2023 10:02</t>
         </is>
       </c>
       <c r="R237" t="n">
-        <v>3.48</v>
+        <v>2.66</v>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -22248,16 +22248,16 @@
         </is>
       </c>
       <c r="T237" t="n">
-        <v>3.3</v>
+        <v>2.77</v>
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>26/08/2023 11:49</t>
+          <t>26/08/2023 05:17</t>
         </is>
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-gainare-tottori/nVseQRFC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-imabari/46hjR706/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I238" t="n">
         <v>1</v>
       </c>
       <c r="J238" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>2.59</v>
+        <v>2.19</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>26/08/2023 05:17</t>
+          <t>26/08/2023 11:49</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>3.06</v>
+        <v>3.24</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>26/08/2023 10:02</t>
+          <t>26/08/2023 11:49</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>2.66</v>
+        <v>3.48</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>2.77</v>
+        <v>3.3</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>26/08/2023 05:17</t>
+          <t>26/08/2023 11:49</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-imabari/46hjR706/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-gainare-tottori/nVseQRFC/</t>
         </is>
       </c>
     </row>
@@ -22377,22 +22377,22 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J239" t="n">
-        <v>1.97</v>
+        <v>1.68</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -22400,15 +22400,15 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>26/08/2023 10:09</t>
+          <t>26/08/2023 11:09</t>
         </is>
       </c>
       <c r="N239" t="n">
-        <v>3.2</v>
+        <v>3.53</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -22416,15 +22416,15 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>26/08/2023 10:09</t>
+          <t>26/08/2023 11:09</t>
         </is>
       </c>
       <c r="R239" t="n">
-        <v>3.56</v>
+        <v>4.5</v>
       </c>
       <c r="S239" t="inlineStr">
         <is>
@@ -22432,16 +22432,16 @@
         </is>
       </c>
       <c r="T239" t="n">
-        <v>3.64</v>
+        <v>4.57</v>
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>26/08/2023 11:53</t>
+          <t>26/08/2023 11:09</t>
         </is>
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-sc-sagamihara/hSUtlV7J/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kamatamare-sanuki/QLtaPoVI/</t>
         </is>
       </c>
     </row>
@@ -22745,22 +22745,22 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Kamatamare</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
         <v>1</v>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Sagamihara</t>
-        </is>
-      </c>
-      <c r="I243" t="n">
-        <v>2</v>
-      </c>
       <c r="J243" t="n">
-        <v>1.68</v>
+        <v>2.05</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,15 +22768,15 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>02/09/2023 10:53</t>
+          <t>02/09/2023 10:47</t>
         </is>
       </c>
       <c r="N243" t="n">
-        <v>3.51</v>
+        <v>3.08</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -22784,15 +22784,15 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>02/09/2023 10:53</t>
+          <t>02/09/2023 10:47</t>
         </is>
       </c>
       <c r="R243" t="n">
-        <v>4.46</v>
+        <v>3.45</v>
       </c>
       <c r="S243" t="inlineStr">
         <is>
@@ -22800,16 +22800,16 @@
         </is>
       </c>
       <c r="T243" t="n">
-        <v>2.89</v>
+        <v>2.99</v>
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>02/09/2023 10:53</t>
+          <t>02/09/2023 10:47</t>
         </is>
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-sc-sagamihara/E51xw5aI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-kamatamare-sanuki/EebO08iP/</t>
         </is>
       </c>
     </row>
@@ -22837,22 +22837,22 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I244" t="n">
         <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>2.05</v>
+        <v>3.33</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -22860,15 +22860,15 @@
         </is>
       </c>
       <c r="L244" t="n">
-        <v>2.42</v>
+        <v>3.51</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>02/09/2023 10:47</t>
+          <t>02/09/2023 10:51</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>3.08</v>
+        <v>3.33</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -22876,15 +22876,15 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3.23</v>
+        <v>3.8</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>02/09/2023 10:47</t>
+          <t>02/09/2023 10:51</t>
         </is>
       </c>
       <c r="R244" t="n">
-        <v>3.45</v>
+        <v>2.03</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
@@ -22892,16 +22892,16 @@
         </is>
       </c>
       <c r="T244" t="n">
-        <v>2.99</v>
+        <v>1.96</v>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>02/09/2023 10:47</t>
+          <t>02/09/2023 10:51</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-kamatamare-sanuki/EebO08iP/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ehime/Kr2YwopC/</t>
         </is>
       </c>
     </row>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G245" t="n">
@@ -22937,63 +22937,63 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J245" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>31/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>02/09/2023 10:26</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>31/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
         <v>3.33</v>
       </c>
-      <c r="K245" t="inlineStr">
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>02/09/2023 10:29</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S245" t="inlineStr">
         <is>
           <t>31/08/2023 09:12</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>02/09/2023 10:51</t>
-        </is>
-      </c>
-      <c r="N245" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>31/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P245" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q245" t="inlineStr">
-        <is>
-          <t>02/09/2023 10:51</t>
-        </is>
-      </c>
-      <c r="R245" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S245" t="inlineStr">
-        <is>
-          <t>31/08/2023 09:12</t>
-        </is>
-      </c>
       <c r="T245" t="n">
-        <v>1.96</v>
+        <v>4.02</v>
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>02/09/2023 10:51</t>
+          <t>02/09/2023 10:26</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ehime/Kr2YwopC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fukushima-united/OG8Pu7Fa/</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -23029,14 +23029,14 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J246" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1.96</v>
+        <v>2.35</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>02/09/2023 10:26</t>
+          <t>02/09/2023 10:53</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.26</v>
+        <v>3.51</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>02/09/2023 10:29</t>
+          <t>02/09/2023 10:53</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>3.88</v>
+        <v>4.46</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>4.02</v>
+        <v>2.89</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>02/09/2023 10:26</t>
+          <t>02/09/2023 10:53</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fukushima-united/OG8Pu7Fa/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-sc-sagamihara/E51xw5aI/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G247" t="n">
+        <v>2</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Gifu</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
         <v>1</v>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Giravanz Kitakyushu</t>
-        </is>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
       <c r="J247" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.64</v>
+        <v>2.36</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>02/09/2023 11:50</t>
+          <t>02/09/2023 11:57</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.81</v>
+        <v>3.49</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>02/09/2023 11:50</t>
+          <t>02/09/2023 11:58</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>5.06</v>
+        <v>3.02</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>5.39</v>
+        <v>2.88</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>02/09/2023 11:50</t>
+          <t>02/09/2023 11:56</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-giravanz-kitakyushu/CjKuxPEO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-gifu/G4pjdSat/</t>
         </is>
       </c>
     </row>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -23213,14 +23213,14 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>2.41</v>
+        <v>1.57</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>2.53</v>
+        <v>1.64</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:54</t>
+          <t>02/09/2023 11:50</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.2</v>
+        <v>3.81</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:54</t>
+          <t>02/09/2023 11:50</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>2.74</v>
+        <v>5.06</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>2.86</v>
+        <v>5.39</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>02/09/2023 10:56</t>
+          <t>02/09/2023 11:50</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gainare-tottori/pQ9Ltm0g/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-giravanz-kitakyushu/CjKuxPEO/</t>
         </is>
       </c>
     </row>
@@ -23297,22 +23297,22 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.36</v>
+        <v>2.53</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>02/09/2023 11:57</t>
+          <t>02/09/2023 11:54</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.49</v>
+        <v>3.2</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>02/09/2023 11:58</t>
+          <t>02/09/2023 11:54</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.02</v>
+        <v>2.74</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>02/09/2023 11:56</t>
+          <t>02/09/2023 10:56</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-gifu/G4pjdSat/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gainare-tottori/pQ9Ltm0g/</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G253" t="n">
@@ -23673,14 +23673,14 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="n">
-        <v>1.85</v>
+        <v>2.24</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -23688,15 +23688,15 @@
         </is>
       </c>
       <c r="L253" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>09/09/2023 09:03</t>
+          <t>09/09/2023 10:50</t>
         </is>
       </c>
       <c r="N253" t="n">
-        <v>3.3</v>
+        <v>3.07</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -23704,15 +23704,15 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>3.61</v>
+        <v>3.02</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>09/09/2023 09:03</t>
+          <t>09/09/2023 10:39</t>
         </is>
       </c>
       <c r="R253" t="n">
-        <v>3.88</v>
+        <v>3.04</v>
       </c>
       <c r="S253" t="inlineStr">
         <is>
@@ -23720,16 +23720,16 @@
         </is>
       </c>
       <c r="T253" t="n">
-        <v>4.29</v>
+        <v>2.78</v>
       </c>
       <c r="U253" t="inlineStr">
         <is>
-          <t>09/09/2023 10:47</t>
+          <t>09/09/2023 10:50</t>
         </is>
       </c>
       <c r="V253" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-tegevajaro-miyazaki/WfLyZebp/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-nagano-parceiro/Kds7hpa5/</t>
         </is>
       </c>
     </row>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G254" t="n">
@@ -23765,14 +23765,14 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -23780,15 +23780,15 @@
         </is>
       </c>
       <c r="L254" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>09/09/2023 10:50</t>
+          <t>09/09/2023 09:03</t>
         </is>
       </c>
       <c r="N254" t="n">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
@@ -23796,15 +23796,15 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>3.02</v>
+        <v>3.61</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>09/09/2023 10:39</t>
+          <t>09/09/2023 09:03</t>
         </is>
       </c>
       <c r="R254" t="n">
-        <v>3.04</v>
+        <v>3.88</v>
       </c>
       <c r="S254" t="inlineStr">
         <is>
@@ -23812,16 +23812,16 @@
         </is>
       </c>
       <c r="T254" t="n">
-        <v>2.78</v>
+        <v>4.29</v>
       </c>
       <c r="U254" t="inlineStr">
         <is>
-          <t>09/09/2023 10:50</t>
+          <t>09/09/2023 10:47</t>
         </is>
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-nagano-parceiro/Kds7hpa5/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-tegevajaro-miyazaki/WfLyZebp/</t>
         </is>
       </c>
     </row>
@@ -23849,22 +23849,22 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J255" t="n">
-        <v>2.59</v>
+        <v>2.42</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -23872,15 +23872,15 @@
         </is>
       </c>
       <c r="L255" t="n">
-        <v>3.47</v>
+        <v>1.91</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>09/09/2023 10:29</t>
+          <t>09/09/2023 10:51</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -23888,15 +23888,15 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>2.93</v>
+        <v>3.22</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>09/09/2023 10:29</t>
+          <t>09/09/2023 10:51</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>2.66</v>
+        <v>2.83</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
@@ -23904,16 +23904,16 @@
         </is>
       </c>
       <c r="T255" t="n">
-        <v>2.34</v>
+        <v>4.23</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>09/09/2023 10:29</t>
+          <t>09/09/2023 10:51</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-vanraure/KG1WfwL3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fc-osaka/6gw3gQqa/</t>
         </is>
       </c>
     </row>
@@ -24125,22 +24125,22 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G258" t="n">
+        <v>2</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Vanraure</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>Osaka</t>
-        </is>
-      </c>
-      <c r="I258" t="n">
-        <v>3</v>
-      </c>
       <c r="J258" t="n">
-        <v>2.42</v>
+        <v>2.59</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -24148,15 +24148,15 @@
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.91</v>
+        <v>3.47</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>09/09/2023 10:51</t>
+          <t>09/09/2023 10:29</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -24164,15 +24164,15 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3.22</v>
+        <v>2.93</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>09/09/2023 10:51</t>
+          <t>09/09/2023 10:29</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>2.83</v>
+        <v>2.66</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
@@ -24180,16 +24180,16 @@
         </is>
       </c>
       <c r="T258" t="n">
-        <v>4.23</v>
+        <v>2.34</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>09/09/2023 10:51</t>
+          <t>09/09/2023 10:29</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fc-osaka/6gw3gQqa/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-vanraure/KG1WfwL3/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J274" t="n">
-        <v>2.1</v>
+        <v>2.81</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>2.34</v>
+        <v>3.02</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>23/09/2023 10:54</t>
+          <t>23/09/2023 10:34</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3.75</v>
+        <v>3.17</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>23/09/2023 10:54</t>
+          <t>23/09/2023 10:34</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>3.14</v>
+        <v>2.39</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>23/09/2023 10:54</t>
+          <t>23/09/2023 09:51</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kagoshima-united/xzJeahCk/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-toyama/tjIQ4ElS/</t>
         </is>
       </c>
     </row>
@@ -25689,22 +25689,22 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J275" t="n">
-        <v>2.81</v>
+        <v>2.1</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -25712,15 +25712,15 @@
         </is>
       </c>
       <c r="L275" t="n">
-        <v>3.02</v>
+        <v>2.34</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>23/09/2023 10:34</t>
+          <t>23/09/2023 10:54</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -25728,15 +25728,15 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3.17</v>
+        <v>3.75</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>23/09/2023 10:34</t>
+          <t>23/09/2023 10:54</t>
         </is>
       </c>
       <c r="R275" t="n">
-        <v>2.39</v>
+        <v>3.14</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
@@ -25744,16 +25744,16 @@
         </is>
       </c>
       <c r="T275" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>23/09/2023 09:51</t>
+          <t>23/09/2023 10:54</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-toyama/tjIQ4ElS/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kagoshima-united/xzJeahCk/</t>
         </is>
       </c>
     </row>
@@ -26793,22 +26793,22 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J287" t="n">
-        <v>2.92</v>
+        <v>2.12</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -26816,15 +26816,15 @@
         </is>
       </c>
       <c r="L287" t="n">
-        <v>3.23</v>
+        <v>2.36</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>01/10/2023 06:58</t>
+          <t>01/10/2023 05:05</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
@@ -26832,15 +26832,15 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3.05</v>
+        <v>3.41</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>01/10/2023 06:58</t>
+          <t>01/10/2023 05:05</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>2.4</v>
+        <v>3.21</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
@@ -26848,16 +26848,16 @@
         </is>
       </c>
       <c r="T287" t="n">
-        <v>2.38</v>
+        <v>2.94</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>01/10/2023 06:58</t>
+          <t>01/10/2023 05:05</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-nara-club/UmIxXWXK/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-iwate-grulla-morioka/tSyrBkB1/</t>
         </is>
       </c>
     </row>
@@ -27069,22 +27069,22 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Nara Club</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
         <v>1</v>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>Grulla Morioka</t>
-        </is>
-      </c>
-      <c r="I290" t="n">
-        <v>2</v>
-      </c>
       <c r="J290" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -27092,15 +27092,15 @@
         </is>
       </c>
       <c r="L290" t="n">
-        <v>2.36</v>
+        <v>3.23</v>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>01/10/2023 05:05</t>
+          <t>01/10/2023 06:58</t>
         </is>
       </c>
       <c r="N290" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
@@ -27108,15 +27108,15 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>3.41</v>
+        <v>3.05</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>01/10/2023 05:05</t>
+          <t>01/10/2023 06:58</t>
         </is>
       </c>
       <c r="R290" t="n">
-        <v>3.21</v>
+        <v>2.4</v>
       </c>
       <c r="S290" t="inlineStr">
         <is>
@@ -27124,16 +27124,16 @@
         </is>
       </c>
       <c r="T290" t="n">
-        <v>2.94</v>
+        <v>2.38</v>
       </c>
       <c r="U290" t="inlineStr">
         <is>
-          <t>01/10/2023 05:05</t>
+          <t>01/10/2023 06:58</t>
         </is>
       </c>
       <c r="V290" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-iwate-grulla-morioka/tSyrBkB1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-nara-club/UmIxXWXK/</t>
         </is>
       </c>
     </row>
@@ -27226,6 +27226,98 @@
       <c r="V291" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-yscc-yokohama/8vHtWjmR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45204.5</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>2</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Kagoshima Utd</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>3</v>
+      </c>
+      <c r="J292" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>03/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>03/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:49</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>03/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T292" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:50</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-kagoshima-united/QTztSsng/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j3-league_2023.xlsx
+++ b/2023/japan_j3-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V292"/>
+  <dimension ref="A1:V293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26885,22 +26885,22 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I288" t="n">
         <v>1</v>
       </c>
       <c r="J288" t="n">
-        <v>2.83</v>
+        <v>2.92</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         </is>
       </c>
       <c r="L288" t="n">
-        <v>2.86</v>
+        <v>3.23</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         </is>
       </c>
       <c r="N288" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         </is>
       </c>
       <c r="R288" t="n">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="S288" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         </is>
       </c>
       <c r="T288" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="U288" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
       </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-fc-osaka/zRIYXCIE/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-nara-club/UmIxXWXK/</t>
         </is>
       </c>
     </row>
@@ -26977,22 +26977,22 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I289" t="n">
         <v>1</v>
       </c>
       <c r="J289" t="n">
-        <v>1.7</v>
+        <v>2.83</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -27000,15 +27000,15 @@
         </is>
       </c>
       <c r="L289" t="n">
-        <v>1.86</v>
+        <v>2.86</v>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>01/10/2023 06:57</t>
+          <t>01/10/2023 06:58</t>
         </is>
       </c>
       <c r="N289" t="n">
-        <v>3.45</v>
+        <v>2.86</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
@@ -27016,15 +27016,15 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>3.49</v>
+        <v>2.94</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>01/10/2023 06:57</t>
+          <t>01/10/2023 06:58</t>
         </is>
       </c>
       <c r="R289" t="n">
-        <v>4.42</v>
+        <v>2.51</v>
       </c>
       <c r="S289" t="inlineStr">
         <is>
@@ -27032,16 +27032,16 @@
         </is>
       </c>
       <c r="T289" t="n">
-        <v>4.28</v>
+        <v>2.72</v>
       </c>
       <c r="U289" t="inlineStr">
         <is>
-          <t>01/10/2023 06:56</t>
+          <t>01/10/2023 06:58</t>
         </is>
       </c>
       <c r="V289" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-fukushima-united/KIznA9Q7/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-fc-osaka/zRIYXCIE/</t>
         </is>
       </c>
     </row>
@@ -27069,7 +27069,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -27077,14 +27077,14 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I290" t="n">
         <v>1</v>
       </c>
       <c r="J290" t="n">
-        <v>2.92</v>
+        <v>1.7</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -27092,15 +27092,15 @@
         </is>
       </c>
       <c r="L290" t="n">
-        <v>3.23</v>
+        <v>1.86</v>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>01/10/2023 06:58</t>
+          <t>01/10/2023 06:57</t>
         </is>
       </c>
       <c r="N290" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
@@ -27108,15 +27108,15 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>3.05</v>
+        <v>3.49</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>01/10/2023 06:58</t>
+          <t>01/10/2023 06:57</t>
         </is>
       </c>
       <c r="R290" t="n">
-        <v>2.4</v>
+        <v>4.42</v>
       </c>
       <c r="S290" t="inlineStr">
         <is>
@@ -27124,16 +27124,16 @@
         </is>
       </c>
       <c r="T290" t="n">
-        <v>2.38</v>
+        <v>4.28</v>
       </c>
       <c r="U290" t="inlineStr">
         <is>
-          <t>01/10/2023 06:58</t>
+          <t>01/10/2023 06:56</t>
         </is>
       </c>
       <c r="V290" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-nara-club/UmIxXWXK/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-fukushima-united/KIznA9Q7/</t>
         </is>
       </c>
     </row>
@@ -27318,6 +27318,98 @@
       <c r="V292" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-kagoshima-united/QTztSsng/</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45206.27083333334</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>1</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Kamatamare</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>07/10/2023 06:28</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>07/10/2023 06:28</t>
+        </is>
+      </c>
+      <c r="R293" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T293" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>07/10/2023 06:28</t>
+        </is>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-kamatamare-sanuki/C8L1RAer/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j3-league_2023.xlsx
+++ b/2023/japan_j3-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V293"/>
+  <dimension ref="A1:V301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.41</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.43</v>
+        <v>3.18</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>18/03/2023 05:49</t>
+          <t>18/03/2023 05:36</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.92</v>
+        <v>3.16</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>18/03/2023 05:49</t>
+          <t>18/03/2023 05:04</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.78</v>
+        <v>2.19</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.99</v>
+        <v>2.25</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>18/03/2023 05:49</t>
+          <t>18/03/2023 05:36</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-vanraure/2e7m7cHd/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-iwate-grulla-morioka/48gjc2Kt/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.94</v>
+        <v>2.41</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.18</v>
+        <v>2.43</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>18/03/2023 05:36</t>
+          <t>18/03/2023 05:49</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.16</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>18/03/2023 05:04</t>
+          <t>18/03/2023 05:49</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.19</v>
+        <v>2.78</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.25</v>
+        <v>2.99</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>18/03/2023 05:36</t>
+          <t>18/03/2023 05:49</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-iwate-grulla-morioka/48gjc2Kt/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-vanraure/2e7m7cHd/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.06</v>
+        <v>2.16</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4.95</v>
+        <v>2.51</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/03/2023 04:50</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.19</v>
+        <v>3.08</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.41</v>
+        <v>3.11</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/03/2023 04:50</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.74</v>
+        <v>2.84</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/03/2023 04:50</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-matsumoto-yamaga/KWyYE9z3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-tegevajaro-miyazaki/niPyvuKI/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.31</v>
+        <v>2.72</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.65</v>
+        <v>3.09</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:16</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ryukyu/EgyxETk9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-ehime/bVhfdMZn/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.72</v>
+        <v>3.31</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.09</v>
+        <v>3.65</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:16</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-ehime/bVhfdMZn/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ryukyu/EgyxETk9/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.16</v>
+        <v>3.06</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.51</v>
+        <v>4.95</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:50</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.11</v>
+        <v>3.41</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:50</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.84</v>
+        <v>1.74</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:50</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-tegevajaro-miyazaki/niPyvuKI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-matsumoto-yamaga/KWyYE9z3/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Sagamihara</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Nara Club</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/03/2023 05:34</t>
+          <t>19/03/2023 04:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.43</v>
+        <v>3.06</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.41</v>
+        <v>3.2</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19/03/2023 05:34</t>
+          <t>19/03/2023 04:57</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.26</v>
+        <v>3.03</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.29</v>
+        <v>3.02</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>19/03/2023 04:03</t>
+          <t>19/03/2023 04:57</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-nara-club/QsOuwaZO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-sc-sagamihara/CvfuDm5F/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/03/2023 04:57</t>
+          <t>19/03/2023 05:34</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.43</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.2</v>
+        <v>3.41</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/03/2023 04:57</t>
+          <t>19/03/2023 05:34</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.03</v>
+        <v>4.26</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.02</v>
+        <v>4.29</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/03/2023 04:57</t>
+          <t>19/03/2023 04:03</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-sc-sagamihara/CvfuDm5F/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-nara-club/QsOuwaZO/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26/03/2023 05:57</t>
+          <t>26/03/2023 05:59</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.69</v>
+        <v>3.35</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>26/03/2023 05:57</t>
+          <t>26/03/2023 05:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.72</v>
+        <v>3.49</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.89</v>
+        <v>3.85</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>26/03/2023 05:57</t>
+          <t>26/03/2023 05:59</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-kamatamare-sanuki/YgrlBRZR/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-yscc-yokohama/f3qpC7KL/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>26/03/2023 05:59</t>
+          <t>26/03/2023 05:55</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.24</v>
+        <v>3.45</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3560,11 +3560,11 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>26/03/2023 05:59</t>
+          <t>26/03/2023 05:55</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.49</v>
+        <v>4.06</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>26/03/2023 05:59</t>
+          <t>26/03/2023 05:55</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-yscc-yokohama/f3qpC7KL/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-sc-sagamihara/QozG6orq/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>26/03/2023 05:55</t>
+          <t>26/03/2023 05:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.35</v>
+        <v>3.69</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>26/03/2023 05:55</t>
+          <t>26/03/2023 05:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.06</v>
+        <v>3.72</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.6</v>
+        <v>3.89</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>26/03/2023 05:55</t>
+          <t>26/03/2023 05:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-sc-sagamihara/QozG6orq/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-kamatamare-sanuki/YgrlBRZR/</t>
         </is>
       </c>
     </row>
@@ -3701,19 +3701,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Gifu</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Imabari</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>2.6</v>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>26/03/2023 06:33</t>
+          <t>26/03/2023 06:52</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.35</v>
+        <v>3.12</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>26/03/2023 06:33</t>
+          <t>26/03/2023 05:44</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>26/03/2023 06:33</t>
+          <t>26/03/2023 06:52</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-imabari/n1OO4PCe/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gifu/xMibetkg/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.96</v>
+        <v>1.88</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>26/03/2023 06:52</t>
+          <t>26/03/2023 06:56</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>26/03/2023 05:44</t>
+          <t>26/03/2023 06:56</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.44</v>
+        <v>3.77</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.42</v>
+        <v>4.07</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>26/03/2023 06:52</t>
+          <t>26/03/2023 06:56</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gifu/xMibetkg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-tegevajaro-miyazaki/dO7agKJ5/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.88</v>
+        <v>3.7</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>26/03/2023 06:56</t>
+          <t>26/03/2023 06:33</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>26/03/2023 06:56</t>
+          <t>26/03/2023 06:33</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.77</v>
+        <v>2.45</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.07</v>
+        <v>1.99</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>26/03/2023 06:56</t>
+          <t>26/03/2023 06:33</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-tegevajaro-miyazaki/dO7agKJ5/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-imabari/n1OO4PCe/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.49</v>
+        <v>2.64</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.04</v>
+        <v>3.16</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-iwate-grulla-morioka/Iacm7IYg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-azul-claro-numazu/0Onh6xl0/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>1.57</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>1.82</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:53</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.28</v>
+        <v>3.79</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:53</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>4.84</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.98</v>
+        <v>4.34</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:52</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-kagoshima-united/nuk43zYI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-yscc-yokohama/8lj04GIC/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>02/04/2023 06:53</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>02/04/2023 06:53</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.84</v>
+        <v>3.72</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.34</v>
+        <v>3.63</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>02/04/2023 06:52</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-yscc-yokohama/8lj04GIC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-gainare-tottori/vFod5d36/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.64</v>
+        <v>3.75</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.08</v>
+        <v>3.28</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.16</v>
+        <v>1.91</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-azul-claro-numazu/0Onh6xl0/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-kagoshima-united/nuk43zYI/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.23</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.51</v>
+        <v>3.49</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2.85</v>
+        <v>3.24</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.03</v>
+        <v>2.04</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.11</v>
+        <v>2.1</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-giravanz-kitakyushu/4dgq8bJm/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-iwate-grulla-morioka/Iacm7IYg/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.97</v>
+        <v>2.51</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.46</v>
+        <v>2.85</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.72</v>
+        <v>3.03</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.63</v>
+        <v>3.11</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-gainare-tottori/vFod5d36/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-giravanz-kitakyushu/4dgq8bJm/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.29</v>
+        <v>3.93</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-tegevajaro-miyazaki/Mc3nGDHO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kamatamare-sanuki/r74rHg2I/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.93</v>
+        <v>3.29</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kamatamare-sanuki/r74rHg2I/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-tegevajaro-miyazaki/Mc3nGDHO/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/04/2023 06:52</t>
+          <t>29/04/2023 06:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.16</v>
+        <v>3.09</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.26</v>
+        <v>3.47</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/04/2023 06:52</t>
+          <t>29/04/2023 06:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.16</v>
+        <v>3.27</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/04/2023 06:52</t>
+          <t>29/04/2023 06:59</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-sc-sagamihara/Ae3brW0H/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-kagoshima-united/K6AooYGb/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Vanraure</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>3</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.25</v>
+        <v>2.66</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.29</v>
+        <v>2.73</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.98</v>
+        <v>3.24</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,32 +7328,32 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
+          <t>29/04/2023 06:40</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>27/04/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
           <t>29/04/2023 06:58</t>
         </is>
       </c>
-      <c r="R75" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>27/04/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>29/04/2023 06:58</t>
-        </is>
-      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-vanraure/GY3fqCoB/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-matsumoto-yamaga/2VajphW4/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>29/04/2023 06:59</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.47</v>
+        <v>3.28</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>29/04/2023 06:59</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>29/04/2023 06:59</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-kagoshima-united/K6AooYGb/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-vanraure/GY3fqCoB/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.66</v>
+        <v>2.14</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.73</v>
+        <v>2.23</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:52</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7516,11 +7516,11 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>29/04/2023 06:40</t>
+          <t>29/04/2023 06:52</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.38</v>
+        <v>3.04</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.52</v>
+        <v>3.16</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-matsumoto-yamaga/2VajphW4/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-sc-sagamihara/Ae3brW0H/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Imabari</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Gifu</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
       <c r="J79" t="n">
-        <v>2.42</v>
+        <v>4.01</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.9</v>
+        <v>4.71</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/04/2023 05:54</t>
+          <t>30/04/2023 05:50</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.99</v>
+        <v>3.47</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.1</v>
+        <v>3.73</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/04/2023 05:54</t>
+          <t>30/04/2023 05:57</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.8</v>
+        <v>1.76</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.48</v>
+        <v>1.69</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/04/2023 05:54</t>
+          <t>30/04/2023 05:57</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-gifu/W65RyUwo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-imabari/UcJatAVT/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4.01</v>
+        <v>2.42</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4.71</v>
+        <v>2.9</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>30/04/2023 05:50</t>
+          <t>30/04/2023 05:54</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.47</v>
+        <v>2.99</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.73</v>
+        <v>3.1</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>30/04/2023 05:57</t>
+          <t>30/04/2023 05:54</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.76</v>
+        <v>2.8</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.69</v>
+        <v>2.48</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>30/04/2023 05:57</t>
+          <t>30/04/2023 05:54</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-imabari/UcJatAVT/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-gifu/W65RyUwo/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>14/05/2023 05:44</t>
+          <t>13/05/2023 23:01</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.28</v>
+        <v>3.46</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>14/05/2023 05:31</t>
+          <t>14/05/2023 04:52</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.39</v>
+        <v>3.58</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.92</v>
+        <v>3.29</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>14/05/2023 05:44</t>
+          <t>14/05/2023 04:52</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ehime/nesyhtUr/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ryukyu/fLtui0qk/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.67</v>
+        <v>1.94</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>14/05/2023 04:28</t>
+          <t>14/05/2023 05:44</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.09</v>
+        <v>3.28</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.16</v>
+        <v>3.63</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>14/05/2023 04:33</t>
+          <t>14/05/2023 05:31</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.41</v>
+        <v>3.39</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.51</v>
+        <v>2.92</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>14/05/2023 04:28</t>
+          <t>14/05/2023 05:44</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-iwate-grulla-morioka/pne9dMLR/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ehime/nesyhtUr/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,14 +9413,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>1.81</v>
+        <v>2.67</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.07</v>
+        <v>2.77</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>13/05/2023 23:01</t>
+          <t>14/05/2023 04:28</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.46</v>
+        <v>3.09</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/05/2023 04:52</t>
+          <t>14/05/2023 04:33</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.58</v>
+        <v>2.41</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.29</v>
+        <v>2.51</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/05/2023 04:52</t>
+          <t>14/05/2023 04:28</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ryukyu/fLtui0qk/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-iwate-grulla-morioka/pne9dMLR/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.95</v>
+        <v>2.74</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>28/05/2023 05:52</t>
+          <t>28/05/2023 03:43</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.37</v>
+        <v>3.14</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>28/05/2023 05:52</t>
+          <t>28/05/2023 04:01</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.27</v>
+        <v>2.37</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.06</v>
+        <v>2.5</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/05/2023 05:52</t>
+          <t>28/05/2023 03:43</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gainare-tottori/nF5I4JDl/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-iwate-grulla-morioka/UweN3wTf/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.74</v>
+        <v>1.95</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>28/05/2023 03:43</t>
+          <t>28/05/2023 05:52</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>28/05/2023 04:01</t>
+          <t>28/05/2023 05:52</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.37</v>
+        <v>3.27</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.5</v>
+        <v>3.06</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>28/05/2023 03:43</t>
+          <t>28/05/2023 05:52</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-iwate-grulla-morioka/UweN3wTf/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gainare-tottori/nF5I4JDl/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.51</v>
+        <v>2.78</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.7</v>
+        <v>3.32</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:22</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.13</v>
+        <v>3.01</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.27</v>
+        <v>3.19</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>28/05/2023 05:30</t>
+          <t>28/05/2023 06:22</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.59</v>
+        <v>2.37</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.54</v>
+        <v>2.19</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:22</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-nagano-parceiro/x4bV1Hc7/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-ryukyu/8UgR2cr1/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.78</v>
+        <v>2.51</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>3.32</v>
+        <v>2.7</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>28/05/2023 06:22</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.01</v>
+        <v>3.13</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.19</v>
+        <v>3.27</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>28/05/2023 06:22</t>
+          <t>28/05/2023 05:30</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.37</v>
+        <v>2.59</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.19</v>
+        <v>2.54</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>28/05/2023 06:22</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-ryukyu/8UgR2cr1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-nagano-parceiro/x4bV1Hc7/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.66</v>
+        <v>2.43</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.63</v>
+        <v>2.59</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/06/2023 06:58</t>
+          <t>04/06/2023 06:57</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.55</v>
+        <v>3.09</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.59</v>
+        <v>2.87</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/06/2023 06:58</t>
+          <t>04/06/2023 06:57</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.33</v>
+        <v>2.71</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.55</v>
+        <v>2.97</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>04/06/2023 06:53</t>
+          <t>04/06/2023 06:57</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-kamatamare-sanuki/Ozk5EfsD/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-tegevajaro-miyazaki/tCa0FzS6/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.43</v>
+        <v>1.66</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.59</v>
+        <v>1.63</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>04/06/2023 06:57</t>
+          <t>04/06/2023 06:58</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.09</v>
+        <v>3.55</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.87</v>
+        <v>3.59</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>04/06/2023 06:57</t>
+          <t>04/06/2023 06:58</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.71</v>
+        <v>4.33</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.97</v>
+        <v>5.55</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>04/06/2023 06:57</t>
+          <t>04/06/2023 06:53</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-tegevajaro-miyazaki/tCa0FzS6/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-kamatamare-sanuki/Ozk5EfsD/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12100,11 +12100,11 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>11/06/2023 08:59</t>
+          <t>11/06/2023 08:58</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.53</v>
+        <v>3.28</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>11/06/2023 07:08</t>
+          <t>11/06/2023 08:58</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>11/06/2023 08:59</t>
+          <t>11/06/2023 08:58</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-iwate-grulla-morioka/K2KZTZt0/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-nara-club/xvFvTgd6/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12192,11 +12192,11 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>11/06/2023 08:58</t>
+          <t>11/06/2023 08:59</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.28</v>
+        <v>3.53</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>11/06/2023 08:58</t>
+          <t>11/06/2023 07:08</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>11/06/2023 08:58</t>
+          <t>11/06/2023 08:59</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-nara-club/xvFvTgd6/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-iwate-grulla-morioka/K2KZTZt0/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,63 +12265,63 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>08/06/2023 09:12</t>
+          <t>08/06/2023 09:13</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.81</v>
+        <v>2.18</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>11/06/2023 10:56</t>
+          <t>11/06/2023 10:54</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>08/06/2023 09:12</t>
+          <t>08/06/2023 09:13</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.14</v>
+        <v>3.43</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>11/06/2023 10:56</t>
+          <t>11/06/2023 10:59</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>08/06/2023 09:12</t>
+          <t>08/06/2023 09:13</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.52</v>
+        <v>3.12</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>11/06/2023 10:56</t>
+          <t>11/06/2023 10:59</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-tegevajaro-miyazaki/GUDrSDBC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ryukyu/AiDnRXQI/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,63 +12357,63 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>08/06/2023 09:13</t>
+          <t>08/06/2023 09:12</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>11/06/2023 10:54</t>
+          <t>11/06/2023 10:56</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.13</v>
+        <v>2.98</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>08/06/2023 09:13</t>
+          <t>08/06/2023 09:12</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.43</v>
+        <v>3.14</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>11/06/2023 10:59</t>
+          <t>11/06/2023 10:56</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>08/06/2023 09:13</t>
+          <t>08/06/2023 09:12</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.12</v>
+        <v>2.52</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>11/06/2023 10:59</t>
+          <t>11/06/2023 10:56</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ryukyu/AiDnRXQI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-tegevajaro-miyazaki/GUDrSDBC/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.31</v>
+        <v>1.52</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>17/06/2023 10:51</t>
+          <t>17/06/2023 10:57</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.28</v>
+        <v>4.06</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>17/06/2023 10:51</t>
+          <t>17/06/2023 10:57</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.28</v>
+        <v>4.78</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3</v>
+        <v>5.95</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>17/06/2023 10:51</t>
+          <t>17/06/2023 10:57</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-nara-club/j938Feq4/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-kamatamare-sanuki/CI44GyUc/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>2</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Kamatamare</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
       <c r="J134" t="n">
-        <v>1.6</v>
+        <v>2.63</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,48 +12740,48 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.52</v>
+        <v>2.69</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
+          <t>17/06/2023 10:58</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>15/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
           <t>17/06/2023 10:57</t>
         </is>
       </c>
-      <c r="N134" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="O134" t="inlineStr">
+      <c r="R134" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S134" t="inlineStr">
         <is>
           <t>15/06/2023 09:12</t>
         </is>
       </c>
-      <c r="P134" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>17/06/2023 10:57</t>
-        </is>
-      </c>
-      <c r="R134" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>15/06/2023 09:12</t>
-        </is>
-      </c>
       <c r="T134" t="n">
-        <v>5.95</v>
+        <v>2.57</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>17/06/2023 10:57</t>
+          <t>17/06/2023 10:58</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-kamatamare-sanuki/CI44GyUc/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-toyama/4h50HHEi/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.69</v>
+        <v>2.31</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>17/06/2023 10:58</t>
+          <t>17/06/2023 10:51</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>17/06/2023 10:57</t>
+          <t>17/06/2023 10:51</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.51</v>
+        <v>3.28</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>17/06/2023 10:58</t>
+          <t>17/06/2023 10:51</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-toyama/4h50HHEi/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-nara-club/j938Feq4/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -13656,52 +13656,52 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 09:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>24/06/2023 10:39</t>
+          <t>24/06/2023 10:48</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 09:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.34</v>
+        <v>3.69</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>24/06/2023 10:39</t>
+          <t>24/06/2023 10:48</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.26</v>
+        <v>4.08</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 09:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.42</v>
+        <v>4.96</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>24/06/2023 10:39</t>
+          <t>24/06/2023 10:48</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-vanraure/CxXkSYS9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-sc-sagamihara/tCyfRhrG/</t>
         </is>
       </c>
     </row>
@@ -13729,71 +13729,71 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Vanraure</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
         <v>1</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Yamaga</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
       <c r="J145" t="n">
-        <v>2.73</v>
+        <v>1.74</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>22/06/2023 09:12</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.06</v>
+        <v>1.83</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24/06/2023 10:42</t>
+          <t>24/06/2023 10:39</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>22/06/2023 09:12</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.22</v>
+        <v>3.34</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>24/06/2023 10:44</t>
+          <t>24/06/2023 10:39</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>2.38</v>
+        <v>4.26</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>22/06/2023 09:12</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.31</v>
+        <v>4.42</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>24/06/2023 10:42</t>
+          <t>24/06/2023 10:39</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-matsumoto-yamaga/YoYoTED3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-vanraure/CxXkSYS9/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.74</v>
+        <v>2.73</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.67</v>
+        <v>3.06</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>24/06/2023 10:48</t>
+          <t>24/06/2023 10:42</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.4</v>
+        <v>3.06</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.69</v>
+        <v>3.22</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>24/06/2023 10:48</t>
+          <t>24/06/2023 10:44</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>4.08</v>
+        <v>2.38</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>4.96</v>
+        <v>2.31</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>24/06/2023 10:48</t>
+          <t>24/06/2023 10:42</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-sc-sagamihara/tCyfRhrG/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-matsumoto-yamaga/YoYoTED3/</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -14565,14 +14565,14 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.32</v>
+        <v>2.99</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>01/07/2023 10:48</t>
+          <t>01/07/2023 10:39</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.19</v>
+        <v>2.99</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>01/07/2023 10:48</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.16</v>
+        <v>2.67</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>01/07/2023 10:48</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-kagoshima-united/tYCUwWRL/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-vanraure/jqKHtYs3/</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -14657,14 +14657,14 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>2.47</v>
+        <v>2.11</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.99</v>
+        <v>2.32</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>01/07/2023 10:39</t>
+          <t>01/07/2023 10:48</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2.99</v>
+        <v>3.19</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:48</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.67</v>
+        <v>3.16</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:48</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-vanraure/jqKHtYs3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-kagoshima-united/tYCUwWRL/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I162" t="n">
         <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,48 +15316,48 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.95</v>
+        <v>2.91</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>08/07/2023 09:59</t>
+          <t>08/07/2023 09:58</t>
         </is>
       </c>
       <c r="N162" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>06/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
         <v>3.13</v>
       </c>
-      <c r="O162" t="inlineStr">
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>08/07/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S162" t="inlineStr">
         <is>
           <t>06/07/2023 09:12</t>
         </is>
       </c>
-      <c r="P162" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>08/07/2023 09:59</t>
-        </is>
-      </c>
-      <c r="R162" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>06/07/2023 09:12</t>
-        </is>
-      </c>
       <c r="T162" t="n">
-        <v>4.12</v>
+        <v>2.54</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>08/07/2023 09:59</t>
+          <t>08/07/2023 09:58</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-kamatamare-sanuki/b9qefiC2/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-gainare-tottori/x0ragBR8/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.91</v>
+        <v>1.95</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>08/07/2023 09:58</t>
+          <t>08/07/2023 09:59</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.13</v>
+        <v>3.31</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>08/07/2023 09:58</t>
+          <t>08/07/2023 09:59</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.92</v>
+        <v>3.36</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>2.54</v>
+        <v>4.12</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>08/07/2023 09:58</t>
+          <t>08/07/2023 09:59</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-gainare-tottori/x0ragBR8/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-kamatamare-sanuki/b9qefiC2/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>3.59</v>
+        <v>1.81</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>4.23</v>
+        <v>2.12</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.21</v>
+        <v>3.34</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.44</v>
+        <v>3.23</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>1.99</v>
+        <v>4</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>1.88</v>
+        <v>3.63</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-nara-club/0d8x7Ue8/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-ryukyu/EaCt6lBE/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G173" t="n">
+        <v>3</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Nara Club</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
         <v>2</v>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Tegevajaro Miyazaki</t>
-        </is>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
       <c r="J173" t="n">
-        <v>2.64</v>
+        <v>3.59</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2.98</v>
+        <v>3.21</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.06</v>
+        <v>3.44</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.59</v>
+        <v>1.99</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.59</v>
+        <v>1.88</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-tegevajaro-miyazaki/pnZDmtem/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-nara-club/0d8x7Ue8/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,14 +16405,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>2.47</v>
+        <v>2.64</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.81</v>
+        <v>2.9</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.32</v>
+        <v>3.06</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>15/07/2023 10:56</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-imabari/6ezAlMus/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-tegevajaro-miyazaki/pnZDmtem/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1.81</v>
+        <v>2.47</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.12</v>
+        <v>2.81</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.34</v>
+        <v>3.05</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:56</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>4</v>
+        <v>2.79</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.63</v>
+        <v>2.5</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-ryukyu/EaCt6lBE/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-imabari/6ezAlMus/</t>
         </is>
       </c>
     </row>
@@ -17225,22 +17225,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.23</v>
+        <v>1.82</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:44</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:59</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>4.34</v>
+        <v>3.88</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>3.32</v>
+        <v>4.7</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:44</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-vanraure/tElh1aPn/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-nagano-parceiro/fHhd0Jvg/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.82</v>
+        <v>2.23</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:44</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:59</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>3.88</v>
+        <v>4.34</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>4.7</v>
+        <v>3.32</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:44</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-nagano-parceiro/fHhd0Jvg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-vanraure/tElh1aPn/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.83</v>
+        <v>2.23</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>23/07/2023 10:55</t>
+          <t>23/07/2023 10:57</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>23/07/2023 10:55</t>
+          <t>23/07/2023 10:57</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.41</v>
+        <v>3.41</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>4.97</v>
+        <v>3.16</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>23/07/2023 10:55</t>
+          <t>23/07/2023 10:57</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-kamatamare-sanuki/tf69eegO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ehime/fcADfF8U/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.23</v>
+        <v>1.83</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>23/07/2023 10:57</t>
+          <t>23/07/2023 10:55</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>23/07/2023 10:57</t>
+          <t>23/07/2023 10:55</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>3.41</v>
+        <v>4.41</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>3.16</v>
+        <v>4.97</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>23/07/2023 10:57</t>
+          <t>23/07/2023 10:55</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ehime/fcADfF8U/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-kamatamare-sanuki/tf69eegO/</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -18613,14 +18613,14 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.01</v>
+        <v>2.37</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:59</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.43</v>
+        <v>3.14</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:59</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>4.19</v>
+        <v>3.04</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.83</v>
+        <v>3.13</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:59</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-tegevajaro-miyazaki/vqRI3hoo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-toyama/hnF0SyOo/</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -18705,14 +18705,14 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:59</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.14</v>
+        <v>3.43</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:59</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>3.04</v>
+        <v>4.19</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.13</v>
+        <v>3.83</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:59</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-toyama/hnF0SyOo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-tegevajaro-miyazaki/vqRI3hoo/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>2.78</v>
+        <v>1.97</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,11 +19104,11 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.03</v>
+        <v>3.24</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="R203" t="n">
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>2.73</v>
+        <v>4.13</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kamatamare-sanuki/zV6HOgNA/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-ehime/dpeQMXiN/</t>
         </is>
       </c>
     </row>
@@ -19157,22 +19157,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -19180,15 +19180,15 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:54</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -19196,15 +19196,15 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.47</v>
+        <v>3.03</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:57</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
@@ -19212,16 +19212,16 @@
         </is>
       </c>
       <c r="T204" t="n">
-        <v>2.49</v>
+        <v>2.73</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:54</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-imabari/EL5LNDxH/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kamatamare-sanuki/zV6HOgNA/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1.97</v>
+        <v>2.72</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:54</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.24</v>
+        <v>3.47</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:57</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>4.13</v>
+        <v>2.49</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:54</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-ehime/dpeQMXiN/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-imabari/EL5LNDxH/</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -20453,14 +20453,14 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>2.05</v>
+        <v>1.56</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -20468,15 +20468,15 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.23</v>
+        <v>1.78</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>13/08/2023 10:45</t>
+          <t>13/08/2023 10:58</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.22</v>
+        <v>3.74</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -20484,32 +20484,32 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
+          <t>13/08/2023 10:58</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>10/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T218" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
           <t>13/08/2023 10:03</t>
         </is>
       </c>
-      <c r="R218" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S218" t="inlineStr">
-        <is>
-          <t>10/08/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T218" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U218" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:45</t>
-        </is>
-      </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-gainare-tottori/48TRv6D8/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-sc-sagamihara/ALbSxprL/</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -20545,14 +20545,14 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="n">
-        <v>1.56</v>
+        <v>2.05</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -20560,15 +20560,15 @@
         </is>
       </c>
       <c r="L219" t="n">
-        <v>1.78</v>
+        <v>2.23</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>13/08/2023 10:58</t>
+          <t>13/08/2023 10:45</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.74</v>
+        <v>3.22</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -20576,15 +20576,15 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>13/08/2023 10:58</t>
+          <t>13/08/2023 10:03</t>
         </is>
       </c>
       <c r="R219" t="n">
-        <v>5.19</v>
+        <v>3.3</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
@@ -20592,16 +20592,16 @@
         </is>
       </c>
       <c r="T219" t="n">
-        <v>4.39</v>
+        <v>3.18</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>13/08/2023 10:03</t>
+          <t>13/08/2023 10:45</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-sc-sagamihara/ALbSxprL/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-gainare-tottori/48TRv6D8/</t>
         </is>
       </c>
     </row>
@@ -20813,7 +20813,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -20821,14 +20821,14 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>19/08/2023 10:51</t>
+          <t>19/08/2023 10:56</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>19/08/2023 10:51</t>
+          <t>19/08/2023 09:52</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>19/08/2023 10:51</t>
+          <t>19/08/2023 10:07</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-yscc-yokohama/6ipbXN5r/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-ehime/lCcWy4cR/</t>
         </is>
       </c>
     </row>
@@ -20905,22 +20905,22 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -20928,15 +20928,15 @@
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.56</v>
+        <v>2.73</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>19/08/2023 10:56</t>
+          <t>19/08/2023 10:49</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -20944,15 +20944,15 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>19/08/2023 09:52</t>
+          <t>19/08/2023 10:49</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
@@ -20960,16 +20960,16 @@
         </is>
       </c>
       <c r="T223" t="n">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>19/08/2023 10:07</t>
+          <t>19/08/2023 10:49</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-ehime/lCcWy4cR/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-ryukyu/2Jw7V1ze/</t>
         </is>
       </c>
     </row>
@@ -20997,22 +20997,22 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I224" t="n">
         <v>1</v>
       </c>
       <c r="J224" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -21020,15 +21020,15 @@
         </is>
       </c>
       <c r="L224" t="n">
-        <v>2.73</v>
+        <v>2.53</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>19/08/2023 10:49</t>
+          <t>19/08/2023 10:51</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -21036,15 +21036,15 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>19/08/2023 10:49</t>
+          <t>19/08/2023 10:51</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
@@ -21052,16 +21052,16 @@
         </is>
       </c>
       <c r="T224" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>19/08/2023 10:49</t>
+          <t>19/08/2023 10:51</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-ryukyu/2Jw7V1ze/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-yscc-yokohama/6ipbXN5r/</t>
         </is>
       </c>
     </row>
@@ -21089,7 +21089,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -21097,14 +21097,14 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>3.08</v>
+        <v>3.72</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -21112,15 +21112,15 @@
         </is>
       </c>
       <c r="L225" t="n">
-        <v>3.22</v>
+        <v>3.63</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>19/08/2023 11:46</t>
+          <t>17/08/2023 17:32</t>
         </is>
       </c>
       <c r="N225" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
@@ -21128,15 +21128,15 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>19/08/2023 10:10</t>
+          <t>19/08/2023 10:04</t>
         </is>
       </c>
       <c r="R225" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="S225" t="inlineStr">
         <is>
@@ -21144,16 +21144,16 @@
         </is>
       </c>
       <c r="T225" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="U225" t="inlineStr">
         <is>
-          <t>19/08/2023 11:46</t>
+          <t>17/08/2023 17:32</t>
         </is>
       </c>
       <c r="V225" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-toyama/AqsFTu57/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-imabari/h86ayhOD/</t>
         </is>
       </c>
     </row>
@@ -21181,22 +21181,22 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
         <v>2</v>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>Azul Claro Numazu</t>
-        </is>
-      </c>
-      <c r="I226" t="n">
-        <v>3</v>
-      </c>
       <c r="J226" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -21204,15 +21204,15 @@
         </is>
       </c>
       <c r="L226" t="n">
-        <v>2.92</v>
+        <v>2.34</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 10:54</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>2.98</v>
+        <v>3.24</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -21220,15 +21220,15 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 10:54</t>
         </is>
       </c>
       <c r="R226" t="n">
-        <v>2.49</v>
+        <v>3.28</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
@@ -21236,16 +21236,16 @@
         </is>
       </c>
       <c r="T226" t="n">
-        <v>2.63</v>
+        <v>2.91</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 10:54</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-azul-claro-numazu/tAxBULk1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-matsumoto-yamaga/4rA3zCwK/</t>
         </is>
       </c>
     </row>
@@ -21273,22 +21273,22 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G227" t="n">
+        <v>2</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Tegevajaro Miyazaki</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Yamaga</t>
-        </is>
-      </c>
-      <c r="I227" t="n">
-        <v>2</v>
-      </c>
       <c r="J227" t="n">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -21296,48 +21296,48 @@
         </is>
       </c>
       <c r="L227" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>19/08/2023 10:54</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="N227" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>17/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
         <v>3.24</v>
       </c>
-      <c r="O227" t="inlineStr">
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>19/08/2023 11:45</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S227" t="inlineStr">
         <is>
           <t>17/08/2023 09:13</t>
         </is>
       </c>
-      <c r="P227" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>19/08/2023 10:54</t>
-        </is>
-      </c>
-      <c r="R227" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="S227" t="inlineStr">
-        <is>
-          <t>17/08/2023 09:13</t>
-        </is>
-      </c>
       <c r="T227" t="n">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>19/08/2023 10:54</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-matsumoto-yamaga/4rA3zCwK/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-tegevajaro-miyazaki/lztJSaKD/</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -21373,14 +21373,14 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>3.72</v>
+        <v>3.08</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -21388,15 +21388,15 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>3.63</v>
+        <v>3.22</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>17/08/2023 17:32</t>
+          <t>19/08/2023 11:46</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -21404,15 +21404,15 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>19/08/2023 10:04</t>
+          <t>19/08/2023 10:10</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
@@ -21420,16 +21420,16 @@
         </is>
       </c>
       <c r="T228" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>17/08/2023 17:32</t>
+          <t>19/08/2023 11:46</t>
         </is>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-imabari/h86ayhOD/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-toyama/AqsFTu57/</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -21465,14 +21465,14 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J229" t="n">
-        <v>1.89</v>
+        <v>2.75</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -21480,15 +21480,15 @@
         </is>
       </c>
       <c r="L229" t="n">
-        <v>2.44</v>
+        <v>2.92</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>3.31</v>
+        <v>2.98</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -21496,15 +21496,15 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>3.24</v>
+        <v>2.99</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="R229" t="n">
-        <v>3.69</v>
+        <v>2.49</v>
       </c>
       <c r="S229" t="inlineStr">
         <is>
@@ -21512,16 +21512,16 @@
         </is>
       </c>
       <c r="T229" t="n">
-        <v>2.96</v>
+        <v>2.63</v>
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-tegevajaro-miyazaki/lztJSaKD/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-azul-claro-numazu/tAxBULk1/</t>
         </is>
       </c>
     </row>
@@ -22101,22 +22101,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J236" t="n">
-        <v>1.97</v>
+        <v>1.68</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -22124,15 +22124,15 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>26/08/2023 10:09</t>
+          <t>26/08/2023 11:09</t>
         </is>
       </c>
       <c r="N236" t="n">
-        <v>3.2</v>
+        <v>3.53</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -22140,15 +22140,15 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>26/08/2023 10:09</t>
+          <t>26/08/2023 11:09</t>
         </is>
       </c>
       <c r="R236" t="n">
-        <v>3.56</v>
+        <v>4.5</v>
       </c>
       <c r="S236" t="inlineStr">
         <is>
@@ -22156,16 +22156,16 @@
         </is>
       </c>
       <c r="T236" t="n">
-        <v>3.64</v>
+        <v>4.57</v>
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>26/08/2023 11:53</t>
+          <t>26/08/2023 11:09</t>
         </is>
       </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-sc-sagamihara/hSUtlV7J/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kamatamare-sanuki/QLtaPoVI/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J238" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>26/08/2023 11:49</t>
+          <t>26/08/2023 10:09</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>26/08/2023 11:49</t>
+          <t>26/08/2023 10:09</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>3.3</v>
+        <v>3.64</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>26/08/2023 11:49</t>
+          <t>26/08/2023 11:53</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-gainare-tottori/nVseQRFC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-sc-sagamihara/hSUtlV7J/</t>
         </is>
       </c>
     </row>
@@ -22377,7 +22377,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G239" t="n">
@@ -22385,14 +22385,14 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -22400,15 +22400,15 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>1.83</v>
+        <v>2.19</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>26/08/2023 11:09</t>
+          <t>26/08/2023 11:49</t>
         </is>
       </c>
       <c r="N239" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -22416,15 +22416,15 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>26/08/2023 11:09</t>
+          <t>26/08/2023 11:49</t>
         </is>
       </c>
       <c r="R239" t="n">
-        <v>4.5</v>
+        <v>3.48</v>
       </c>
       <c r="S239" t="inlineStr">
         <is>
@@ -22432,16 +22432,16 @@
         </is>
       </c>
       <c r="T239" t="n">
-        <v>4.57</v>
+        <v>3.3</v>
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>26/08/2023 11:09</t>
+          <t>26/08/2023 11:49</t>
         </is>
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kamatamare-sanuki/QLtaPoVI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-gainare-tottori/nVseQRFC/</t>
         </is>
       </c>
     </row>
@@ -22745,22 +22745,22 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J243" t="n">
-        <v>2.05</v>
+        <v>1.68</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,15 +22768,15 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>02/09/2023 10:47</t>
+          <t>02/09/2023 10:53</t>
         </is>
       </c>
       <c r="N243" t="n">
-        <v>3.08</v>
+        <v>3.51</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -22784,15 +22784,15 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>02/09/2023 10:47</t>
+          <t>02/09/2023 10:53</t>
         </is>
       </c>
       <c r="R243" t="n">
-        <v>3.45</v>
+        <v>4.46</v>
       </c>
       <c r="S243" t="inlineStr">
         <is>
@@ -22800,16 +22800,16 @@
         </is>
       </c>
       <c r="T243" t="n">
-        <v>2.99</v>
+        <v>2.89</v>
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>02/09/2023 10:47</t>
+          <t>02/09/2023 10:53</t>
         </is>
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-kamatamare-sanuki/EebO08iP/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-sc-sagamihara/E51xw5aI/</t>
         </is>
       </c>
     </row>
@@ -22837,22 +22837,22 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I244" t="n">
         <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>3.33</v>
+        <v>2.05</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -22860,15 +22860,15 @@
         </is>
       </c>
       <c r="L244" t="n">
-        <v>3.51</v>
+        <v>2.42</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>02/09/2023 10:51</t>
+          <t>02/09/2023 10:47</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>3.33</v>
+        <v>3.08</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -22876,15 +22876,15 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3.8</v>
+        <v>3.23</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>02/09/2023 10:51</t>
+          <t>02/09/2023 10:47</t>
         </is>
       </c>
       <c r="R244" t="n">
-        <v>2.03</v>
+        <v>3.45</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
@@ -22892,16 +22892,16 @@
         </is>
       </c>
       <c r="T244" t="n">
-        <v>1.96</v>
+        <v>2.99</v>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>02/09/2023 10:51</t>
+          <t>02/09/2023 10:47</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ehime/Kr2YwopC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-kamatamare-sanuki/EebO08iP/</t>
         </is>
       </c>
     </row>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G245" t="n">
@@ -22937,14 +22937,14 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
-        <v>1.86</v>
+        <v>3.33</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -22952,48 +22952,48 @@
         </is>
       </c>
       <c r="L245" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>02/09/2023 10:51</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>31/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>02/09/2023 10:51</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>31/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T245" t="n">
         <v>1.96</v>
       </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>02/09/2023 10:26</t>
-        </is>
-      </c>
-      <c r="N245" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>31/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P245" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q245" t="inlineStr">
-        <is>
-          <t>02/09/2023 10:29</t>
-        </is>
-      </c>
-      <c r="R245" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S245" t="inlineStr">
-        <is>
-          <t>31/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T245" t="n">
-        <v>4.02</v>
-      </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>02/09/2023 10:26</t>
+          <t>02/09/2023 10:51</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fukushima-united/OG8Pu7Fa/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ehime/Kr2YwopC/</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -23029,14 +23029,14 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J246" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>2.35</v>
+        <v>1.96</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>02/09/2023 10:53</t>
+          <t>02/09/2023 10:26</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.51</v>
+        <v>3.26</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>02/09/2023 10:53</t>
+          <t>02/09/2023 10:29</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>4.46</v>
+        <v>3.88</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>2.89</v>
+        <v>4.02</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>02/09/2023 10:53</t>
+          <t>02/09/2023 10:26</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-sc-sagamihara/E51xw5aI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fukushima-united/OG8Pu7Fa/</t>
         </is>
       </c>
     </row>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -23213,14 +23213,14 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>1.57</v>
+        <v>2.41</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.64</v>
+        <v>2.53</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:50</t>
+          <t>02/09/2023 11:54</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.75</v>
+        <v>3.11</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.81</v>
+        <v>3.2</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:50</t>
+          <t>02/09/2023 11:54</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>5.06</v>
+        <v>2.74</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.39</v>
+        <v>2.86</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:50</t>
+          <t>02/09/2023 10:56</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-giravanz-kitakyushu/CjKuxPEO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gainare-tottori/pQ9Ltm0g/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2.41</v>
+        <v>1.57</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.53</v>
+        <v>1.64</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>02/09/2023 11:54</t>
+          <t>02/09/2023 11:50</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.2</v>
+        <v>3.81</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>02/09/2023 11:54</t>
+          <t>02/09/2023 11:50</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>2.74</v>
+        <v>5.06</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>2.86</v>
+        <v>5.39</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>02/09/2023 10:56</t>
+          <t>02/09/2023 11:50</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gainare-tottori/pQ9Ltm0g/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-giravanz-kitakyushu/CjKuxPEO/</t>
         </is>
       </c>
     </row>
@@ -27410,6 +27410,742 @@
       <c r="V293" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-kamatamare-sanuki/C8L1RAer/</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45207.25</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Fukushima Utd</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Imabari</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:53</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:53</t>
+        </is>
+      </c>
+      <c r="R294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T294" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:53</t>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-imabari/jaK5QUAl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45207.25</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Gainare Tottori</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Sagamihara</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:46</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P295" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:01</t>
+        </is>
+      </c>
+      <c r="R295" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T295" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:46</t>
+        </is>
+      </c>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-sc-sagamihara/8f54oWnE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45207.25</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>YSCC</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>1</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Nara Club</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:16</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:16</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T296" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:16</t>
+        </is>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-nara-club/pMJ9PlQf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45207.29166666666</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Gifu</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>2</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Azul Claro Numazu</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:14</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T297" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-azul-claro-numazu/KvCMMnAD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45207.29166666666</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Giravanz Kitakyushu</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:47</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P298" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T298" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-toyama/SrIxTNWn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45207.29166666666</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>1</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Grulla Morioka</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>4</v>
+      </c>
+      <c r="J299" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:04</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T299" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-iwate-grulla-morioka/bPNDO8u1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45207.29166666666</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Nagano</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>1</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Vanraure</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:31</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P300" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:31</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T300" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:31</t>
+        </is>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-vanraure/tlDINSf7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Ehime</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Tegevajaro Miyazaki</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:53</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P301" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:53</t>
+        </is>
+      </c>
+      <c r="R301" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T301" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:53</t>
+        </is>
+      </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-tegevajaro-miyazaki/pKSXT3Ht/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j3-league_2023.xlsx
+++ b/2023/japan_j3-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V301"/>
+  <dimension ref="A1:V303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.73</v>
+        <v>2.16</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/03/2023 05:20</t>
+          <t>12/03/2023 06:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.96</v>
+        <v>3.11</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.08</v>
+        <v>3.35</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/03/2023 05:20</t>
+          <t>12/03/2023 06:59</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.43</v>
+        <v>3.03</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/03/2023 05:20</t>
+          <t>12/03/2023 06:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-fukushima-united/Us9u9Jnp/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-nagano-parceiro/O48q8w2j/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.16</v>
+        <v>2.73</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/03/2023 06:59</t>
+          <t>12/03/2023 05:20</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.11</v>
+        <v>2.96</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.35</v>
+        <v>3.08</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/03/2023 06:59</t>
+          <t>12/03/2023 05:20</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.03</v>
+        <v>2.43</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2380,12 +2380,12 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/03/2023 06:59</t>
+          <t>12/03/2023 05:20</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-nagano-parceiro/O48q8w2j/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-fukushima-united/Us9u9Jnp/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.04</v>
+        <v>3.06</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.06</v>
+        <v>4.95</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:50</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.07</v>
+        <v>3.19</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.21</v>
+        <v>3.41</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:50</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.31</v>
+        <v>2.11</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.65</v>
+        <v>1.74</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:50</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ryukyu/EgyxETk9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-matsumoto-yamaga/KWyYE9z3/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.06</v>
+        <v>2.04</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4.95</v>
+        <v>2.06</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:50</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.19</v>
+        <v>3.07</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.41</v>
+        <v>3.21</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:50</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.11</v>
+        <v>3.31</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.74</v>
+        <v>3.65</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:50</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-matsumoto-yamaga/KWyYE9z3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ryukyu/EgyxETk9/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Nara Club</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>3</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Giravanz Kitakyushu</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>17/03/2023 04:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.21</v>
+        <v>1.83</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>19/03/2023 05:36</t>
+          <t>19/03/2023 05:34</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>17/03/2023 04:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>19/03/2023 05:36</t>
+          <t>19/03/2023 05:34</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.27</v>
+        <v>4.26</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>17/03/2023 04:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.17</v>
+        <v>4.29</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>19/03/2023 05:36</t>
+          <t>19/03/2023 04:03</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-giravanz-kitakyushu/Sn2O1rCP/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-nara-club/QsOuwaZO/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.23</v>
+        <v>1.99</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>17/03/2023 04:13</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/03/2023 04:57</t>
+          <t>19/03/2023 05:36</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>17/03/2023 04:13</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.2</v>
+        <v>3.29</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19/03/2023 04:57</t>
+          <t>19/03/2023 05:36</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.03</v>
+        <v>3.27</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>17/03/2023 04:13</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.02</v>
+        <v>3.17</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>19/03/2023 04:57</t>
+          <t>19/03/2023 05:36</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-sc-sagamihara/CvfuDm5F/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-giravanz-kitakyushu/Sn2O1rCP/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sagamihara</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Nara Club</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/03/2023 05:34</t>
+          <t>19/03/2023 04:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.43</v>
+        <v>3.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.41</v>
+        <v>3.2</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/03/2023 05:34</t>
+          <t>19/03/2023 04:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.26</v>
+        <v>3.03</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.29</v>
+        <v>3.02</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/03/2023 04:03</t>
+          <t>19/03/2023 04:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-nara-club/QsOuwaZO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-sc-sagamihara/CvfuDm5F/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.6</v>
+        <v>3.11</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-azul-claro-numazu/0Onh6xl0/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-giravanz-kitakyushu/4dgq8bJm/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.82</v>
+        <v>2.64</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/04/2023 06:53</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.79</v>
+        <v>3.08</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.43</v>
+        <v>3.25</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/04/2023 06:53</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.84</v>
+        <v>3.16</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.34</v>
+        <v>2.6</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/04/2023 06:52</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-yscc-yokohama/8lj04GIC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-azul-claro-numazu/0Onh6xl0/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:53</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:53</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.72</v>
+        <v>4.84</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.63</v>
+        <v>4.34</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:52</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-gainare-tottori/vFod5d36/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-yscc-yokohama/8lj04GIC/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>1.79</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>1.97</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.91</v>
+        <v>3.72</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.98</v>
+        <v>3.63</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-kagoshima-united/nuk43zYI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-gainare-tottori/vFod5d36/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Kagoshima Utd</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Grulla Morioka</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-iwate-grulla-morioka/Iacm7IYg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-kagoshima-united/nuk43zYI/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.23</v>
+        <v>3.1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.51</v>
+        <v>3.49</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.85</v>
+        <v>3.24</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.03</v>
+        <v>2.04</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.11</v>
+        <v>2.1</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-giravanz-kitakyushu/4dgq8bJm/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-iwate-grulla-morioka/Iacm7IYg/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>4</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Kamatamare</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.79</v>
+        <v>2.9</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,48 +5840,48 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.22</v>
+        <v>3.49</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
+          <t>09/04/2023 06:20</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>07/04/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
           <t>09/04/2023 06:38</t>
         </is>
       </c>
-      <c r="N59" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="O59" t="inlineStr">
+      <c r="R59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S59" t="inlineStr">
         <is>
           <t>07/04/2023 19:12</t>
         </is>
       </c>
-      <c r="P59" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>09/04/2023 06:38</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>07/04/2023 19:12</t>
-        </is>
-      </c>
       <c r="T59" t="n">
-        <v>3.19</v>
+        <v>2.1</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:20</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kamatamare-sanuki/r74rHg2I/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-matsumoto-yamaga/zF6TvcfP/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.29</v>
+        <v>3.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-tegevajaro-miyazaki/Mc3nGDHO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kamatamare-sanuki/r74rHg2I/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.9</v>
+        <v>1.97</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3.49</v>
+        <v>2.34</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>09/04/2023 06:20</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.3</v>
+        <v>3.29</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>09/04/2023 06:20</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-matsumoto-yamaga/zF6TvcfP/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-tegevajaro-miyazaki/Mc3nGDHO/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.66</v>
+        <v>2.14</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.73</v>
+        <v>2.23</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:52</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7332,11 +7332,11 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>29/04/2023 06:40</t>
+          <t>29/04/2023 06:52</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.38</v>
+        <v>3.04</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.52</v>
+        <v>3.16</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:52</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-matsumoto-yamaga/2VajphW4/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-sc-sagamihara/Ae3brW0H/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Vanraure</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.25</v>
+        <v>2.66</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.29</v>
+        <v>2.73</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.98</v>
+        <v>3.24</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,32 +7420,32 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
+          <t>29/04/2023 06:40</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>27/04/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
           <t>29/04/2023 06:58</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>27/04/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>29/04/2023 06:58</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-vanraure/GY3fqCoB/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-matsumoto-yamaga/2VajphW4/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>29/04/2023 06:52</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.16</v>
+        <v>2.98</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,32 +7512,32 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>29/04/2023 06:52</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="R77" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>27/04/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
         <v>3.04</v>
       </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>27/04/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>3.16</v>
-      </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>29/04/2023 06:52</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-sc-sagamihara/Ae3brW0H/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-vanraure/GY3fqCoB/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.34</v>
+        <v>1.72</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>13/05/2023 05:57</t>
+          <t>13/05/2023 05:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>13/05/2023 05:56</t>
+          <t>13/05/2023 05:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.78</v>
+        <v>4.18</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.73</v>
+        <v>3.88</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>13/05/2023 05:57</t>
+          <t>13/05/2023 05:59</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-sc-sagamihara/G63h04M2/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-fc-osaka/fc2daOy9/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>1.72</v>
+        <v>2.34</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.95</v>
+        <v>2.43</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>13/05/2023 05:59</t>
+          <t>13/05/2023 05:57</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>13/05/2023 05:59</t>
+          <t>13/05/2023 05:56</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.18</v>
+        <v>2.78</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.88</v>
+        <v>2.73</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>13/05/2023 05:59</t>
+          <t>13/05/2023 05:57</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-fc-osaka/fc2daOy9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-sc-sagamihara/G63h04M2/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>1.81</v>
+        <v>2.67</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.07</v>
+        <v>2.77</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>13/05/2023 23:01</t>
+          <t>14/05/2023 04:28</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.46</v>
+        <v>3.09</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>14/05/2023 04:52</t>
+          <t>14/05/2023 04:33</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.58</v>
+        <v>2.41</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.29</v>
+        <v>2.51</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>14/05/2023 04:52</t>
+          <t>14/05/2023 04:28</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ryukyu/fLtui0qk/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-iwate-grulla-morioka/pne9dMLR/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>14/05/2023 05:44</t>
+          <t>13/05/2023 23:01</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.28</v>
+        <v>3.46</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>14/05/2023 05:31</t>
+          <t>14/05/2023 04:52</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.39</v>
+        <v>3.58</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.92</v>
+        <v>3.29</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>14/05/2023 05:44</t>
+          <t>14/05/2023 04:52</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ehime/nesyhtUr/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ryukyu/fLtui0qk/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.67</v>
+        <v>1.94</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/05/2023 04:28</t>
+          <t>14/05/2023 05:44</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.09</v>
+        <v>3.28</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.16</v>
+        <v>3.63</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/05/2023 04:33</t>
+          <t>14/05/2023 05:31</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.41</v>
+        <v>3.39</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.51</v>
+        <v>2.92</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/05/2023 04:28</t>
+          <t>14/05/2023 05:44</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-iwate-grulla-morioka/pne9dMLR/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ehime/nesyhtUr/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Fukushima Utd</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Gifu</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
       <c r="J99" t="n">
-        <v>2.99</v>
+        <v>1.85</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14/05/2023 06:57</t>
+          <t>13/05/2023 16:44</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.09</v>
+        <v>3.37</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.18</v>
+        <v>3.59</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>14/05/2023 06:57</t>
+          <t>14/05/2023 06:36</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.24</v>
+        <v>3.56</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.23</v>
+        <v>3.97</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>14/05/2023 06:57</t>
+          <t>14/05/2023 06:36</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-gifu/GzVmkvE1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-fukushima-united/YBuqjKbe/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.51</v>
+        <v>2.99</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.76</v>
+        <v>3.25</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.01</v>
+        <v>3.09</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.36</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>14/05/2023 06:02</t>
+          <t>14/05/2023 06:57</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.61</v>
+        <v>2.24</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-tegevajaro-miyazaki/UwZilbT7/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-gifu/GzVmkvE1/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Tegevajaro Miyazaki</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
         <v>1</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Fukushima Utd</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
       <c r="J101" t="n">
-        <v>1.85</v>
+        <v>2.51</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.85</v>
+        <v>2.76</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>13/05/2023 16:44</t>
+          <t>14/05/2023 06:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.37</v>
+        <v>3.01</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.59</v>
+        <v>3.36</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>14/05/2023 06:36</t>
+          <t>14/05/2023 06:02</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.56</v>
+        <v>2.61</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.97</v>
+        <v>2.43</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>14/05/2023 06:36</t>
+          <t>14/05/2023 06:57</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-fukushima-united/YBuqjKbe/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-tegevajaro-miyazaki/UwZilbT7/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.78</v>
+        <v>2.51</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>3.32</v>
+        <v>2.7</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>28/05/2023 06:22</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.01</v>
+        <v>3.13</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.19</v>
+        <v>3.27</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>28/05/2023 06:22</t>
+          <t>28/05/2023 05:30</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.37</v>
+        <v>2.59</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.19</v>
+        <v>2.54</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>28/05/2023 06:22</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-ryukyu/8UgR2cr1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-nagano-parceiro/x4bV1Hc7/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.51</v>
+        <v>2.78</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.7</v>
+        <v>3.32</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:22</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.13</v>
+        <v>3.01</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.27</v>
+        <v>3.19</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>28/05/2023 05:30</t>
+          <t>28/05/2023 06:22</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.59</v>
+        <v>2.37</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.54</v>
+        <v>2.19</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:22</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-nagano-parceiro/x4bV1Hc7/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-ryukyu/8UgR2cr1/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>11/06/2023 06:55</t>
+          <t>11/06/2023 06:57</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.42</v>
+        <v>2.99</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.83</v>
+        <v>3.25</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>11/06/2023 06:56</t>
+          <t>11/06/2023 06:57</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.04</v>
+        <v>3.08</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>11/06/2023 06:55</t>
+          <t>11/06/2023 06:57</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-gainare-tottori/zFINWycs/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-gifu/nkMRVeCm/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,14 +11897,14 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>11/06/2023 06:57</t>
+          <t>11/06/2023 06:55</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2.99</v>
+        <v>3.42</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.25</v>
+        <v>3.83</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>11/06/2023 06:57</t>
+          <t>11/06/2023 06:56</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.08</v>
+        <v>4.04</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>11/06/2023 06:57</t>
+          <t>11/06/2023 06:55</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-gifu/nkMRVeCm/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-gainare-tottori/zFINWycs/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.18</v>
+        <v>2.55</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>11/06/2023 10:54</t>
+          <t>11/06/2023 10:49</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.43</v>
+        <v>3.2</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>11/06/2023 10:59</t>
+          <t>11/06/2023 09:29</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>3.12</v>
+        <v>2.73</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>11/06/2023 10:59</t>
+          <t>11/06/2023 10:49</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ryukyu/AiDnRXQI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-matsumoto-yamaga/MTuG95eo/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,63 +12357,63 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>08/06/2023 09:12</t>
+          <t>08/06/2023 09:13</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.81</v>
+        <v>2.18</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>11/06/2023 10:56</t>
+          <t>11/06/2023 10:54</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>08/06/2023 09:12</t>
+          <t>08/06/2023 09:13</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.14</v>
+        <v>3.43</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>11/06/2023 10:56</t>
+          <t>11/06/2023 10:59</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>08/06/2023 09:12</t>
+          <t>08/06/2023 09:13</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.52</v>
+        <v>3.12</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>11/06/2023 10:56</t>
+          <t>11/06/2023 10:59</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-tegevajaro-miyazaki/GUDrSDBC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ryukyu/AiDnRXQI/</t>
         </is>
       </c>
     </row>
@@ -12441,71 +12441,71 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>08/06/2023 09:13</t>
+          <t>08/06/2023 09:12</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.55</v>
+        <v>2.81</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>11/06/2023 10:49</t>
+          <t>11/06/2023 10:56</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.17</v>
+        <v>2.98</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>08/06/2023 09:13</t>
+          <t>08/06/2023 09:12</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>11/06/2023 09:29</t>
+          <t>11/06/2023 10:56</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>08/06/2023 09:13</t>
+          <t>08/06/2023 09:12</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>11/06/2023 10:49</t>
+          <t>11/06/2023 10:56</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-matsumoto-yamaga/MTuG95eo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-tegevajaro-miyazaki/GUDrSDBC/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>1.74</v>
+        <v>2.91</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.67</v>
+        <v>3.08</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>24/06/2023 10:48</t>
+          <t>24/06/2023 10:51</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.69</v>
+        <v>3.21</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>24/06/2023 10:48</t>
+          <t>24/06/2023 10:51</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.08</v>
+        <v>2.24</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.96</v>
+        <v>2.3</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>24/06/2023 10:48</t>
+          <t>24/06/2023 10:51</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-sc-sagamihara/tCyfRhrG/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-nagano-parceiro/2RP2PWCS/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -13748,52 +13748,52 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 09:12</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24/06/2023 10:39</t>
+          <t>24/06/2023 10:48</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 09:12</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.34</v>
+        <v>3.69</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>24/06/2023 10:39</t>
+          <t>24/06/2023 10:48</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>4.26</v>
+        <v>4.08</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 09:12</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>4.42</v>
+        <v>4.96</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>24/06/2023 10:39</t>
+          <t>24/06/2023 10:48</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-vanraure/CxXkSYS9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-sc-sagamihara/tCyfRhrG/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>2.91</v>
+        <v>1.56</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>3.08</v>
+        <v>1.6</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>24/06/2023 10:51</t>
+          <t>24/06/2023 10:52</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.08</v>
+        <v>3.67</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.21</v>
+        <v>3.68</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>24/06/2023 10:51</t>
+          <t>24/06/2023 10:52</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.24</v>
+        <v>4.98</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.3</v>
+        <v>5.78</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>24/06/2023 10:51</t>
+          <t>24/06/2023 10:52</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-nagano-parceiro/2RP2PWCS/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-kamatamare-sanuki/K2zbQCcM/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,63 +14013,63 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>22/06/2023 09:12</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>24/06/2023 10:52</t>
+          <t>24/06/2023 10:39</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.67</v>
+        <v>3.38</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>22/06/2023 09:12</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>24/06/2023 10:52</t>
+          <t>24/06/2023 10:39</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>4.98</v>
+        <v>4.26</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>22/06/2023 09:12</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>5.78</v>
+        <v>4.42</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>24/06/2023 10:52</t>
+          <t>24/06/2023 10:39</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-kamatamare-sanuki/K2zbQCcM/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-vanraure/CxXkSYS9/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I152" t="n">
         <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>1.9</v>
+        <v>1.56</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.21</v>
+        <v>1.81</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>01/07/2023 09:59</t>
+          <t>01/07/2023 09:57</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.27</v>
+        <v>3.57</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.42</v>
+        <v>3.58</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>01/07/2023 09:59</t>
+          <t>01/07/2023 09:57</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>3.52</v>
+        <v>5.36</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>3.07</v>
+        <v>4.15</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-yscc-yokohama/ChLDsESd/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-giravanz-kitakyushu/j724XT4k/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,48 +14488,48 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>1.81</v>
+        <v>2.21</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
+          <t>01/07/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>29/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>01/07/2023 09:59</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>29/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
           <t>01/07/2023 09:57</t>
         </is>
       </c>
-      <c r="N153" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>29/06/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P153" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>01/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R153" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>29/06/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T153" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>01/07/2023 09:57</t>
-        </is>
-      </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-giravanz-kitakyushu/j724XT4k/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-yscc-yokohama/ChLDsESd/</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -14565,14 +14565,14 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J154" t="n">
-        <v>2.47</v>
+        <v>2.94</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>01/07/2023 10:39</t>
+          <t>01/07/2023 09:03</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>2.99</v>
+        <v>3.14</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2.77</v>
+        <v>3.35</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:04</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.67</v>
+        <v>2.24</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.66</v>
+        <v>2.26</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 09:03</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-vanraure/jqKHtYs3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-imabari/b9NPvCCF/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>01/07/2023 10:48</t>
+          <t>01/07/2023 10:41</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.19</v>
+        <v>3.14</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>01/07/2023 10:48</t>
+          <t>01/07/2023 09:02</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.16</v>
+        <v>3.22</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>01/07/2023 10:48</t>
+          <t>01/07/2023 10:41</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-kagoshima-united/tYCUwWRL/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-ehime/p6JLuhc9/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>01/07/2023 10:41</t>
+          <t>01/07/2023 10:48</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>01/07/2023 09:02</t>
+          <t>01/07/2023 10:48</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.22</v>
+        <v>3.16</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>01/07/2023 10:41</t>
+          <t>01/07/2023 10:48</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-ehime/p6JLuhc9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-kagoshima-united/tYCUwWRL/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,14 +14841,14 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.94</v>
+        <v>2.47</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>01/07/2023 09:03</t>
+          <t>01/07/2023 10:39</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.14</v>
+        <v>2.99</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.35</v>
+        <v>2.77</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>01/07/2023 10:04</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>2.24</v>
+        <v>2.67</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>01/07/2023 09:03</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-imabari/b9NPvCCF/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-vanraure/jqKHtYs3/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J158" t="n">
-        <v>2.69</v>
+        <v>2.02</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>3.26</v>
+        <v>2.34</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>01/07/2023 11:54</t>
+          <t>01/07/2023 11:58</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2.91</v>
+        <v>3.16</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>01/07/2023 10:03</t>
+          <t>01/07/2023 11:58</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>2.51</v>
+        <v>3.4</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>2.34</v>
+        <v>3.08</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>01/07/2023 10:05</t>
+          <t>01/07/2023 11:58</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-nara-club/KOBYxjsS/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-fc-osaka/CG30Y9kq/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J159" t="n">
-        <v>2.02</v>
+        <v>2.69</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,48 +15040,48 @@
         </is>
       </c>
       <c r="L159" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>01/07/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>29/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>01/07/2023 10:03</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>29/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
         <v>2.34</v>
       </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>01/07/2023 11:58</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>29/06/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P159" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>01/07/2023 11:58</t>
-        </is>
-      </c>
-      <c r="R159" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>29/06/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T159" t="n">
-        <v>3.08</v>
-      </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>01/07/2023 11:58</t>
+          <t>01/07/2023 10:05</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-fc-osaka/CG30Y9kq/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-nara-club/KOBYxjsS/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>1.81</v>
+        <v>3.59</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.12</v>
+        <v>4.23</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.34</v>
+        <v>3.21</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.23</v>
+        <v>3.44</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>4</v>
+        <v>1.99</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.63</v>
+        <v>1.88</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-ryukyu/EaCt6lBE/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-nara-club/0d8x7Ue8/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>3.59</v>
+        <v>2.64</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>4.23</v>
+        <v>2.9</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.21</v>
+        <v>2.98</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.44</v>
+        <v>3.06</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>1.99</v>
+        <v>2.59</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>1.88</v>
+        <v>2.59</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-nara-club/0d8x7Ue8/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-tegevajaro-miyazaki/pnZDmtem/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,14 +16405,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.9</v>
+        <v>2.81</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,32 +16436,32 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.06</v>
+        <v>3.32</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
+          <t>15/07/2023 10:56</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>13/07/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
           <t>15/07/2023 10:59</t>
         </is>
       </c>
-      <c r="R174" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>13/07/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T174" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="U174" t="inlineStr">
-        <is>
-          <t>15/07/2023 10:59</t>
-        </is>
-      </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-tegevajaro-miyazaki/pnZDmtem/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-imabari/6ezAlMus/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.47</v>
+        <v>1.81</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.81</v>
+        <v>2.12</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.05</v>
+        <v>3.34</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.32</v>
+        <v>3.23</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:56</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.79</v>
+        <v>4</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.5</v>
+        <v>3.63</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-imabari/6ezAlMus/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-ryukyu/EaCt6lBE/</t>
         </is>
       </c>
     </row>
@@ -17225,71 +17225,71 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>20/07/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>22/07/2023 10:57</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>20/07/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>22/07/2023 10:57</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>20/07/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
         <v>1.88</v>
       </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>20/07/2023 09:13</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>22/07/2023 10:25</t>
-        </is>
-      </c>
-      <c r="N183" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>20/07/2023 09:13</t>
-        </is>
-      </c>
-      <c r="P183" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q183" t="inlineStr">
-        <is>
-          <t>22/07/2023 10:25</t>
-        </is>
-      </c>
-      <c r="R183" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S183" t="inlineStr">
-        <is>
-          <t>20/07/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T183" t="n">
-        <v>4.7</v>
-      </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:57</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-nagano-parceiro/fHhd0Jvg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-imabari/bkam2uAt/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>1.72</v>
+        <v>2.78</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2.23</v>
+        <v>2.76</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:44</t>
+          <t>22/07/2023 10:37</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.42</v>
+        <v>3.12</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:59</t>
+          <t>22/07/2023 10:37</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>4.34</v>
+        <v>2.43</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>3.32</v>
+        <v>2.55</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:44</t>
+          <t>22/07/2023 10:50</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-vanraure/tElh1aPn/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-azul-claro-numazu/lvh0awfa/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>2.78</v>
+        <v>1.88</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>2.76</v>
+        <v>1.82</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>22/07/2023 10:37</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.12</v>
+        <v>3.29</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>22/07/2023 10:37</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>2.43</v>
+        <v>3.88</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>2.55</v>
+        <v>4.7</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>22/07/2023 10:50</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-azul-claro-numazu/lvh0awfa/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-nagano-parceiro/fHhd0Jvg/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>3.71</v>
+        <v>1.72</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>4.2</v>
+        <v>2.23</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>22/07/2023 10:57</t>
+          <t>22/07/2023 10:44</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.33</v>
+        <v>3.42</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.49</v>
+        <v>3.24</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>22/07/2023 10:57</t>
+          <t>22/07/2023 10:59</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>1.92</v>
+        <v>4.34</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>1.88</v>
+        <v>3.32</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>22/07/2023 10:57</t>
+          <t>22/07/2023 10:44</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-imabari/bkam2uAt/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-vanraure/tElh1aPn/</t>
         </is>
       </c>
     </row>
@@ -17685,22 +17685,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,11 +17708,11 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>22/07/2023 11:23</t>
+          <t>22/07/2023 09:20</t>
         </is>
       </c>
       <c r="N188" t="n">
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>22/07/2023 10:03</t>
+          <t>22/07/2023 10:05</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>22/07/2023 09:17</t>
+          <t>22/07/2023 09:21</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-giravanz-kitakyushu/8t81cHOB/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-iwate-grulla-morioka/nX65dyvI/</t>
         </is>
       </c>
     </row>
@@ -17777,22 +17777,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,11 +17800,11 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>22/07/2023 09:20</t>
+          <t>22/07/2023 11:23</t>
         </is>
       </c>
       <c r="N189" t="n">
@@ -17816,15 +17816,15 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>22/07/2023 10:05</t>
+          <t>22/07/2023 10:03</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -17832,16 +17832,16 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>22/07/2023 09:21</t>
+          <t>22/07/2023 09:17</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-iwate-grulla-morioka/nX65dyvI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-giravanz-kitakyushu/8t81cHOB/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,14 +18061,14 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J192" t="n">
-        <v>1.95</v>
+        <v>2.56</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.01</v>
+        <v>3.34</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>29/07/2023 10:56</t>
+          <t>29/07/2023 10:58</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.51</v>
+        <v>3.23</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>29/07/2023 10:56</t>
+          <t>29/07/2023 10:58</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.54</v>
+        <v>2.63</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>3.64</v>
+        <v>2.23</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>29/07/2023 10:56</t>
+          <t>29/07/2023 10:58</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-sc-sagamihara/l0TzCGw5/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-gainare-tottori/Kbpn9ENN/</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -18153,14 +18153,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.42</v>
+        <v>2.89</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>29/07/2023 10:48</t>
+          <t>29/07/2023 10:56</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>29/07/2023 10:48</t>
+          <t>29/07/2023 10:50</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>2.68</v>
+        <v>2.95</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>3.19</v>
+        <v>2.52</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>29/07/2023 10:48</t>
+          <t>29/07/2023 10:50</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-fukushima-united/nonvBzgB/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-nara-club/6yvWCdOb/</t>
         </is>
       </c>
     </row>
@@ -18237,7 +18237,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -18245,14 +18245,14 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I194" t="n">
         <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.89</v>
+        <v>2.38</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 10:56</t>
+          <t>29/07/2023 10:45</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 10:50</t>
+          <t>29/07/2023 10:40</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 10:50</t>
+          <t>29/07/2023 10:45</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-nara-club/6yvWCdOb/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-matsumoto-yamaga/t8orAf8H/</t>
         </is>
       </c>
     </row>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -18337,14 +18337,14 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>3.34</v>
+        <v>2.42</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 10:58</t>
+          <t>29/07/2023 10:48</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.23</v>
+        <v>3.02</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 10:58</t>
+          <t>29/07/2023 10:48</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.23</v>
+        <v>3.19</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 10:58</t>
+          <t>29/07/2023 10:48</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-gainare-tottori/Kbpn9ENN/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-fukushima-united/nonvBzgB/</t>
         </is>
       </c>
     </row>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G196" t="n">
@@ -18429,14 +18429,14 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>2.31</v>
+        <v>1.95</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -18444,15 +18444,15 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.38</v>
+        <v>2.01</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>29/07/2023 10:45</t>
+          <t>29/07/2023 10:56</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -18460,15 +18460,15 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.39</v>
+        <v>3.51</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>29/07/2023 10:40</t>
+          <t>29/07/2023 10:56</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>2.9</v>
+        <v>3.54</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -18476,16 +18476,16 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2.92</v>
+        <v>3.64</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>29/07/2023 10:45</t>
+          <t>29/07/2023 10:56</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-matsumoto-yamaga/t8orAf8H/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-sc-sagamihara/l0TzCGw5/</t>
         </is>
       </c>
     </row>
@@ -18513,22 +18513,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>2.31</v>
+        <v>1.75</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>2.66</v>
+        <v>2.01</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>29/07/2023 11:53</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>2.93</v>
+        <v>3.43</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,15 +18552,15 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2.93</v>
+        <v>3.35</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>29/07/2023 11:53</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>3.07</v>
+        <v>4.19</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,16 +18568,16 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>2.93</v>
+        <v>3.83</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>29/07/2023 11:53</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-fc-osaka/xzui8YxU/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-tegevajaro-miyazaki/vqRI3hoo/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.37</v>
+        <v>2.66</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>29/07/2023 11:59</t>
+          <t>29/07/2023 11:53</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.14</v>
+        <v>2.93</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.17</v>
+        <v>2.93</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>29/07/2023 11:59</t>
+          <t>29/07/2023 11:53</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.13</v>
+        <v>2.93</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>29/07/2023 11:59</t>
+          <t>29/07/2023 11:53</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-toyama/hnF0SyOo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-fc-osaka/xzui8YxU/</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -18705,14 +18705,14 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.01</v>
+        <v>2.37</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:59</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.43</v>
+        <v>3.14</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:59</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>4.19</v>
+        <v>3.04</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.83</v>
+        <v>3.13</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:59</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-tegevajaro-miyazaki/vqRI3hoo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-toyama/hnF0SyOo/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,11 +19104,11 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.24</v>
+        <v>3.03</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="R203" t="n">
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>4.13</v>
+        <v>2.73</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-ehime/dpeQMXiN/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kamatamare-sanuki/zV6HOgNA/</t>
         </is>
       </c>
     </row>
@@ -19157,22 +19157,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -19180,15 +19180,15 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:54</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -19196,15 +19196,15 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.03</v>
+        <v>3.47</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:57</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
@@ -19212,16 +19212,16 @@
         </is>
       </c>
       <c r="T204" t="n">
-        <v>2.73</v>
+        <v>2.49</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:54</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kamatamare-sanuki/zV6HOgNA/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-imabari/EL5LNDxH/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.52</v>
+        <v>2.33</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.72</v>
+        <v>1.97</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:54</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.47</v>
+        <v>3.24</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:57</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>2.49</v>
+        <v>4.13</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:54</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-imabari/EL5LNDxH/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-ehime/dpeQMXiN/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="n">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>12/08/2023 11:40</t>
+          <t>12/08/2023 11:31</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,15 +20208,15 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>12/08/2023 11:40</t>
+          <t>12/08/2023 11:31</t>
         </is>
       </c>
       <c r="R215" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
@@ -20224,16 +20224,16 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>2.86</v>
+        <v>3.65</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>12/08/2023 11:40</t>
+          <t>12/08/2023 11:31</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-toyama/fwnyIr6e/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gifu/x2ytH2L1/</t>
         </is>
       </c>
     </row>
@@ -20261,22 +20261,22 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
         <v>1</v>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Gifu</t>
-        </is>
-      </c>
-      <c r="I216" t="n">
-        <v>2</v>
-      </c>
       <c r="J216" t="n">
-        <v>1.91</v>
+        <v>2.26</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -20284,48 +20284,48 @@
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>12/08/2023 11:31</t>
+          <t>12/08/2023 11:40</t>
         </is>
       </c>
       <c r="N216" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>10/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
         <v>3.26</v>
       </c>
-      <c r="O216" t="inlineStr">
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>12/08/2023 11:40</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S216" t="inlineStr">
         <is>
           <t>10/08/2023 09:13</t>
         </is>
       </c>
-      <c r="P216" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q216" t="inlineStr">
-        <is>
-          <t>12/08/2023 11:31</t>
-        </is>
-      </c>
-      <c r="R216" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="S216" t="inlineStr">
-        <is>
-          <t>10/08/2023 09:13</t>
-        </is>
-      </c>
       <c r="T216" t="n">
-        <v>3.65</v>
+        <v>2.86</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>12/08/2023 11:31</t>
+          <t>12/08/2023 11:40</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gifu/x2ytH2L1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-toyama/fwnyIr6e/</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -20453,14 +20453,14 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218" t="n">
-        <v>1.56</v>
+        <v>2.05</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -20468,15 +20468,15 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>1.78</v>
+        <v>2.23</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>13/08/2023 10:58</t>
+          <t>13/08/2023 10:45</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.74</v>
+        <v>3.22</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -20484,15 +20484,15 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>13/08/2023 10:58</t>
+          <t>13/08/2023 10:03</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>5.19</v>
+        <v>3.3</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
@@ -20500,16 +20500,16 @@
         </is>
       </c>
       <c r="T218" t="n">
-        <v>4.39</v>
+        <v>3.18</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>13/08/2023 10:03</t>
+          <t>13/08/2023 10:45</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-sc-sagamihara/ALbSxprL/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-gainare-tottori/48TRv6D8/</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -20545,14 +20545,14 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>2.05</v>
+        <v>1.56</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -20560,15 +20560,15 @@
         </is>
       </c>
       <c r="L219" t="n">
-        <v>2.23</v>
+        <v>1.78</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>13/08/2023 10:45</t>
+          <t>13/08/2023 10:58</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.22</v>
+        <v>3.74</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -20576,32 +20576,32 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
+          <t>13/08/2023 10:58</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>10/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
           <t>13/08/2023 10:03</t>
         </is>
       </c>
-      <c r="R219" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>10/08/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T219" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U219" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:45</t>
-        </is>
-      </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-gainare-tottori/48TRv6D8/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-sc-sagamihara/ALbSxprL/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
         <v>1</v>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Gifu</t>
-        </is>
-      </c>
-      <c r="I221" t="n">
-        <v>5</v>
-      </c>
       <c r="J221" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>2.87</v>
+        <v>2.73</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>19/08/2023 09:08</t>
+          <t>19/08/2023 10:49</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.11</v>
+        <v>3.27</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>19/08/2023 09:08</t>
+          <t>19/08/2023 10:49</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>19/08/2023 09:02</t>
+          <t>19/08/2023 10:49</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-gifu/Kfl2WsLl/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-ryukyu/2Jw7V1ze/</t>
         </is>
       </c>
     </row>
@@ -20905,22 +20905,22 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I223" t="n">
         <v>1</v>
       </c>
       <c r="J223" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -20928,15 +20928,15 @@
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.73</v>
+        <v>2.53</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>19/08/2023 10:49</t>
+          <t>19/08/2023 10:51</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -20944,15 +20944,15 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>19/08/2023 10:49</t>
+          <t>19/08/2023 10:51</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
@@ -20960,16 +20960,16 @@
         </is>
       </c>
       <c r="T223" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>19/08/2023 10:49</t>
+          <t>19/08/2023 10:51</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-ryukyu/2Jw7V1ze/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-yscc-yokohama/6ipbXN5r/</t>
         </is>
       </c>
     </row>
@@ -20997,22 +20997,22 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J224" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -21020,15 +21020,15 @@
         </is>
       </c>
       <c r="L224" t="n">
-        <v>2.53</v>
+        <v>2.87</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>19/08/2023 10:51</t>
+          <t>19/08/2023 09:08</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -21036,15 +21036,15 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>19/08/2023 10:51</t>
+          <t>19/08/2023 09:08</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
@@ -21052,16 +21052,16 @@
         </is>
       </c>
       <c r="T224" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>19/08/2023 10:51</t>
+          <t>19/08/2023 09:02</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-yscc-yokohama/6ipbXN5r/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-gifu/Kfl2WsLl/</t>
         </is>
       </c>
     </row>
@@ -21181,22 +21181,22 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J226" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -21204,15 +21204,15 @@
         </is>
       </c>
       <c r="L226" t="n">
-        <v>2.34</v>
+        <v>2.92</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>19/08/2023 10:54</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>3.24</v>
+        <v>2.98</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -21220,15 +21220,15 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>3.49</v>
+        <v>2.99</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>19/08/2023 10:54</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="R226" t="n">
-        <v>3.28</v>
+        <v>2.49</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
@@ -21236,16 +21236,16 @@
         </is>
       </c>
       <c r="T226" t="n">
-        <v>2.91</v>
+        <v>2.63</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>19/08/2023 10:54</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-matsumoto-yamaga/4rA3zCwK/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-azul-claro-numazu/tAxBULk1/</t>
         </is>
       </c>
     </row>
@@ -21273,22 +21273,22 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
         <v>2</v>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Tegevajaro Miyazaki</t>
-        </is>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
       <c r="J227" t="n">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -21296,15 +21296,15 @@
         </is>
       </c>
       <c r="L227" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 10:54</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -21312,15 +21312,15 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>3.24</v>
+        <v>3.49</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 10:54</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>3.69</v>
+        <v>3.28</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
@@ -21328,16 +21328,16 @@
         </is>
       </c>
       <c r="T227" t="n">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 10:54</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-tegevajaro-miyazaki/lztJSaKD/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-matsumoto-yamaga/4rA3zCwK/</t>
         </is>
       </c>
     </row>
@@ -21365,22 +21365,22 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>3.08</v>
+        <v>1.89</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -21388,15 +21388,15 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>3.22</v>
+        <v>2.44</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>19/08/2023 11:46</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>3.11</v>
+        <v>3.31</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -21404,15 +21404,15 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>19/08/2023 10:10</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>2.2</v>
+        <v>3.69</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
@@ -21420,16 +21420,16 @@
         </is>
       </c>
       <c r="T228" t="n">
-        <v>2.32</v>
+        <v>2.96</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>19/08/2023 11:46</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-toyama/AqsFTu57/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-tegevajaro-miyazaki/lztJSaKD/</t>
         </is>
       </c>
     </row>
@@ -21457,22 +21457,22 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>2.75</v>
+        <v>3.08</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -21480,15 +21480,15 @@
         </is>
       </c>
       <c r="L229" t="n">
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 11:46</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>2.98</v>
+        <v>3.11</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -21496,15 +21496,15 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>2.99</v>
+        <v>3.16</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 10:10</t>
         </is>
       </c>
       <c r="R229" t="n">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="S229" t="inlineStr">
         <is>
@@ -21512,16 +21512,16 @@
         </is>
       </c>
       <c r="T229" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 11:46</t>
         </is>
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-azul-claro-numazu/tAxBULk1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-toyama/AqsFTu57/</t>
         </is>
       </c>
     </row>
@@ -22101,22 +22101,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J236" t="n">
-        <v>1.68</v>
+        <v>1.97</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -22124,15 +22124,15 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>26/08/2023 11:09</t>
+          <t>26/08/2023 10:09</t>
         </is>
       </c>
       <c r="N236" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -22140,15 +22140,15 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>26/08/2023 11:09</t>
+          <t>26/08/2023 10:09</t>
         </is>
       </c>
       <c r="R236" t="n">
-        <v>4.5</v>
+        <v>3.56</v>
       </c>
       <c r="S236" t="inlineStr">
         <is>
@@ -22156,16 +22156,16 @@
         </is>
       </c>
       <c r="T236" t="n">
-        <v>4.57</v>
+        <v>3.64</v>
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>26/08/2023 11:09</t>
+          <t>26/08/2023 11:53</t>
         </is>
       </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kamatamare-sanuki/QLtaPoVI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-sc-sagamihara/hSUtlV7J/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J238" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>26/08/2023 10:09</t>
+          <t>26/08/2023 11:49</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>26/08/2023 10:09</t>
+          <t>26/08/2023 11:49</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>26/08/2023 11:53</t>
+          <t>26/08/2023 11:49</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-sc-sagamihara/hSUtlV7J/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-gainare-tottori/nVseQRFC/</t>
         </is>
       </c>
     </row>
@@ -22377,7 +22377,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G239" t="n">
@@ -22385,14 +22385,14 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="n">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -22400,15 +22400,15 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>2.19</v>
+        <v>1.83</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>26/08/2023 11:49</t>
+          <t>26/08/2023 11:09</t>
         </is>
       </c>
       <c r="N239" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -22416,15 +22416,15 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>26/08/2023 11:49</t>
+          <t>26/08/2023 11:09</t>
         </is>
       </c>
       <c r="R239" t="n">
-        <v>3.48</v>
+        <v>4.5</v>
       </c>
       <c r="S239" t="inlineStr">
         <is>
@@ -22432,16 +22432,16 @@
         </is>
       </c>
       <c r="T239" t="n">
-        <v>3.3</v>
+        <v>4.57</v>
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>26/08/2023 11:49</t>
+          <t>26/08/2023 11:09</t>
         </is>
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-gainare-tottori/nVseQRFC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kamatamare-sanuki/QLtaPoVI/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>2.36</v>
+        <v>2.53</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>02/09/2023 11:57</t>
+          <t>02/09/2023 11:54</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.49</v>
+        <v>3.2</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>02/09/2023 11:58</t>
+          <t>02/09/2023 11:54</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3.02</v>
+        <v>2.74</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>02/09/2023 11:56</t>
+          <t>02/09/2023 10:56</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-gifu/G4pjdSat/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gainare-tottori/pQ9Ltm0g/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G248" t="n">
+        <v>2</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Gifu</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
         <v>1</v>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Gainare Tottori</t>
-        </is>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
       <c r="J248" t="n">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>2.53</v>
+        <v>2.36</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:54</t>
+          <t>02/09/2023 11:57</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.2</v>
+        <v>3.49</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:54</t>
+          <t>02/09/2023 11:58</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>2.74</v>
+        <v>3.02</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>02/09/2023 10:56</t>
+          <t>02/09/2023 11:56</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gainare-tottori/pQ9Ltm0g/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-gifu/G4pjdSat/</t>
         </is>
       </c>
     </row>
@@ -23941,7 +23941,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -23949,14 +23949,14 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -23964,15 +23964,15 @@
         </is>
       </c>
       <c r="L256" t="n">
-        <v>1.94</v>
+        <v>3.47</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>09/09/2023 10:36</t>
+          <t>09/09/2023 10:29</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -23980,15 +23980,15 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.68</v>
+        <v>2.93</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>09/09/2023 10:36</t>
+          <t>09/09/2023 10:29</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>3.86</v>
+        <v>2.66</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
@@ -23996,16 +23996,16 @@
         </is>
       </c>
       <c r="T256" t="n">
-        <v>3.68</v>
+        <v>2.34</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>09/09/2023 10:36</t>
+          <t>09/09/2023 10:29</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-ryukyu/hAuFjOTH/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-vanraure/KG1WfwL3/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,14 +24133,14 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -24148,15 +24148,15 @@
         </is>
       </c>
       <c r="L258" t="n">
-        <v>3.47</v>
+        <v>1.94</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>09/09/2023 10:29</t>
+          <t>09/09/2023 10:36</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>2.95</v>
+        <v>3.28</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -24164,15 +24164,15 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>2.93</v>
+        <v>3.68</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>09/09/2023 10:29</t>
+          <t>09/09/2023 10:36</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>2.66</v>
+        <v>3.86</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
@@ -24180,16 +24180,16 @@
         </is>
       </c>
       <c r="T258" t="n">
-        <v>2.34</v>
+        <v>3.68</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>09/09/2023 10:29</t>
+          <t>09/09/2023 10:36</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-vanraure/KG1WfwL3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-ryukyu/hAuFjOTH/</t>
         </is>
       </c>
     </row>
@@ -24217,22 +24217,22 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
-        <v>1.73</v>
+        <v>2.09</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -24240,15 +24240,15 @@
         </is>
       </c>
       <c r="L259" t="n">
-        <v>1.84</v>
+        <v>2.15</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>09/09/2023 11:28</t>
+          <t>09/09/2023 11:56</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>3.52</v>
+        <v>3.17</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
@@ -24256,15 +24256,15 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3.68</v>
+        <v>3.41</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>09/09/2023 11:28</t>
+          <t>09/09/2023 11:56</t>
         </is>
       </c>
       <c r="R259" t="n">
-        <v>4.18</v>
+        <v>3.26</v>
       </c>
       <c r="S259" t="inlineStr">
         <is>
@@ -24272,16 +24272,16 @@
         </is>
       </c>
       <c r="T259" t="n">
-        <v>4.14</v>
+        <v>3.35</v>
       </c>
       <c r="U259" t="inlineStr">
         <is>
-          <t>09/09/2023 11:28</t>
+          <t>09/09/2023 11:56</t>
         </is>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-yscc-yokohama/Ol8Ndaji/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-azul-claro-numazu/xhCReJ5c/</t>
         </is>
       </c>
     </row>
@@ -24309,22 +24309,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>2.09</v>
+        <v>1.73</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>2.15</v>
+        <v>1.84</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>09/09/2023 11:56</t>
+          <t>09/09/2023 11:28</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>3.17</v>
+        <v>3.52</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3.41</v>
+        <v>3.68</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>09/09/2023 11:56</t>
+          <t>09/09/2023 11:28</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>3.26</v>
+        <v>4.18</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>3.35</v>
+        <v>4.14</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>09/09/2023 11:56</t>
+          <t>09/09/2023 11:28</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-azul-claro-numazu/xhCReJ5c/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-yscc-yokohama/Ol8Ndaji/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J274" t="n">
-        <v>2.81</v>
+        <v>2.1</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>3.02</v>
+        <v>2.34</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>23/09/2023 10:34</t>
+          <t>23/09/2023 10:54</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3.17</v>
+        <v>3.75</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>23/09/2023 10:34</t>
+          <t>23/09/2023 10:54</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>2.39</v>
+        <v>3.14</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>23/09/2023 09:51</t>
+          <t>23/09/2023 10:54</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-toyama/tjIQ4ElS/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kagoshima-united/xzJeahCk/</t>
         </is>
       </c>
     </row>
@@ -25689,22 +25689,22 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J275" t="n">
-        <v>2.1</v>
+        <v>2.81</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -25712,15 +25712,15 @@
         </is>
       </c>
       <c r="L275" t="n">
-        <v>2.34</v>
+        <v>3.02</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>23/09/2023 10:54</t>
+          <t>23/09/2023 10:34</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -25728,15 +25728,15 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3.75</v>
+        <v>3.17</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>23/09/2023 10:54</t>
+          <t>23/09/2023 10:34</t>
         </is>
       </c>
       <c r="R275" t="n">
-        <v>3.14</v>
+        <v>2.39</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
@@ -25744,16 +25744,16 @@
         </is>
       </c>
       <c r="T275" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>23/09/2023 10:54</t>
+          <t>23/09/2023 09:51</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kagoshima-united/xzJeahCk/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-toyama/tjIQ4ElS/</t>
         </is>
       </c>
     </row>
@@ -28146,6 +28146,190 @@
       <c r="V301" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j3-league/ehime-tegevajaro-miyazaki/pKSXT3Ht/</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45213.25</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Grulla Morioka</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>2</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>2</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:11</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:59</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:11</t>
+        </is>
+      </c>
+      <c r="P302" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:59</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:11</t>
+        </is>
+      </c>
+      <c r="T302" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-ryukyu/KjzpR11a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45213.25</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Nara Club</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Fukushima Utd</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:11</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:26</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:11</t>
+        </is>
+      </c>
+      <c r="P303" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:06</t>
+        </is>
+      </c>
+      <c r="R303" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:11</t>
+        </is>
+      </c>
+      <c r="T303" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:26</t>
+        </is>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-fukushima-united/bsZmQLG5/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j3-league_2023.xlsx
+++ b/2023/japan_j3-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V303"/>
+  <dimension ref="A1:V311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>18/06/2023 06:57</t>
+          <t>18/06/2023 06:31</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.02</v>
+        <v>3.22</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2.86</v>
+        <v>3.33</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>18/06/2023 06:57</t>
+          <t>18/06/2023 06:31</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>3.64</v>
+        <v>3.1</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>18/06/2023 06:57</t>
+          <t>18/06/2023 06:31</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-fukushima-united/nycHDZDG/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-yscc-yokohama/KlePBDrT/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Fukushima Utd</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>3</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>YSCC</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
       <c r="J139" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>18/06/2023 06:31</t>
+          <t>18/06/2023 06:57</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.22</v>
+        <v>3.02</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>18/06/2023 06:31</t>
+          <t>18/06/2023 06:57</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.36</v>
+        <v>3.23</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>3.1</v>
+        <v>3.64</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>18/06/2023 06:31</t>
+          <t>18/06/2023 06:57</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-yscc-yokohama/KlePBDrT/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-fukushima-united/nycHDZDG/</t>
         </is>
       </c>
     </row>
@@ -27437,22 +27437,22 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G294" t="n">
+        <v>1</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Nara Club</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>Imabari</t>
-        </is>
-      </c>
-      <c r="I294" t="n">
-        <v>1</v>
-      </c>
       <c r="J294" t="n">
-        <v>3.09</v>
+        <v>2.81</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -27460,15 +27460,15 @@
         </is>
       </c>
       <c r="L294" t="n">
-        <v>3.47</v>
+        <v>3.28</v>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>08/10/2023 05:53</t>
+          <t>08/10/2023 05:16</t>
         </is>
       </c>
       <c r="N294" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
@@ -27476,15 +27476,15 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>08/10/2023 05:53</t>
+          <t>08/10/2023 05:16</t>
         </is>
       </c>
       <c r="R294" t="n">
-        <v>2.2</v>
+        <v>2.39</v>
       </c>
       <c r="S294" t="inlineStr">
         <is>
@@ -27492,16 +27492,16 @@
         </is>
       </c>
       <c r="T294" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="U294" t="inlineStr">
         <is>
-          <t>08/10/2023 05:53</t>
+          <t>08/10/2023 05:16</t>
         </is>
       </c>
       <c r="V294" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-imabari/jaK5QUAl/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-nara-club/pMJ9PlQf/</t>
         </is>
       </c>
     </row>
@@ -27529,7 +27529,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G295" t="n">
@@ -27537,14 +27537,14 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="n">
-        <v>1.98</v>
+        <v>3.09</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -27552,15 +27552,15 @@
         </is>
       </c>
       <c r="L295" t="n">
-        <v>2.09</v>
+        <v>3.47</v>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>08/10/2023 05:46</t>
+          <t>08/10/2023 05:53</t>
         </is>
       </c>
       <c r="N295" t="n">
-        <v>3.43</v>
+        <v>3.1</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
@@ -27568,15 +27568,15 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>08/10/2023 04:01</t>
+          <t>08/10/2023 05:53</t>
         </is>
       </c>
       <c r="R295" t="n">
-        <v>3.38</v>
+        <v>2.2</v>
       </c>
       <c r="S295" t="inlineStr">
         <is>
@@ -27584,16 +27584,16 @@
         </is>
       </c>
       <c r="T295" t="n">
-        <v>3.53</v>
+        <v>2.13</v>
       </c>
       <c r="U295" t="inlineStr">
         <is>
-          <t>08/10/2023 05:46</t>
+          <t>08/10/2023 05:53</t>
         </is>
       </c>
       <c r="V295" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-sc-sagamihara/8f54oWnE/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-imabari/jaK5QUAl/</t>
         </is>
       </c>
     </row>
@@ -27621,22 +27621,22 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>2.81</v>
+        <v>1.98</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -27644,15 +27644,15 @@
         </is>
       </c>
       <c r="L296" t="n">
-        <v>3.28</v>
+        <v>2.09</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>08/10/2023 05:16</t>
+          <t>08/10/2023 05:46</t>
         </is>
       </c>
       <c r="N296" t="n">
-        <v>3.06</v>
+        <v>3.43</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -27660,15 +27660,15 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>3.32</v>
+        <v>3.37</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>08/10/2023 05:16</t>
+          <t>08/10/2023 04:01</t>
         </is>
       </c>
       <c r="R296" t="n">
-        <v>2.39</v>
+        <v>3.38</v>
       </c>
       <c r="S296" t="inlineStr">
         <is>
@@ -27676,16 +27676,16 @@
         </is>
       </c>
       <c r="T296" t="n">
-        <v>2.22</v>
+        <v>3.53</v>
       </c>
       <c r="U296" t="inlineStr">
         <is>
-          <t>08/10/2023 05:16</t>
+          <t>08/10/2023 05:46</t>
         </is>
       </c>
       <c r="V296" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-nara-club/pMJ9PlQf/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-sc-sagamihara/8f54oWnE/</t>
         </is>
       </c>
     </row>
@@ -27713,22 +27713,22 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I297" t="n">
         <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>2.09</v>
+        <v>2.31</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -27736,15 +27736,15 @@
         </is>
       </c>
       <c r="L297" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>08/10/2023 05:14</t>
+          <t>08/10/2023 06:31</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>3.15</v>
+        <v>3.06</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
@@ -27752,15 +27752,15 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:31</t>
         </is>
       </c>
       <c r="R297" t="n">
-        <v>3.27</v>
+        <v>2.93</v>
       </c>
       <c r="S297" t="inlineStr">
         <is>
@@ -27768,16 +27768,16 @@
         </is>
       </c>
       <c r="T297" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="U297" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:31</t>
         </is>
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-azul-claro-numazu/KvCMMnAD/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-vanraure/tlDINSf7/</t>
         </is>
       </c>
     </row>
@@ -27805,22 +27805,22 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J298" t="n">
-        <v>2.85</v>
+        <v>2.11</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -27828,15 +27828,15 @@
         </is>
       </c>
       <c r="L298" t="n">
-        <v>3.12</v>
+        <v>2.22</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>08/10/2023 06:47</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
@@ -27844,32 +27844,32 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
+          <t>08/10/2023 05:04</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T298" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
           <t>08/10/2023 06:57</t>
         </is>
       </c>
-      <c r="R298" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S298" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:12</t>
-        </is>
-      </c>
-      <c r="T298" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="U298" t="inlineStr">
-        <is>
-          <t>08/10/2023 06:57</t>
-        </is>
-      </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-toyama/SrIxTNWn/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-iwate-grulla-morioka/bPNDO8u1/</t>
         </is>
       </c>
     </row>
@@ -27897,22 +27897,22 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G299" t="n">
+        <v>2</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Azul Claro Numazu</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
         <v>1</v>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>Grulla Morioka</t>
-        </is>
-      </c>
-      <c r="I299" t="n">
-        <v>4</v>
-      </c>
       <c r="J299" t="n">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -27920,39 +27920,39 @@
         </is>
       </c>
       <c r="L299" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="M299" t="inlineStr">
         <is>
+          <t>08/10/2023 05:14</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
           <t>08/10/2023 06:57</t>
         </is>
       </c>
-      <c r="N299" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O299" t="inlineStr">
+      <c r="R299" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S299" t="inlineStr">
         <is>
           <t>05/10/2023 08:12</t>
         </is>
       </c>
-      <c r="P299" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q299" t="inlineStr">
-        <is>
-          <t>08/10/2023 05:04</t>
-        </is>
-      </c>
-      <c r="R299" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="S299" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:12</t>
-        </is>
-      </c>
       <c r="T299" t="n">
-        <v>3.26</v>
+        <v>3.43</v>
       </c>
       <c r="U299" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
       </c>
       <c r="V299" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-iwate-grulla-morioka/bPNDO8u1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-azul-claro-numazu/KvCMMnAD/</t>
         </is>
       </c>
     </row>
@@ -27989,22 +27989,22 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I300" t="n">
         <v>1</v>
       </c>
       <c r="J300" t="n">
-        <v>2.31</v>
+        <v>2.85</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -28012,11 +28012,11 @@
         </is>
       </c>
       <c r="L300" t="n">
-        <v>2.36</v>
+        <v>3.12</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>08/10/2023 06:31</t>
+          <t>08/10/2023 06:47</t>
         </is>
       </c>
       <c r="N300" t="n">
@@ -28028,15 +28028,15 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>08/10/2023 06:31</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="R300" t="n">
-        <v>2.93</v>
+        <v>2.37</v>
       </c>
       <c r="S300" t="inlineStr">
         <is>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="T300" t="n">
-        <v>3.19</v>
+        <v>2.39</v>
       </c>
       <c r="U300" t="inlineStr">
         <is>
-          <t>08/10/2023 06:31</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="V300" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-vanraure/tlDINSf7/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-toyama/SrIxTNWn/</t>
         </is>
       </c>
     </row>
@@ -28330,6 +28330,742 @@
       <c r="V303" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-fukushima-united/bsZmQLG5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45214.25</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Imabari</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>YSCC</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>2</v>
+      </c>
+      <c r="J304" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:59</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:59</t>
+        </is>
+      </c>
+      <c r="R304" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T304" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-yscc-yokohama/EDeJu1Gh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45214.25</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>1</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Nagano</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:56</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:56</t>
+        </is>
+      </c>
+      <c r="R305" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T305" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:56</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-nagano-parceiro/f9SdOaoI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45214.25</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Tegevajaro Miyazaki</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>2</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Sagamihara</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>2</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>15/10/2023 04:37</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>15/10/2023 04:37</t>
+        </is>
+      </c>
+      <c r="R306" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T306" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>15/10/2023 04:37</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-sc-sagamihara/h4fNvLVb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45214.28819444445</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Ehime</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>1</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Giravanz Kitakyushu</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:26</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P307" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:52</t>
+        </is>
+      </c>
+      <c r="R307" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T307" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:26</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-giravanz-kitakyushu/6mdFts1n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45214.29166666666</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Azul Claro Numazu</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>2</v>
+      </c>
+      <c r="J308" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:34</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P308" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:29</t>
+        </is>
+      </c>
+      <c r="R308" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T308" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:47</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-azul-claro-numazu/lWR0NJ0O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45214.29166666666</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Gifu</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>3</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:19</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P309" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:41</t>
+        </is>
+      </c>
+      <c r="R309" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T309" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:19</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-gifu/2ZV4MwGU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45214.29166666666</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Kamatamare</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Gainare Tottori</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>2</v>
+      </c>
+      <c r="J310" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:02</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P310" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="R310" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T310" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:02</t>
+        </is>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-gainare-tottori/SdcBsNot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45214.29166666666</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Vanraure</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>2</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Kagoshima Utd</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P311" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R311" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T311" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-kagoshima-united/GIThPuWB/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j3-league_2023.xlsx
+++ b/2023/japan_j3-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V313"/>
+  <dimension ref="A1:V320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.41</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.43</v>
+        <v>3.18</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>18/03/2023 05:49</t>
+          <t>18/03/2023 05:36</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.92</v>
+        <v>3.16</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>18/03/2023 05:49</t>
+          <t>18/03/2023 05:04</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.78</v>
+        <v>2.19</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.99</v>
+        <v>2.25</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>18/03/2023 05:49</t>
+          <t>18/03/2023 05:36</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-vanraure/2e7m7cHd/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-iwate-grulla-morioka/48gjc2Kt/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.94</v>
+        <v>2.41</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.18</v>
+        <v>2.43</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>18/03/2023 05:36</t>
+          <t>18/03/2023 05:49</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.16</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>18/03/2023 05:04</t>
+          <t>18/03/2023 05:49</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.19</v>
+        <v>2.78</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.25</v>
+        <v>2.99</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>18/03/2023 05:36</t>
+          <t>18/03/2023 05:49</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-iwate-grulla-morioka/48gjc2Kt/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-vanraure/2e7m7cHd/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.06</v>
+        <v>2.51</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>19/03/2023 04:44</t>
+          <t>19/03/2023 04:55</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ryukyu/EgyxETk9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-tegevajaro-miyazaki/niPyvuKI/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.72</v>
+        <v>3.31</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.09</v>
+        <v>3.65</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>19/03/2023 04:16</t>
+          <t>19/03/2023 04:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-ehime/bVhfdMZn/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-ryukyu/EgyxETk9/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.51</v>
+        <v>2.19</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.11</v>
+        <v>3.43</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.84</v>
+        <v>3.09</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>19/03/2023 04:55</t>
+          <t>19/03/2023 04:16</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-tegevajaro-miyazaki/niPyvuKI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-ehime/bVhfdMZn/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.99</v>
+        <v>2.23</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>17/03/2023 04:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.21</v>
+        <v>2.34</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>19/03/2023 05:36</t>
+          <t>19/03/2023 04:57</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.21</v>
+        <v>3.06</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>17/03/2023 04:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>19/03/2023 05:36</t>
+          <t>19/03/2023 04:57</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.27</v>
+        <v>3.03</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>17/03/2023 04:12</t>
+          <t>17/03/2023 04:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.17</v>
+        <v>3.02</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>19/03/2023 05:36</t>
+          <t>19/03/2023 04:57</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-giravanz-kitakyushu/Sn2O1rCP/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-sc-sagamihara/CvfuDm5F/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.23</v>
+        <v>1.99</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>17/03/2023 04:13</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/03/2023 04:57</t>
+          <t>19/03/2023 05:36</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>17/03/2023 04:13</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.2</v>
+        <v>3.29</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/03/2023 04:57</t>
+          <t>19/03/2023 05:36</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.03</v>
+        <v>3.27</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>17/03/2023 04:13</t>
+          <t>17/03/2023 04:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.02</v>
+        <v>3.17</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/03/2023 04:57</t>
+          <t>19/03/2023 05:36</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-sc-sagamihara/CvfuDm5F/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-giravanz-kitakyushu/Sn2O1rCP/</t>
         </is>
       </c>
     </row>
@@ -3701,19 +3701,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Gifu</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Imabari</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>2.6</v>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>26/03/2023 06:33</t>
+          <t>26/03/2023 06:52</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.35</v>
+        <v>3.12</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>26/03/2023 06:33</t>
+          <t>26/03/2023 05:44</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>26/03/2023 06:33</t>
+          <t>26/03/2023 06:52</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-imabari/n1OO4PCe/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gifu/xMibetkg/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>2.6</v>
+        <v>2.19</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>26/03/2023 06:56</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>23/03/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>26/03/2023 06:53</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
         <v>2.96</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>26/03/2023 06:52</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>23/03/2023 14:42</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>26/03/2023 05:44</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>23/03/2023 14:42</t>
-        </is>
-      </c>
       <c r="T37" t="n">
-        <v>2.42</v>
+        <v>3.04</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>26/03/2023 06:52</t>
+          <t>26/03/2023 06:56</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gifu/xMibetkg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-nagano-parceiro/4xZJ55ck/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.19</v>
+        <v>1.83</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>26/03/2023 06:53</t>
+          <t>26/03/2023 06:56</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.96</v>
+        <v>3.77</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.04</v>
+        <v>4.07</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-nagano-parceiro/4xZJ55ck/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-tegevajaro-miyazaki/dO7agKJ5/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.88</v>
+        <v>3.7</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>26/03/2023 06:56</t>
+          <t>26/03/2023 06:33</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>26/03/2023 06:56</t>
+          <t>26/03/2023 06:33</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.77</v>
+        <v>2.45</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.07</v>
+        <v>1.99</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>26/03/2023 06:56</t>
+          <t>26/03/2023 06:33</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-tegevajaro-miyazaki/dO7agKJ5/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-imabari/n1OO4PCe/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>1.79</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>1.97</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.91</v>
+        <v>3.72</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.98</v>
+        <v>3.63</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-kagoshima-united/nuk43zYI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-gainare-tottori/vFod5d36/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Kagoshima Utd</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Grulla Morioka</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>02/04/2023 06:35</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-iwate-grulla-morioka/Iacm7IYg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-kagoshima-united/nuk43zYI/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1.79</v>
+        <v>3.1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.97</v>
+        <v>3.49</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.72</v>
+        <v>2.04</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.63</v>
+        <v>2.1</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:35</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-gainare-tottori/vFod5d36/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-iwate-grulla-morioka/Iacm7IYg/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.9</v>
+        <v>1.97</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.49</v>
+        <v>2.34</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:20</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.3</v>
+        <v>3.29</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:20</t>
+          <t>09/04/2023 06:21</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-matsumoto-yamaga/zF6TvcfP/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-tegevajaro-miyazaki/Mc3nGDHO/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.29</v>
+        <v>3.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>09/04/2023 06:21</t>
+          <t>09/04/2023 06:38</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-tegevajaro-miyazaki/Mc3nGDHO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kamatamare-sanuki/r74rHg2I/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>4</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Kamatamare</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
       <c r="J61" t="n">
-        <v>1.79</v>
+        <v>2.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,48 +6024,48 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.22</v>
+        <v>3.49</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
+          <t>09/04/2023 06:20</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>07/04/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
           <t>09/04/2023 06:38</t>
         </is>
       </c>
-      <c r="N61" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="O61" t="inlineStr">
+      <c r="R61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S61" t="inlineStr">
         <is>
           <t>07/04/2023 19:12</t>
         </is>
       </c>
-      <c r="P61" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>09/04/2023 06:38</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>07/04/2023 19:12</t>
-        </is>
-      </c>
       <c r="T61" t="n">
-        <v>3.19</v>
+        <v>2.1</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>09/04/2023 06:38</t>
+          <t>09/04/2023 06:20</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-kamatamare-sanuki/r74rHg2I/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-matsumoto-yamaga/zF6TvcfP/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.84</v>
+        <v>3.31</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.92</v>
+        <v>2.82</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/04/2023 05:42</t>
+          <t>16/04/2023 05:46</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/04/2023 04:56</t>
+          <t>16/04/2023 05:14</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.72</v>
+        <v>2.02</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.78</v>
+        <v>2.47</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/04/2023 05:42</t>
+          <t>16/04/2023 05:46</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-toyama/63pCWY15/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-iwate-grulla-morioka/SCo8XEna/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.31</v>
+        <v>1.84</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.82</v>
+        <v>1.92</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/04/2023 05:46</t>
+          <t>16/04/2023 05:42</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/04/2023 05:14</t>
+          <t>16/04/2023 04:56</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.02</v>
+        <v>3.72</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.47</v>
+        <v>3.78</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/04/2023 05:46</t>
+          <t>16/04/2023 05:42</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nara-club-iwate-grulla-morioka/SCo8XEna/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-toyama/63pCWY15/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/04/2023 06:52</t>
+          <t>16/04/2023 06:51</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.34</v>
+        <v>3.53</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/04/2023 06:52</t>
+          <t>16/04/2023 06:51</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.14</v>
+        <v>4.11</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.17</v>
+        <v>4.12</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/04/2023 06:52</t>
+          <t>16/04/2023 06:51</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-azul-claro-numazu/dhwPTWoO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-fc-osaka/8StTSj1U/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.71</v>
+        <v>2.64</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.83</v>
+        <v>3.29</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/04/2023 06:51</t>
+          <t>16/04/2023 06:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.47</v>
+        <v>3.06</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.53</v>
+        <v>3.32</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/04/2023 06:51</t>
+          <t>16/04/2023 06:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.11</v>
+        <v>2.45</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.12</v>
+        <v>2.15</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/04/2023 06:51</t>
+          <t>16/04/2023 06:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-fc-osaka/8StTSj1U/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-ehime/Yk8ZmzXu/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.64</v>
+        <v>1.75</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.29</v>
+        <v>2.07</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/04/2023 06:59</t>
+          <t>16/04/2023 06:53</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.06</v>
+        <v>3.49</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/04/2023 06:59</t>
+          <t>16/04/2023 06:53</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.45</v>
+        <v>4.02</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.15</v>
+        <v>3.51</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/04/2023 06:59</t>
+          <t>16/04/2023 06:53</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-ehime/Yk8ZmzXu/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-yscc-yokohama/2VwLUCWH/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/04/2023 06:53</t>
+          <t>16/04/2023 06:52</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.49</v>
+        <v>3.36</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/04/2023 06:53</t>
+          <t>16/04/2023 06:52</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.02</v>
+        <v>4.14</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.51</v>
+        <v>4.17</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/04/2023 06:53</t>
+          <t>16/04/2023 06:52</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-yscc-yokohama/2VwLUCWH/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-azul-claro-numazu/dhwPTWoO/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Kagoshima Utd</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
       <c r="J74" t="n">
-        <v>2.13</v>
+        <v>2.66</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.1</v>
+        <v>2.73</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/04/2023 06:59</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.09</v>
+        <v>3.24</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.47</v>
+        <v>3.26</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/04/2023 06:59</t>
+          <t>29/04/2023 06:40</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.12</v>
+        <v>2.38</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.27</v>
+        <v>2.52</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/04/2023 06:59</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-kagoshima-united/K6AooYGb/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-matsumoto-yamaga/2VajphW4/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.28</v>
+        <v>3.47</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.04</v>
+        <v>3.27</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-vanraure/GY3fqCoB/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-kagoshima-united/K6AooYGb/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Vanraure</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>3</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Yamaga</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.66</v>
+        <v>2.25</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.73</v>
+        <v>2.29</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.24</v>
+        <v>2.98</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>29/04/2023 06:40</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.38</v>
+        <v>2.98</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.52</v>
+        <v>3.04</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-matsumoto-yamaga/2VajphW4/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-vanraure/GY3fqCoB/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.74</v>
+        <v>1.95</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>28/05/2023 03:43</t>
+          <t>28/05/2023 05:52</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>28/05/2023 04:01</t>
+          <t>28/05/2023 05:52</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.37</v>
+        <v>3.27</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.5</v>
+        <v>3.06</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/05/2023 03:43</t>
+          <t>28/05/2023 05:52</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-iwate-grulla-morioka/UweN3wTf/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gainare-tottori/nF5I4JDl/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.95</v>
+        <v>2.74</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>28/05/2023 05:52</t>
+          <t>28/05/2023 03:43</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.37</v>
+        <v>3.14</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>28/05/2023 05:52</t>
+          <t>28/05/2023 04:01</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.27</v>
+        <v>2.37</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.06</v>
+        <v>2.5</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>28/05/2023 05:52</t>
+          <t>28/05/2023 03:43</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gainare-tottori/nF5I4JDl/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-iwate-grulla-morioka/UweN3wTf/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
         <v>2</v>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Kamatamare</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
       <c r="J133" t="n">
-        <v>1.6</v>
+        <v>2.63</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,48 +12648,48 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.52</v>
+        <v>2.69</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
+          <t>17/06/2023 10:58</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>15/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
           <t>17/06/2023 10:57</t>
         </is>
       </c>
-      <c r="N133" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="O133" t="inlineStr">
+      <c r="R133" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S133" t="inlineStr">
         <is>
           <t>15/06/2023 09:12</t>
         </is>
       </c>
-      <c r="P133" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>17/06/2023 10:57</t>
-        </is>
-      </c>
-      <c r="R133" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>15/06/2023 09:12</t>
-        </is>
-      </c>
       <c r="T133" t="n">
-        <v>5.95</v>
+        <v>2.57</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>17/06/2023 10:57</t>
+          <t>17/06/2023 10:58</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-kamatamare-sanuki/CI44GyUc/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-toyama/4h50HHEi/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.69</v>
+        <v>2.31</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>17/06/2023 10:58</t>
+          <t>17/06/2023 10:51</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>17/06/2023 10:57</t>
+          <t>17/06/2023 10:51</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.51</v>
+        <v>3.28</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>17/06/2023 10:58</t>
+          <t>17/06/2023 10:51</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-toyama/4h50HHEi/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-nara-club/j938Feq4/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.31</v>
+        <v>1.52</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>17/06/2023 10:51</t>
+          <t>17/06/2023 10:57</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.28</v>
+        <v>4.06</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>17/06/2023 10:51</t>
+          <t>17/06/2023 10:57</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.28</v>
+        <v>4.78</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3</v>
+        <v>5.95</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>17/06/2023 10:51</t>
+          <t>17/06/2023 10:57</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-nara-club/j938Feq4/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-kamatamare-sanuki/CI44GyUc/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>2.73</v>
+        <v>2.91</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24/06/2023 10:42</t>
+          <t>24/06/2023 10:51</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>24/06/2023 10:44</t>
+          <t>24/06/2023 10:51</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>24/06/2023 10:42</t>
+          <t>24/06/2023 10:51</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-matsumoto-yamaga/YoYoTED3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-nagano-parceiro/2RP2PWCS/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.91</v>
+        <v>1.74</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>3.08</v>
+        <v>1.67</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>24/06/2023 10:51</t>
+          <t>24/06/2023 10:48</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.08</v>
+        <v>3.4</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.21</v>
+        <v>3.69</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>24/06/2023 10:51</t>
+          <t>24/06/2023 10:48</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.24</v>
+        <v>4.08</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.3</v>
+        <v>4.96</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>24/06/2023 10:51</t>
+          <t>24/06/2023 10:48</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-nagano-parceiro/2RP2PWCS/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-sc-sagamihara/tCyfRhrG/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,14 +13921,14 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>24/06/2023 10:48</t>
+          <t>24/06/2023 10:52</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.4</v>
+        <v>3.67</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>24/06/2023 10:48</t>
+          <t>24/06/2023 10:52</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>4.08</v>
+        <v>4.98</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>4.96</v>
+        <v>5.78</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>24/06/2023 10:48</t>
+          <t>24/06/2023 10:52</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-sc-sagamihara/tCyfRhrG/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-kamatamare-sanuki/K2zbQCcM/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.56</v>
+        <v>2.73</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.6</v>
+        <v>3.06</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>24/06/2023 10:52</t>
+          <t>24/06/2023 10:42</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.67</v>
+        <v>3.06</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.68</v>
+        <v>3.22</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>24/06/2023 10:52</t>
+          <t>24/06/2023 10:44</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>4.98</v>
+        <v>2.38</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>5.78</v>
+        <v>2.31</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>24/06/2023 10:52</t>
+          <t>24/06/2023 10:42</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-kamatamare-sanuki/K2zbQCcM/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-matsumoto-yamaga/YoYoTED3/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I152" t="n">
         <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,48 +14396,48 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>1.81</v>
+        <v>2.21</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
+          <t>01/07/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>29/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>01/07/2023 09:59</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>29/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
           <t>01/07/2023 09:57</t>
         </is>
       </c>
-      <c r="N152" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>29/06/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P152" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>01/07/2023 09:57</t>
-        </is>
-      </c>
-      <c r="R152" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>29/06/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T152" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="U152" t="inlineStr">
-        <is>
-          <t>01/07/2023 09:57</t>
-        </is>
-      </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-giravanz-kitakyushu/j724XT4k/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-yscc-yokohama/ChLDsESd/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>1.9</v>
+        <v>1.56</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.21</v>
+        <v>1.81</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>01/07/2023 09:59</t>
+          <t>01/07/2023 09:57</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.27</v>
+        <v>3.57</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.42</v>
+        <v>3.58</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>01/07/2023 09:59</t>
+          <t>01/07/2023 09:57</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.52</v>
+        <v>5.36</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.07</v>
+        <v>4.15</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-yscc-yokohama/ChLDsESd/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-giravanz-kitakyushu/j724XT4k/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J158" t="n">
-        <v>2.69</v>
+        <v>2.02</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>3.26</v>
+        <v>2.34</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>01/07/2023 11:54</t>
+          <t>01/07/2023 11:58</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2.91</v>
+        <v>3.16</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>01/07/2023 10:03</t>
+          <t>01/07/2023 11:58</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>2.51</v>
+        <v>3.4</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>2.34</v>
+        <v>3.08</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>01/07/2023 10:05</t>
+          <t>01/07/2023 11:58</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-nara-club/KOBYxjsS/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-fc-osaka/CG30Y9kq/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J159" t="n">
-        <v>2.02</v>
+        <v>2.69</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,48 +15040,48 @@
         </is>
       </c>
       <c r="L159" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>01/07/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>29/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>01/07/2023 10:03</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>29/06/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
         <v>2.34</v>
       </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>01/07/2023 11:58</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>29/06/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P159" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>01/07/2023 11:58</t>
-        </is>
-      </c>
-      <c r="R159" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>29/06/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T159" t="n">
-        <v>3.08</v>
-      </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>01/07/2023 11:58</t>
+          <t>01/07/2023 10:05</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-fc-osaka/CG30Y9kq/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-nara-club/KOBYxjsS/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.83</v>
+        <v>2.57</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.93</v>
+        <v>2.33</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.22</v>
+        <v>2.98</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.38</v>
+        <v>3.01</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:56</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>3.85</v>
+        <v>2.56</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>4.08</v>
+        <v>3.39</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-azul-claro-numazu/4ASwnTJr/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-nagano-parceiro/SlyCj9BR/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>2.57</v>
+        <v>1.83</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.33</v>
+        <v>1.93</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>2.98</v>
+        <v>3.22</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,32 +15792,32 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.01</v>
+        <v>3.38</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
+          <t>08/07/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>06/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
           <t>08/07/2023 11:56</t>
         </is>
       </c>
-      <c r="R167" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>06/07/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T167" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="U167" t="inlineStr">
-        <is>
-          <t>08/07/2023 11:56</t>
-        </is>
-      </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-nagano-parceiro/SlyCj9BR/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-azul-claro-numazu/4ASwnTJr/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.47</v>
+        <v>1.81</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.81</v>
+        <v>2.12</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.05</v>
+        <v>3.34</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.32</v>
+        <v>3.23</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:56</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.79</v>
+        <v>4</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2.5</v>
+        <v>3.63</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:57</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-imabari/6ezAlMus/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-ryukyu/EaCt6lBE/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G173" t="n">
+        <v>3</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Nara Club</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
         <v>2</v>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Tegevajaro Miyazaki</t>
-        </is>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
       <c r="J173" t="n">
-        <v>2.64</v>
+        <v>3.59</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2.98</v>
+        <v>3.21</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.06</v>
+        <v>3.44</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.59</v>
+        <v>1.99</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.59</v>
+        <v>1.88</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>15/07/2023 10:59</t>
+          <t>15/07/2023 10:51</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-tegevajaro-miyazaki/pnZDmtem/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-nara-club/0d8x7Ue8/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G174" t="n">
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Tegevajaro Miyazaki</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
         <v>1</v>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Ryukyu</t>
-        </is>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
       <c r="J174" t="n">
-        <v>1.81</v>
+        <v>2.64</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.12</v>
+        <v>2.9</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.34</v>
+        <v>2.98</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.23</v>
+        <v>3.06</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>4</v>
+        <v>2.59</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.63</v>
+        <v>2.59</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>15/07/2023 10:57</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-ryukyu/EaCt6lBE/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-tegevajaro-miyazaki/pnZDmtem/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>3.59</v>
+        <v>2.47</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>4.23</v>
+        <v>2.81</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:56</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>1.99</v>
+        <v>2.79</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>15/07/2023 10:51</t>
+          <t>15/07/2023 10:59</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-nara-club/0d8x7Ue8/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-imabari/6ezAlMus/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>1.68</v>
+        <v>2.18</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.68</v>
+        <v>2.7</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>16/07/2023 10:56</t>
+          <t>16/07/2023 10:57</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.54</v>
+        <v>3.15</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.81</v>
+        <v>3.4</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>16/07/2023 10:56</t>
+          <t>16/07/2023 10:49</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>4.64</v>
+        <v>3.08</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.99</v>
+        <v>2.55</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>16/07/2023 10:56</t>
+          <t>16/07/2023 10:49</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-fukushima-united/zySQpvu6/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-gainare-tottori/nBVUqbfC/</t>
         </is>
       </c>
     </row>
@@ -16949,22 +16949,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="n">
-        <v>2.53</v>
+        <v>1.68</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -16972,15 +16972,15 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>2.94</v>
+        <v>1.68</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>16/07/2023 10:53</t>
+          <t>16/07/2023 10:56</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -16988,15 +16988,15 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.02</v>
+        <v>3.81</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>16/07/2023 10:53</t>
+          <t>16/07/2023 10:56</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>2.67</v>
+        <v>4.64</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>2.59</v>
+        <v>4.99</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>16/07/2023 10:50</t>
+          <t>16/07/2023 10:56</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-fc-osaka/UZKZrI9I/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-fukushima-united/zySQpvu6/</t>
         </is>
       </c>
     </row>
@@ -17041,22 +17041,22 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>2.18</v>
+        <v>2.53</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -17064,15 +17064,15 @@
         </is>
       </c>
       <c r="L181" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>16/07/2023 10:57</t>
+          <t>16/07/2023 10:53</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -17080,15 +17080,15 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>16/07/2023 10:49</t>
+          <t>16/07/2023 10:53</t>
         </is>
       </c>
       <c r="R181" t="n">
-        <v>3.08</v>
+        <v>2.67</v>
       </c>
       <c r="S181" t="inlineStr">
         <is>
@@ -17096,16 +17096,16 @@
         </is>
       </c>
       <c r="T181" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>16/07/2023 10:49</t>
+          <t>16/07/2023 10:50</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-gainare-tottori/nBVUqbfC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-fc-osaka/UZKZrI9I/</t>
         </is>
       </c>
     </row>
@@ -17225,22 +17225,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>2.78</v>
+        <v>1.72</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.76</v>
+        <v>2.23</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:37</t>
+          <t>22/07/2023 10:44</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.12</v>
+        <v>3.42</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:37</t>
+          <t>22/07/2023 10:59</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>2.43</v>
+        <v>4.34</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>2.55</v>
+        <v>3.32</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>22/07/2023 10:50</t>
+          <t>22/07/2023 10:44</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-azul-claro-numazu/lvh0awfa/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-vanraure/tElh1aPn/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>3.71</v>
+        <v>1.88</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>4.2</v>
+        <v>1.82</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:57</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.33</v>
+        <v>3.29</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:57</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>1.92</v>
+        <v>3.88</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>1.88</v>
+        <v>4.7</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>22/07/2023 10:57</t>
+          <t>22/07/2023 10:25</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-imabari/bkam2uAt/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-nagano-parceiro/fHhd0Jvg/</t>
         </is>
       </c>
     </row>
@@ -17409,22 +17409,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.72</v>
+        <v>3.71</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>2.23</v>
+        <v>4.2</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>22/07/2023 10:44</t>
+          <t>22/07/2023 10:57</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.42</v>
+        <v>3.33</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.24</v>
+        <v>3.49</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>22/07/2023 10:59</t>
+          <t>22/07/2023 10:57</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>4.34</v>
+        <v>1.92</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>3.32</v>
+        <v>1.88</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>22/07/2023 10:44</t>
+          <t>22/07/2023 10:57</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-vanraure/tElh1aPn/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-imabari/bkam2uAt/</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -17509,14 +17509,14 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>1.88</v>
+        <v>2.78</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.82</v>
+        <v>2.76</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:37</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:37</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>3.88</v>
+        <v>2.43</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>4.7</v>
+        <v>2.55</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>22/07/2023 10:25</t>
+          <t>22/07/2023 10:50</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-nagano-parceiro/fHhd0Jvg/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-azul-claro-numazu/lvh0awfa/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.83</v>
+        <v>2.23</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>23/07/2023 10:55</t>
+          <t>23/07/2023 10:57</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>23/07/2023 10:55</t>
+          <t>23/07/2023 10:57</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.41</v>
+        <v>3.41</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>4.97</v>
+        <v>3.16</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>23/07/2023 10:55</t>
+          <t>23/07/2023 10:57</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-kamatamare-sanuki/tf69eegO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ehime/fcADfF8U/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.23</v>
+        <v>1.83</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>23/07/2023 10:57</t>
+          <t>23/07/2023 10:55</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>23/07/2023 10:57</t>
+          <t>23/07/2023 10:55</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>3.41</v>
+        <v>4.41</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>3.16</v>
+        <v>4.97</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>23/07/2023 10:57</t>
+          <t>23/07/2023 10:55</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-ehime/fcADfF8U/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-kamatamare-sanuki/tf69eegO/</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -18153,14 +18153,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.42</v>
+        <v>3.34</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>29/07/2023 10:48</t>
+          <t>29/07/2023 10:58</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.02</v>
+        <v>3.23</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>29/07/2023 10:48</t>
+          <t>29/07/2023 10:58</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>3.19</v>
+        <v>2.23</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>29/07/2023 10:48</t>
+          <t>29/07/2023 10:58</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-fukushima-united/nonvBzgB/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-gainare-tottori/Kbpn9ENN/</t>
         </is>
       </c>
     </row>
@@ -18237,7 +18237,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -18245,14 +18245,14 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I194" t="n">
         <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.89</v>
+        <v>2.38</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 10:56</t>
+          <t>29/07/2023 10:45</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 10:50</t>
+          <t>29/07/2023 10:40</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 10:50</t>
+          <t>29/07/2023 10:45</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-nara-club/6yvWCdOb/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-matsumoto-yamaga/t8orAf8H/</t>
         </is>
       </c>
     </row>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -18337,14 +18337,14 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>3.34</v>
+        <v>2.42</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 10:58</t>
+          <t>29/07/2023 10:48</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.23</v>
+        <v>3.02</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 10:58</t>
+          <t>29/07/2023 10:48</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.23</v>
+        <v>3.19</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 10:58</t>
+          <t>29/07/2023 10:48</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-gainare-tottori/Kbpn9ENN/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-fukushima-united/nonvBzgB/</t>
         </is>
       </c>
     </row>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G196" t="n">
@@ -18429,14 +18429,14 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Nara Club</t>
         </is>
       </c>
       <c r="I196" t="n">
         <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -18444,15 +18444,15 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.38</v>
+        <v>2.89</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>29/07/2023 10:45</t>
+          <t>29/07/2023 10:56</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -18460,15 +18460,15 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>29/07/2023 10:40</t>
+          <t>29/07/2023 10:50</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -18476,16 +18476,16 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>29/07/2023 10:45</t>
+          <t>29/07/2023 10:50</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-matsumoto-yamaga/t8orAf8H/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-nara-club/6yvWCdOb/</t>
         </is>
       </c>
     </row>
@@ -18513,22 +18513,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>2.31</v>
+        <v>1.75</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>2.66</v>
+        <v>2.01</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>29/07/2023 11:53</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>2.93</v>
+        <v>3.43</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,15 +18552,15 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2.93</v>
+        <v>3.35</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>29/07/2023 11:53</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>3.07</v>
+        <v>4.19</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,16 +18568,16 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>2.93</v>
+        <v>3.83</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>29/07/2023 11:53</t>
+          <t>29/07/2023 11:57</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-fc-osaka/xzui8YxU/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-tegevajaro-miyazaki/vqRI3hoo/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>1.75</v>
+        <v>2.31</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.01</v>
+        <v>2.66</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:53</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.43</v>
+        <v>2.93</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.35</v>
+        <v>2.93</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:53</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>4.19</v>
+        <v>3.07</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.83</v>
+        <v>2.93</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>29/07/2023 11:57</t>
+          <t>29/07/2023 11:53</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-tegevajaro-miyazaki/vqRI3hoo/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-fc-osaka/xzui8YxU/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,11 +19104,11 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.24</v>
+        <v>3.03</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="R203" t="n">
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>4.13</v>
+        <v>2.73</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>05/08/2023 10:59</t>
+          <t>05/08/2023 10:38</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-ehime/dpeQMXiN/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kamatamare-sanuki/zV6HOgNA/</t>
         </is>
       </c>
     </row>
@@ -19157,22 +19157,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>2.52</v>
+        <v>2.33</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -19180,15 +19180,15 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.72</v>
+        <v>1.97</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:54</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -19196,15 +19196,15 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.47</v>
+        <v>3.24</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:57</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
@@ -19212,16 +19212,16 @@
         </is>
       </c>
       <c r="T204" t="n">
-        <v>2.49</v>
+        <v>4.13</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>05/08/2023 10:54</t>
+          <t>05/08/2023 10:59</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-imabari/EL5LNDxH/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-ehime/dpeQMXiN/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:54</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.03</v>
+        <v>3.47</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:57</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>2.73</v>
+        <v>2.49</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>05/08/2023 10:38</t>
+          <t>05/08/2023 10:54</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kamatamare-sanuki/zV6HOgNA/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-imabari/EL5LNDxH/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
         <v>1</v>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Gifu</t>
-        </is>
-      </c>
-      <c r="I215" t="n">
-        <v>2</v>
-      </c>
       <c r="J215" t="n">
-        <v>1.91</v>
+        <v>2.26</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,48 +20192,48 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>12/08/2023 11:31</t>
+          <t>12/08/2023 11:40</t>
         </is>
       </c>
       <c r="N215" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>10/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
         <v>3.26</v>
       </c>
-      <c r="O215" t="inlineStr">
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>12/08/2023 11:40</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S215" t="inlineStr">
         <is>
           <t>10/08/2023 09:13</t>
         </is>
       </c>
-      <c r="P215" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>12/08/2023 11:31</t>
-        </is>
-      </c>
-      <c r="R215" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>10/08/2023 09:13</t>
-        </is>
-      </c>
       <c r="T215" t="n">
-        <v>3.65</v>
+        <v>2.86</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>12/08/2023 11:31</t>
+          <t>12/08/2023 11:40</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gifu/x2ytH2L1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-toyama/fwnyIr6e/</t>
         </is>
       </c>
     </row>
@@ -20261,22 +20261,22 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="n">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -20284,15 +20284,15 @@
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>12/08/2023 11:40</t>
+          <t>12/08/2023 11:31</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -20300,15 +20300,15 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>12/08/2023 11:40</t>
+          <t>12/08/2023 11:31</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
@@ -20316,16 +20316,16 @@
         </is>
       </c>
       <c r="T216" t="n">
-        <v>2.86</v>
+        <v>3.65</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>12/08/2023 11:40</t>
+          <t>12/08/2023 11:31</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-toyama/fwnyIr6e/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-gifu/x2ytH2L1/</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -21373,14 +21373,14 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J228" t="n">
-        <v>1.89</v>
+        <v>2.75</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -21388,15 +21388,15 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>2.44</v>
+        <v>2.92</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>3.31</v>
+        <v>2.98</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -21404,15 +21404,15 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>3.24</v>
+        <v>2.99</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>3.69</v>
+        <v>2.49</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
@@ -21420,16 +21420,16 @@
         </is>
       </c>
       <c r="T228" t="n">
-        <v>2.96</v>
+        <v>2.63</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>19/08/2023 11:45</t>
+          <t>19/08/2023 11:55</t>
         </is>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-tegevajaro-miyazaki/lztJSaKD/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-azul-claro-numazu/tAxBULk1/</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -21465,14 +21465,14 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>2.75</v>
+        <v>1.89</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -21480,15 +21480,15 @@
         </is>
       </c>
       <c r="L229" t="n">
-        <v>2.92</v>
+        <v>2.44</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>2.98</v>
+        <v>3.31</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -21496,15 +21496,15 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>2.99</v>
+        <v>3.24</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="R229" t="n">
-        <v>2.49</v>
+        <v>3.69</v>
       </c>
       <c r="S229" t="inlineStr">
         <is>
@@ -21512,16 +21512,16 @@
         </is>
       </c>
       <c r="T229" t="n">
-        <v>2.63</v>
+        <v>2.96</v>
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 11:45</t>
         </is>
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-azul-claro-numazu/tAxBULk1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-tegevajaro-miyazaki/lztJSaKD/</t>
         </is>
       </c>
     </row>
@@ -22745,22 +22745,22 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J243" t="n">
-        <v>2.05</v>
+        <v>1.68</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,15 +22768,15 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>02/09/2023 10:47</t>
+          <t>02/09/2023 10:53</t>
         </is>
       </c>
       <c r="N243" t="n">
-        <v>3.08</v>
+        <v>3.51</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -22784,15 +22784,15 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>02/09/2023 10:47</t>
+          <t>02/09/2023 10:53</t>
         </is>
       </c>
       <c r="R243" t="n">
-        <v>3.45</v>
+        <v>4.46</v>
       </c>
       <c r="S243" t="inlineStr">
         <is>
@@ -22800,16 +22800,16 @@
         </is>
       </c>
       <c r="T243" t="n">
-        <v>2.99</v>
+        <v>2.89</v>
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>02/09/2023 10:47</t>
+          <t>02/09/2023 10:53</t>
         </is>
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-kamatamare-sanuki/EebO08iP/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-sc-sagamihara/E51xw5aI/</t>
         </is>
       </c>
     </row>
@@ -22837,22 +22837,22 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I244" t="n">
         <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>3.33</v>
+        <v>2.05</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -22860,15 +22860,15 @@
         </is>
       </c>
       <c r="L244" t="n">
-        <v>3.51</v>
+        <v>2.42</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>02/09/2023 10:51</t>
+          <t>02/09/2023 10:47</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>3.33</v>
+        <v>3.08</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -22876,15 +22876,15 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3.8</v>
+        <v>3.23</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>02/09/2023 10:51</t>
+          <t>02/09/2023 10:47</t>
         </is>
       </c>
       <c r="R244" t="n">
-        <v>2.03</v>
+        <v>3.45</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
@@ -22892,16 +22892,16 @@
         </is>
       </c>
       <c r="T244" t="n">
-        <v>1.96</v>
+        <v>2.99</v>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>02/09/2023 10:51</t>
+          <t>02/09/2023 10:47</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ehime/Kr2YwopC/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-kamatamare-sanuki/EebO08iP/</t>
         </is>
       </c>
     </row>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G245" t="n">
@@ -22937,14 +22937,14 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
-        <v>1.86</v>
+        <v>3.33</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -22952,48 +22952,48 @@
         </is>
       </c>
       <c r="L245" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>02/09/2023 10:51</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>31/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>02/09/2023 10:51</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>31/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T245" t="n">
         <v>1.96</v>
       </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>02/09/2023 10:26</t>
-        </is>
-      </c>
-      <c r="N245" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>31/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P245" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q245" t="inlineStr">
-        <is>
-          <t>02/09/2023 10:29</t>
-        </is>
-      </c>
-      <c r="R245" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S245" t="inlineStr">
-        <is>
-          <t>31/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T245" t="n">
-        <v>4.02</v>
-      </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>02/09/2023 10:26</t>
+          <t>02/09/2023 10:51</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fukushima-united/OG8Pu7Fa/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-ehime/Kr2YwopC/</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -23029,14 +23029,14 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J246" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>2.35</v>
+        <v>1.96</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>02/09/2023 10:53</t>
+          <t>02/09/2023 10:26</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.51</v>
+        <v>3.26</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>02/09/2023 10:53</t>
+          <t>02/09/2023 10:29</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>4.46</v>
+        <v>3.88</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>2.89</v>
+        <v>4.02</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>02/09/2023 10:53</t>
+          <t>02/09/2023 10:26</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-sc-sagamihara/E51xw5aI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fukushima-united/OG8Pu7Fa/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>2.36</v>
+        <v>2.53</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>02/09/2023 11:57</t>
+          <t>02/09/2023 11:54</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.49</v>
+        <v>3.2</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>02/09/2023 11:58</t>
+          <t>02/09/2023 11:54</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3.02</v>
+        <v>2.74</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>02/09/2023 11:56</t>
+          <t>02/09/2023 10:56</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-gifu/G4pjdSat/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gainare-tottori/pQ9Ltm0g/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="G248" t="n">
+        <v>2</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Gifu</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
         <v>1</v>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Giravanz Kitakyushu</t>
-        </is>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
       <c r="J248" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.64</v>
+        <v>2.36</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:50</t>
+          <t>02/09/2023 11:57</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.81</v>
+        <v>3.49</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:50</t>
+          <t>02/09/2023 11:58</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>5.06</v>
+        <v>3.02</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.39</v>
+        <v>2.88</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>02/09/2023 11:50</t>
+          <t>02/09/2023 11:56</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-giravanz-kitakyushu/CjKuxPEO/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-gifu/G4pjdSat/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2.41</v>
+        <v>1.57</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.53</v>
+        <v>1.64</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>02/09/2023 11:54</t>
+          <t>02/09/2023 11:50</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.11</v>
+        <v>3.75</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.2</v>
+        <v>3.81</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>02/09/2023 11:54</t>
+          <t>02/09/2023 11:50</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>2.74</v>
+        <v>5.06</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>2.86</v>
+        <v>5.39</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>02/09/2023 10:56</t>
+          <t>02/09/2023 11:50</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-gainare-tottori/pQ9Ltm0g/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-giravanz-kitakyushu/CjKuxPEO/</t>
         </is>
       </c>
     </row>
@@ -23665,22 +23665,22 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I253" t="n">
         <v>1</v>
       </c>
       <c r="J253" t="n">
-        <v>2.24</v>
+        <v>1.89</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -23688,15 +23688,15 @@
         </is>
       </c>
       <c r="L253" t="n">
-        <v>2.63</v>
+        <v>1.94</v>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>09/09/2023 10:50</t>
+          <t>09/09/2023 10:36</t>
         </is>
       </c>
       <c r="N253" t="n">
-        <v>3.07</v>
+        <v>3.28</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -23704,15 +23704,15 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>3.02</v>
+        <v>3.68</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>09/09/2023 10:39</t>
+          <t>09/09/2023 10:36</t>
         </is>
       </c>
       <c r="R253" t="n">
-        <v>3.04</v>
+        <v>3.86</v>
       </c>
       <c r="S253" t="inlineStr">
         <is>
@@ -23720,16 +23720,16 @@
         </is>
       </c>
       <c r="T253" t="n">
-        <v>2.78</v>
+        <v>3.68</v>
       </c>
       <c r="U253" t="inlineStr">
         <is>
-          <t>09/09/2023 10:50</t>
+          <t>09/09/2023 10:36</t>
         </is>
       </c>
       <c r="V253" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-nagano-parceiro/Kds7hpa5/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-ryukyu/hAuFjOTH/</t>
         </is>
       </c>
     </row>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="G254" t="n">
@@ -23765,14 +23765,14 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J254" t="n">
-        <v>1.85</v>
+        <v>2.42</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -23780,15 +23780,15 @@
         </is>
       </c>
       <c r="L254" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>09/09/2023 09:03</t>
+          <t>09/09/2023 10:51</t>
         </is>
       </c>
       <c r="N254" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
@@ -23796,15 +23796,15 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>3.61</v>
+        <v>3.22</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>09/09/2023 09:03</t>
+          <t>09/09/2023 10:51</t>
         </is>
       </c>
       <c r="R254" t="n">
-        <v>3.88</v>
+        <v>2.83</v>
       </c>
       <c r="S254" t="inlineStr">
         <is>
@@ -23812,16 +23812,16 @@
         </is>
       </c>
       <c r="T254" t="n">
-        <v>4.29</v>
+        <v>4.23</v>
       </c>
       <c r="U254" t="inlineStr">
         <is>
-          <t>09/09/2023 10:47</t>
+          <t>09/09/2023 10:51</t>
         </is>
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-tegevajaro-miyazaki/WfLyZebp/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fc-osaka/6gw3gQqa/</t>
         </is>
       </c>
     </row>
@@ -23849,22 +23849,22 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G255" t="n">
+        <v>2</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Vanraure</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Kagoshima Utd</t>
-        </is>
-      </c>
-      <c r="I255" t="n">
-        <v>3</v>
-      </c>
       <c r="J255" t="n">
-        <v>3.51</v>
+        <v>2.59</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -23872,15 +23872,15 @@
         </is>
       </c>
       <c r="L255" t="n">
-        <v>3.23</v>
+        <v>3.47</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>09/09/2023 09:26</t>
+          <t>09/09/2023 10:29</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.29</v>
+        <v>2.95</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -23888,15 +23888,15 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3.3</v>
+        <v>2.93</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>09/09/2023 09:21</t>
+          <t>09/09/2023 10:29</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>1.99</v>
+        <v>2.66</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
@@ -23904,16 +23904,16 @@
         </is>
       </c>
       <c r="T255" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>09/09/2023 09:26</t>
+          <t>09/09/2023 10:29</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kagoshima-united/EJtBi4EB/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-vanraure/KG1WfwL3/</t>
         </is>
       </c>
     </row>
@@ -23941,7 +23941,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -23949,14 +23949,14 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -23964,15 +23964,15 @@
         </is>
       </c>
       <c r="L256" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>09/09/2023 10:51</t>
+          <t>09/09/2023 09:03</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -23980,15 +23980,15 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>09/09/2023 10:51</t>
+          <t>09/09/2023 09:03</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>2.83</v>
+        <v>3.88</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
@@ -23996,16 +23996,16 @@
         </is>
       </c>
       <c r="T256" t="n">
-        <v>4.23</v>
+        <v>4.29</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>09/09/2023 10:51</t>
+          <t>09/09/2023 10:47</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/iwate-grulla-morioka-fc-osaka/6gw3gQqa/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-tegevajaro-miyazaki/WfLyZebp/</t>
         </is>
       </c>
     </row>
@@ -24033,22 +24033,22 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J257" t="n">
-        <v>1.89</v>
+        <v>3.51</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -24056,15 +24056,15 @@
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.94</v>
+        <v>3.23</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>09/09/2023 10:36</t>
+          <t>09/09/2023 09:26</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
@@ -24072,15 +24072,15 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.68</v>
+        <v>3.3</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>09/09/2023 10:36</t>
+          <t>09/09/2023 09:21</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>3.86</v>
+        <v>1.99</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
@@ -24088,16 +24088,16 @@
         </is>
       </c>
       <c r="T257" t="n">
-        <v>3.68</v>
+        <v>2.25</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>09/09/2023 10:36</t>
+          <t>09/09/2023 09:26</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-ryukyu/hAuFjOTH/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-kagoshima-united/EJtBi4EB/</t>
         </is>
       </c>
     </row>
@@ -24125,22 +24125,22 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>2.59</v>
+        <v>2.24</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -24148,15 +24148,15 @@
         </is>
       </c>
       <c r="L258" t="n">
-        <v>3.47</v>
+        <v>2.63</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>09/09/2023 10:29</t>
+          <t>09/09/2023 10:50</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>2.95</v>
+        <v>3.07</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -24164,15 +24164,15 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>09/09/2023 10:29</t>
+          <t>09/09/2023 10:39</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>2.66</v>
+        <v>3.04</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
@@ -24180,16 +24180,16 @@
         </is>
       </c>
       <c r="T258" t="n">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>09/09/2023 10:29</t>
+          <t>09/09/2023 10:50</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-vanraure/KG1WfwL3/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-nagano-parceiro/Kds7hpa5/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J274" t="n">
-        <v>2.81</v>
+        <v>2.1</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>3.02</v>
+        <v>2.34</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>23/09/2023 10:34</t>
+          <t>23/09/2023 10:54</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3.17</v>
+        <v>3.75</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>23/09/2023 10:34</t>
+          <t>23/09/2023 10:54</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>2.39</v>
+        <v>3.14</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>23/09/2023 09:51</t>
+          <t>23/09/2023 10:54</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-toyama/tjIQ4ElS/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kagoshima-united/xzJeahCk/</t>
         </is>
       </c>
     </row>
@@ -25689,22 +25689,22 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J275" t="n">
-        <v>2.1</v>
+        <v>2.81</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -25712,15 +25712,15 @@
         </is>
       </c>
       <c r="L275" t="n">
-        <v>2.34</v>
+        <v>3.02</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>23/09/2023 10:54</t>
+          <t>23/09/2023 10:34</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -25728,15 +25728,15 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3.75</v>
+        <v>3.17</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>23/09/2023 10:54</t>
+          <t>23/09/2023 10:34</t>
         </is>
       </c>
       <c r="R275" t="n">
-        <v>3.14</v>
+        <v>2.39</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
@@ -25744,16 +25744,16 @@
         </is>
       </c>
       <c r="T275" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>23/09/2023 10:54</t>
+          <t>23/09/2023 09:51</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-kagoshima-united/xzJeahCk/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-toyama/tjIQ4ElS/</t>
         </is>
       </c>
     </row>
@@ -27713,7 +27713,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G297" t="n">
@@ -27721,14 +27721,14 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I297" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>2.11</v>
+        <v>2.31</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -27736,15 +27736,15 @@
         </is>
       </c>
       <c r="L297" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:31</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
@@ -27752,15 +27752,15 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>08/10/2023 05:04</t>
+          <t>08/10/2023 06:31</t>
         </is>
       </c>
       <c r="R297" t="n">
-        <v>3.16</v>
+        <v>2.93</v>
       </c>
       <c r="S297" t="inlineStr">
         <is>
@@ -27768,16 +27768,16 @@
         </is>
       </c>
       <c r="T297" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="U297" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:31</t>
         </is>
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-iwate-grulla-morioka/bPNDO8u1/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-vanraure/tlDINSf7/</t>
         </is>
       </c>
     </row>
@@ -27805,7 +27805,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G298" t="n">
@@ -27813,14 +27813,14 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J298" t="n">
-        <v>2.31</v>
+        <v>2.11</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -27828,15 +27828,15 @@
         </is>
       </c>
       <c r="L298" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>08/10/2023 06:31</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
@@ -27844,15 +27844,15 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>08/10/2023 06:31</t>
+          <t>08/10/2023 05:04</t>
         </is>
       </c>
       <c r="R298" t="n">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
@@ -27860,16 +27860,16 @@
         </is>
       </c>
       <c r="T298" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>08/10/2023 06:31</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-vanraure/tlDINSf7/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-iwate-grulla-morioka/bPNDO8u1/</t>
         </is>
       </c>
     </row>
@@ -28357,22 +28357,22 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G304" t="n">
+        <v>1</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Nagano</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>YSCC</t>
-        </is>
-      </c>
-      <c r="I304" t="n">
-        <v>2</v>
-      </c>
       <c r="J304" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -28380,15 +28380,15 @@
         </is>
       </c>
       <c r="L304" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>15/10/2023 05:59</t>
+          <t>15/10/2023 05:56</t>
         </is>
       </c>
       <c r="N304" t="n">
-        <v>3.83</v>
+        <v>3.47</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -28396,15 +28396,15 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>4.18</v>
+        <v>3.75</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>15/10/2023 05:59</t>
+          <t>15/10/2023 05:56</t>
         </is>
       </c>
       <c r="R304" t="n">
-        <v>5.1</v>
+        <v>4.27</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
@@ -28412,16 +28412,16 @@
         </is>
       </c>
       <c r="T304" t="n">
-        <v>6.34</v>
+        <v>4.42</v>
       </c>
       <c r="U304" t="inlineStr">
         <is>
-          <t>15/10/2023 05:59</t>
+          <t>15/10/2023 05:56</t>
         </is>
       </c>
       <c r="V304" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-yscc-yokohama/EDeJu1Gh/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-nagano-parceiro/f9SdOaoI/</t>
         </is>
       </c>
     </row>
@@ -28449,22 +28449,22 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J305" t="n">
-        <v>1.72</v>
+        <v>2.43</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -28472,15 +28472,15 @@
         </is>
       </c>
       <c r="L305" t="n">
-        <v>1.77</v>
+        <v>2.68</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>15/10/2023 05:56</t>
+          <t>15/10/2023 04:37</t>
         </is>
       </c>
       <c r="N305" t="n">
-        <v>3.47</v>
+        <v>3.19</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
@@ -28488,15 +28488,15 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3.75</v>
+        <v>3.09</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>15/10/2023 05:56</t>
+          <t>15/10/2023 04:37</t>
         </is>
       </c>
       <c r="R305" t="n">
-        <v>4.27</v>
+        <v>2.73</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
@@ -28504,16 +28504,16 @@
         </is>
       </c>
       <c r="T305" t="n">
-        <v>4.42</v>
+        <v>2.77</v>
       </c>
       <c r="U305" t="inlineStr">
         <is>
-          <t>15/10/2023 05:56</t>
+          <t>15/10/2023 04:37</t>
         </is>
       </c>
       <c r="V305" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-nagano-parceiro/f9SdOaoI/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-sc-sagamihara/h4fNvLVb/</t>
         </is>
       </c>
     </row>
@@ -28541,22 +28541,22 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I306" t="n">
         <v>2</v>
       </c>
       <c r="J306" t="n">
-        <v>2.43</v>
+        <v>1.55</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -28564,15 +28564,15 @@
         </is>
       </c>
       <c r="L306" t="n">
-        <v>2.68</v>
+        <v>1.52</v>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>15/10/2023 04:37</t>
+          <t>15/10/2023 05:59</t>
         </is>
       </c>
       <c r="N306" t="n">
-        <v>3.19</v>
+        <v>3.83</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
@@ -28580,15 +28580,15 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>3.09</v>
+        <v>4.18</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>15/10/2023 04:37</t>
+          <t>15/10/2023 05:59</t>
         </is>
       </c>
       <c r="R306" t="n">
-        <v>2.73</v>
+        <v>5.1</v>
       </c>
       <c r="S306" t="inlineStr">
         <is>
@@ -28596,16 +28596,16 @@
         </is>
       </c>
       <c r="T306" t="n">
-        <v>2.77</v>
+        <v>6.34</v>
       </c>
       <c r="U306" t="inlineStr">
         <is>
-          <t>15/10/2023 04:37</t>
+          <t>15/10/2023 05:59</t>
         </is>
       </c>
       <c r="V306" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-sc-sagamihara/h4fNvLVb/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-yscc-yokohama/EDeJu1Gh/</t>
         </is>
       </c>
     </row>
@@ -28817,7 +28817,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G309" t="n">
@@ -28825,14 +28825,14 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I309" t="n">
         <v>2</v>
       </c>
       <c r="J309" t="n">
-        <v>2.7</v>
+        <v>2.19</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -28840,15 +28840,15 @@
         </is>
       </c>
       <c r="L309" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>15/10/2023 06:02</t>
+          <t>15/10/2023 06:34</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
@@ -28856,15 +28856,15 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>3.13</v>
+        <v>3.27</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>15/10/2023 06:12</t>
+          <t>15/10/2023 06:29</t>
         </is>
       </c>
       <c r="R309" t="n">
-        <v>2.51</v>
+        <v>3.1</v>
       </c>
       <c r="S309" t="inlineStr">
         <is>
@@ -28872,16 +28872,16 @@
         </is>
       </c>
       <c r="T309" t="n">
-        <v>2.62</v>
+        <v>3.46</v>
       </c>
       <c r="U309" t="inlineStr">
         <is>
-          <t>15/10/2023 06:02</t>
+          <t>15/10/2023 06:47</t>
         </is>
       </c>
       <c r="V309" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-gainare-tottori/SdcBsNot/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-azul-claro-numazu/lWR0NJ0O/</t>
         </is>
       </c>
     </row>
@@ -28909,22 +28909,22 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G310" t="n">
+        <v>2</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Kagoshima Utd</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
         <v>1</v>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>Azul Claro Numazu</t>
-        </is>
-      </c>
-      <c r="I310" t="n">
-        <v>2</v>
-      </c>
       <c r="J310" t="n">
-        <v>2.19</v>
+        <v>3.02</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -28932,15 +28932,15 @@
         </is>
       </c>
       <c r="L310" t="n">
-        <v>2.16</v>
+        <v>3.39</v>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>15/10/2023 06:34</t>
+          <t>15/10/2023 06:58</t>
         </is>
       </c>
       <c r="N310" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
@@ -28948,15 +28948,15 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>15/10/2023 06:29</t>
+          <t>15/10/2023 06:58</t>
         </is>
       </c>
       <c r="R310" t="n">
-        <v>3.1</v>
+        <v>2.23</v>
       </c>
       <c r="S310" t="inlineStr">
         <is>
@@ -28964,16 +28964,16 @@
         </is>
       </c>
       <c r="T310" t="n">
-        <v>3.46</v>
+        <v>2.11</v>
       </c>
       <c r="U310" t="inlineStr">
         <is>
-          <t>15/10/2023 06:47</t>
+          <t>15/10/2023 06:58</t>
         </is>
       </c>
       <c r="V310" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-azul-claro-numazu/lWR0NJ0O/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-kagoshima-united/GIThPuWB/</t>
         </is>
       </c>
     </row>
@@ -29001,71 +29001,71 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G311" t="n">
+        <v>1</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Gainare Tottori</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
         <v>2</v>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>Kagoshima Utd</t>
-        </is>
-      </c>
-      <c r="I311" t="n">
-        <v>1</v>
-      </c>
       <c r="J311" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:02</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
         <v>3.02</v>
       </c>
-      <c r="K311" t="inlineStr">
+      <c r="O311" t="inlineStr">
         <is>
           <t>12/10/2023 08:13</t>
         </is>
       </c>
-      <c r="L311" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="M311" t="inlineStr">
-        <is>
-          <t>15/10/2023 06:58</t>
-        </is>
-      </c>
-      <c r="N311" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="O311" t="inlineStr">
+      <c r="P311" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>15/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="R311" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S311" t="inlineStr">
         <is>
           <t>12/10/2023 08:13</t>
         </is>
       </c>
-      <c r="P311" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q311" t="inlineStr">
-        <is>
-          <t>15/10/2023 06:58</t>
-        </is>
-      </c>
-      <c r="R311" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="S311" t="inlineStr">
-        <is>
-          <t>12/10/2023 08:13</t>
-        </is>
-      </c>
       <c r="T311" t="n">
-        <v>2.11</v>
+        <v>2.62</v>
       </c>
       <c r="U311" t="inlineStr">
         <is>
-          <t>15/10/2023 06:58</t>
+          <t>15/10/2023 06:02</t>
         </is>
       </c>
       <c r="V311" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-kagoshima-united/GIThPuWB/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-gainare-tottori/SdcBsNot/</t>
         </is>
       </c>
     </row>
@@ -29250,6 +29250,650 @@
       <c r="V313" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-imabari/lWmWxa0B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45221.25</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Nagano</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>2</v>
+      </c>
+      <c r="J314" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:15</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:15</t>
+        </is>
+      </c>
+      <c r="R314" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T314" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:15</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-fc-osaka/vLtqzcpU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45221.25</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Fukushima Utd</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>1</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Vanraure</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>3</v>
+      </c>
+      <c r="J315" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:05</t>
+        </is>
+      </c>
+      <c r="N315" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>22/10/2023 04:05</t>
+        </is>
+      </c>
+      <c r="R315" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T315" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:05</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-vanraure/rgmzxJFH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45221.25</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Gainare Tottori</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>2</v>
+      </c>
+      <c r="J316" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:10</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:10</t>
+        </is>
+      </c>
+      <c r="R316" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T316" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:10</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-toyama/67KdgKph/</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45221.25</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>YSCC</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>1</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Tegevajaro Miyazaki</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>22/10/2023 04:04</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:03</t>
+        </is>
+      </c>
+      <c r="R317" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T317" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-tegevajaro-miyazaki/MqnvywVN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45221.29166666666</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Azul Claro Numazu</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>3</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Yamaga</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>1</v>
+      </c>
+      <c r="J318" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:08</t>
+        </is>
+      </c>
+      <c r="N318" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:08</t>
+        </is>
+      </c>
+      <c r="R318" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T318" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:16</t>
+        </is>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-matsumoto-yamaga/tUSAVGho/</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45221.29166666666</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Kamatamare</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>1</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Giravanz Kitakyushu</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P319" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R319" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T319" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-giravanz-kitakyushu/lW91hv0b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Kagoshima Utd</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>3</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Grulla Morioka</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:48</t>
+        </is>
+      </c>
+      <c r="N320" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P320" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:48</t>
+        </is>
+      </c>
+      <c r="R320" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T320" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:48</t>
+        </is>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-iwate-grulla-morioka/SM85ibF4/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j3-league_2023.xlsx
+++ b/2023/japan_j3-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V320"/>
+  <dimension ref="A1:V321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29277,22 +29277,22 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="G314" t="n">
+        <v>1</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Tegevajaro Miyazaki</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>Osaka</t>
-        </is>
-      </c>
-      <c r="I314" t="n">
-        <v>2</v>
-      </c>
       <c r="J314" t="n">
-        <v>2.93</v>
+        <v>2.15</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -29300,11 +29300,11 @@
         </is>
       </c>
       <c r="L314" t="n">
-        <v>3.13</v>
+        <v>2.26</v>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>22/10/2023 05:15</t>
+          <t>22/10/2023 04:04</t>
         </is>
       </c>
       <c r="N314" t="n">
@@ -29316,15 +29316,15 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>3.13</v>
+        <v>3.43</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>22/10/2023 05:15</t>
+          <t>22/10/2023 05:03</t>
         </is>
       </c>
       <c r="R314" t="n">
-        <v>2.31</v>
+        <v>3.14</v>
       </c>
       <c r="S314" t="inlineStr">
         <is>
@@ -29332,16 +29332,16 @@
         </is>
       </c>
       <c r="T314" t="n">
-        <v>2.39</v>
+        <v>3.08</v>
       </c>
       <c r="U314" t="inlineStr">
         <is>
-          <t>22/10/2023 05:15</t>
+          <t>21/10/2023 23:02</t>
         </is>
       </c>
       <c r="V314" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-fc-osaka/vLtqzcpU/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-tegevajaro-miyazaki/MqnvywVN/</t>
         </is>
       </c>
     </row>
@@ -29553,22 +29553,22 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J317" t="n">
-        <v>2.15</v>
+        <v>2.93</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -29576,11 +29576,11 @@
         </is>
       </c>
       <c r="L317" t="n">
-        <v>2.26</v>
+        <v>3.13</v>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>22/10/2023 04:04</t>
+          <t>22/10/2023 05:15</t>
         </is>
       </c>
       <c r="N317" t="n">
@@ -29592,15 +29592,15 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>3.43</v>
+        <v>3.13</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>22/10/2023 05:03</t>
+          <t>22/10/2023 05:15</t>
         </is>
       </c>
       <c r="R317" t="n">
-        <v>3.14</v>
+        <v>2.31</v>
       </c>
       <c r="S317" t="inlineStr">
         <is>
@@ -29608,16 +29608,16 @@
         </is>
       </c>
       <c r="T317" t="n">
-        <v>3.08</v>
+        <v>2.39</v>
       </c>
       <c r="U317" t="inlineStr">
         <is>
-          <t>21/10/2023 23:02</t>
+          <t>22/10/2023 05:15</t>
         </is>
       </c>
       <c r="V317" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/yscc-yokohama-tegevajaro-miyazaki/MqnvywVN/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-fc-osaka/vLtqzcpU/</t>
         </is>
       </c>
     </row>
@@ -29894,6 +29894,98 @@
       <c r="V320" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j3-league/kagoshima-united-iwate-grulla-morioka/SM85ibF4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45221.5</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Gifu</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Nara Club</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>3</v>
+      </c>
+      <c r="J321" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:39</t>
+        </is>
+      </c>
+      <c r="R321" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T321" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:39</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gifu-nara-club/fXGhf0Vo/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j3-league_2023.xlsx
+++ b/2023/japan_j3-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V340"/>
+  <dimension ref="A1:V341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30105,22 +30105,22 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="I323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J323" t="n">
-        <v>2.77</v>
+        <v>2.26</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -30128,15 +30128,15 @@
         </is>
       </c>
       <c r="L323" t="n">
-        <v>3.67</v>
+        <v>2.36</v>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>28/10/2023 06:16</t>
+          <t>28/10/2023 06:36</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
@@ -30144,15 +30144,15 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>28/10/2023 06:16</t>
+          <t>28/10/2023 06:58</t>
         </is>
       </c>
       <c r="R323" t="n">
-        <v>2.41</v>
+        <v>2.99</v>
       </c>
       <c r="S323" t="inlineStr">
         <is>
@@ -30160,16 +30160,16 @@
         </is>
       </c>
       <c r="T323" t="n">
-        <v>2.03</v>
+        <v>3.14</v>
       </c>
       <c r="U323" t="inlineStr">
         <is>
-          <t>28/10/2023 06:16</t>
+          <t>28/10/2023 06:58</t>
         </is>
       </c>
       <c r="V323" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-matsumoto-yamaga/ddD9jIUA/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-gainare-tottori/zmCDkxpH/</t>
         </is>
       </c>
     </row>
@@ -30197,22 +30197,22 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Sagamihara</t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="I324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J324" t="n">
-        <v>2.26</v>
+        <v>2.77</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -30220,15 +30220,15 @@
         </is>
       </c>
       <c r="L324" t="n">
-        <v>2.36</v>
+        <v>3.67</v>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>28/10/2023 06:36</t>
+          <t>28/10/2023 06:16</t>
         </is>
       </c>
       <c r="N324" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
@@ -30236,15 +30236,15 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>28/10/2023 06:58</t>
+          <t>28/10/2023 06:16</t>
         </is>
       </c>
       <c r="R324" t="n">
-        <v>2.99</v>
+        <v>2.41</v>
       </c>
       <c r="S324" t="inlineStr">
         <is>
@@ -30252,16 +30252,16 @@
         </is>
       </c>
       <c r="T324" t="n">
-        <v>3.14</v>
+        <v>2.03</v>
       </c>
       <c r="U324" t="inlineStr">
         <is>
-          <t>28/10/2023 06:58</t>
+          <t>28/10/2023 06:16</t>
         </is>
       </c>
       <c r="V324" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-gainare-tottori/zmCDkxpH/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/sc-sagamihara-matsumoto-yamaga/ddD9jIUA/</t>
         </is>
       </c>
     </row>
@@ -30289,7 +30289,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G325" t="n">
@@ -30297,14 +30297,14 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J325" t="n">
-        <v>2.31</v>
+        <v>2.06</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -30312,15 +30312,15 @@
         </is>
       </c>
       <c r="L325" t="n">
-        <v>2.71</v>
+        <v>1.96</v>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>29/10/2023 04:40</t>
+          <t>29/10/2023 03:23</t>
         </is>
       </c>
       <c r="N325" t="n">
-        <v>3.1</v>
+        <v>3.59</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
@@ -30328,15 +30328,15 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>3.31</v>
+        <v>3.39</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>29/10/2023 03:10</t>
+          <t>29/10/2023 03:23</t>
         </is>
       </c>
       <c r="R325" t="n">
-        <v>2.9</v>
+        <v>3.06</v>
       </c>
       <c r="S325" t="inlineStr">
         <is>
@@ -30344,16 +30344,16 @@
         </is>
       </c>
       <c r="T325" t="n">
-        <v>2.59</v>
+        <v>3.94</v>
       </c>
       <c r="U325" t="inlineStr">
         <is>
-          <t>29/10/2023 04:40</t>
+          <t>29/10/2023 03:23</t>
         </is>
       </c>
       <c r="V325" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-ryukyu/E5Pk4fM9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-iwate-grulla-morioka/6uMs6Gic/</t>
         </is>
       </c>
     </row>
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G326" t="n">
@@ -30389,14 +30389,14 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J326" t="n">
-        <v>3.17</v>
+        <v>2.31</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -30404,15 +30404,15 @@
         </is>
       </c>
       <c r="L326" t="n">
-        <v>3.62</v>
+        <v>2.71</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>29/10/2023 04:56</t>
+          <t>29/10/2023 04:40</t>
         </is>
       </c>
       <c r="N326" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
@@ -30420,15 +30420,15 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>3.8</v>
+        <v>3.31</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>29/10/2023 04:56</t>
+          <t>29/10/2023 03:10</t>
         </is>
       </c>
       <c r="R326" t="n">
-        <v>2.11</v>
+        <v>2.9</v>
       </c>
       <c r="S326" t="inlineStr">
         <is>
@@ -30436,16 +30436,16 @@
         </is>
       </c>
       <c r="T326" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="U326" t="inlineStr">
         <is>
-          <t>29/10/2023 04:56</t>
+          <t>29/10/2023 04:40</t>
         </is>
       </c>
       <c r="V326" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-kagoshima-united/lfhlqzNp/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-ryukyu/E5Pk4fM9/</t>
         </is>
       </c>
     </row>
@@ -30473,7 +30473,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G327" t="n">
@@ -30481,14 +30481,14 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I327" t="n">
         <v>1</v>
       </c>
       <c r="J327" t="n">
-        <v>2.06</v>
+        <v>3.17</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -30496,15 +30496,15 @@
         </is>
       </c>
       <c r="L327" t="n">
-        <v>1.96</v>
+        <v>3.62</v>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>29/10/2023 03:23</t>
+          <t>29/10/2023 04:56</t>
         </is>
       </c>
       <c r="N327" t="n">
-        <v>3.59</v>
+        <v>3.21</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
@@ -30512,15 +30512,15 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>3.39</v>
+        <v>3.8</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>29/10/2023 03:23</t>
+          <t>29/10/2023 04:56</t>
         </is>
       </c>
       <c r="R327" t="n">
-        <v>3.06</v>
+        <v>2.11</v>
       </c>
       <c r="S327" t="inlineStr">
         <is>
@@ -30528,16 +30528,16 @@
         </is>
       </c>
       <c r="T327" t="n">
-        <v>3.94</v>
+        <v>1.93</v>
       </c>
       <c r="U327" t="inlineStr">
         <is>
-          <t>29/10/2023 03:23</t>
+          <t>29/10/2023 04:56</t>
         </is>
       </c>
       <c r="V327" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-iwate-grulla-morioka/6uMs6Gic/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-kagoshima-united/lfhlqzNp/</t>
         </is>
       </c>
     </row>
@@ -30565,22 +30565,22 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J328" t="n">
-        <v>2.66</v>
+        <v>2.47</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -30588,15 +30588,15 @@
         </is>
       </c>
       <c r="L328" t="n">
-        <v>2.69</v>
+        <v>2.89</v>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>29/10/2023 04:29</t>
+          <t>29/10/2023 04:12</t>
         </is>
       </c>
       <c r="N328" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
@@ -30604,15 +30604,15 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>29/10/2023 05:58</t>
+          <t>29/10/2023 04:12</t>
         </is>
       </c>
       <c r="R328" t="n">
-        <v>2.51</v>
+        <v>2.72</v>
       </c>
       <c r="S328" t="inlineStr">
         <is>
@@ -30620,16 +30620,16 @@
         </is>
       </c>
       <c r="T328" t="n">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="U328" t="inlineStr">
         <is>
-          <t>29/10/2023 04:29</t>
+          <t>29/10/2023 04:12</t>
         </is>
       </c>
       <c r="V328" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-azul-claro-numazu/Spihrfxi/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-yscc-yokohama/02Lo5z73/</t>
         </is>
       </c>
     </row>
@@ -30657,22 +30657,22 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -30680,15 +30680,15 @@
         </is>
       </c>
       <c r="L329" t="n">
-        <v>2.48</v>
+        <v>2.69</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>29/10/2023 05:56</t>
+          <t>29/10/2023 04:29</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
@@ -30696,15 +30696,15 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>3.29</v>
+        <v>3.62</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>29/10/2023 05:14</t>
+          <t>29/10/2023 05:58</t>
         </is>
       </c>
       <c r="R329" t="n">
-        <v>2.91</v>
+        <v>2.51</v>
       </c>
       <c r="S329" t="inlineStr">
         <is>
@@ -30712,16 +30712,16 @@
         </is>
       </c>
       <c r="T329" t="n">
-        <v>2.85</v>
+        <v>2.45</v>
       </c>
       <c r="U329" t="inlineStr">
         <is>
-          <t>29/10/2023 05:56</t>
+          <t>29/10/2023 04:29</t>
         </is>
       </c>
       <c r="V329" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-gifu/SlNw7dxi/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-azul-claro-numazu/Spihrfxi/</t>
         </is>
       </c>
     </row>
@@ -30749,22 +30749,22 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J330" t="n">
-        <v>2.04</v>
+        <v>2.31</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -30772,15 +30772,15 @@
         </is>
       </c>
       <c r="L330" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>29/10/2023 05:58</t>
+          <t>29/10/2023 05:56</t>
         </is>
       </c>
       <c r="N330" t="n">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
@@ -30788,15 +30788,15 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>29/10/2023 05:58</t>
+          <t>29/10/2023 05:14</t>
         </is>
       </c>
       <c r="R330" t="n">
-        <v>3.43</v>
+        <v>2.91</v>
       </c>
       <c r="S330" t="inlineStr">
         <is>
@@ -30804,16 +30804,16 @@
         </is>
       </c>
       <c r="T330" t="n">
-        <v>3.16</v>
+        <v>2.85</v>
       </c>
       <c r="U330" t="inlineStr">
         <is>
-          <t>29/10/2023 05:58</t>
+          <t>29/10/2023 05:56</t>
         </is>
       </c>
       <c r="V330" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-kamatamare-sanuki/WE5MmGET/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-gifu/SlNw7dxi/</t>
         </is>
       </c>
     </row>
@@ -30841,22 +30841,22 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>YSCC</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I331" t="n">
         <v>2</v>
       </c>
       <c r="J331" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -30864,15 +30864,15 @@
         </is>
       </c>
       <c r="L331" t="n">
-        <v>2.89</v>
+        <v>2.4</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>29/10/2023 04:12</t>
+          <t>29/10/2023 05:58</t>
         </is>
       </c>
       <c r="N331" t="n">
-        <v>3.05</v>
+        <v>3.14</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
@@ -30880,15 +30880,15 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>29/10/2023 04:12</t>
+          <t>29/10/2023 05:58</t>
         </is>
       </c>
       <c r="R331" t="n">
-        <v>2.72</v>
+        <v>3.43</v>
       </c>
       <c r="S331" t="inlineStr">
         <is>
@@ -30896,16 +30896,16 @@
         </is>
       </c>
       <c r="T331" t="n">
-        <v>2.54</v>
+        <v>3.16</v>
       </c>
       <c r="U331" t="inlineStr">
         <is>
-          <t>29/10/2023 04:12</t>
+          <t>29/10/2023 05:58</t>
         </is>
       </c>
       <c r="V331" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-yscc-yokohama/02Lo5z73/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-kamatamare-sanuki/WE5MmGET/</t>
         </is>
       </c>
     </row>
@@ -31485,22 +31485,22 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I338" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J338" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -31508,15 +31508,15 @@
         </is>
       </c>
       <c r="L338" t="n">
-        <v>2.71</v>
+        <v>1.89</v>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>05/11/2023 05:54</t>
+          <t>05/11/2023 04:03</t>
         </is>
       </c>
       <c r="N338" t="n">
-        <v>3.35</v>
+        <v>3.63</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
@@ -31524,15 +31524,15 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>3.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>05/11/2023 04:02</t>
+          <t>05/11/2023 04:03</t>
         </is>
       </c>
       <c r="R338" t="n">
-        <v>3.79</v>
+        <v>4.9</v>
       </c>
       <c r="S338" t="inlineStr">
         <is>
@@ -31540,16 +31540,16 @@
         </is>
       </c>
       <c r="T338" t="n">
-        <v>2.74</v>
+        <v>3.82</v>
       </c>
       <c r="U338" t="inlineStr">
         <is>
-          <t>05/11/2023 05:54</t>
+          <t>05/11/2023 04:03</t>
         </is>
       </c>
       <c r="V338" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-nagano-parceiro/E5oLJZLd/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-tegevajaro-miyazaki/lSgZeWTk/</t>
         </is>
       </c>
     </row>
@@ -31577,22 +31577,22 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I339" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J339" t="n">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -31600,15 +31600,15 @@
         </is>
       </c>
       <c r="L339" t="n">
-        <v>1.89</v>
+        <v>2.71</v>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>05/11/2023 04:03</t>
+          <t>05/11/2023 05:54</t>
         </is>
       </c>
       <c r="N339" t="n">
-        <v>3.63</v>
+        <v>3.35</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
@@ -31616,15 +31616,15 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>3.74</v>
+        <v>3.09</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>05/11/2023 04:03</t>
+          <t>05/11/2023 04:02</t>
         </is>
       </c>
       <c r="R339" t="n">
-        <v>4.9</v>
+        <v>3.79</v>
       </c>
       <c r="S339" t="inlineStr">
         <is>
@@ -31632,16 +31632,16 @@
         </is>
       </c>
       <c r="T339" t="n">
-        <v>3.82</v>
+        <v>2.74</v>
       </c>
       <c r="U339" t="inlineStr">
         <is>
-          <t>05/11/2023 04:03</t>
+          <t>05/11/2023 05:54</t>
         </is>
       </c>
       <c r="V339" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-tegevajaro-miyazaki/lSgZeWTk/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-nagano-parceiro/E5oLJZLd/</t>
         </is>
       </c>
     </row>
@@ -31734,6 +31734,98 @@
       <c r="V340" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-giravanz-kitakyushu/634UdCEq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="G341" t="n">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Fukushima Utd</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:20</t>
+        </is>
+      </c>
+      <c r="N341" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:20</t>
+        </is>
+      </c>
+      <c r="R341" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T341" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:20</t>
+        </is>
+      </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-fukushima-united/02cwejqd/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j3-league_2023.xlsx
+++ b/2023/japan_j3-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V343"/>
+  <dimension ref="A1:V345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,14 +11253,14 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.09</v>
+        <v>2.89</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.38</v>
+        <v>3.61</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>04/06/2023 05:56</t>
+          <t>04/06/2023 05:58</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.27</v>
+        <v>3.11</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.58</v>
+        <v>3.07</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/06/2023 05:56</t>
+          <t>04/06/2023 05:58</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.03</v>
+        <v>2.24</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/06/2023 05:56</t>
+          <t>04/06/2023 05:58</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-gifu/S8edGGC0/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-nagano-parceiro/YodhHdcf/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>2.89</v>
+        <v>2.09</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.61</v>
+        <v>2.38</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/06/2023 05:58</t>
+          <t>04/06/2023 05:56</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.11</v>
+        <v>3.27</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.07</v>
+        <v>3.58</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/06/2023 05:58</t>
+          <t>04/06/2023 05:56</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.24</v>
+        <v>3.03</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.13</v>
+        <v>2.69</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/06/2023 05:58</t>
+          <t>04/06/2023 05:56</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fc-osaka-nagano-parceiro/YodhHdcf/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-gifu/S8edGGC0/</t>
         </is>
       </c>
     </row>
@@ -29461,7 +29461,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Gainare Tottori</t>
         </is>
       </c>
       <c r="G316" t="n">
@@ -29469,14 +29469,14 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="I316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J316" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -29484,15 +29484,15 @@
         </is>
       </c>
       <c r="L316" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>22/10/2023 05:05</t>
+          <t>22/10/2023 05:10</t>
         </is>
       </c>
       <c r="N316" t="n">
-        <v>3.05</v>
+        <v>3.14</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
@@ -29500,15 +29500,15 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>3.01</v>
+        <v>3.23</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>22/10/2023 04:05</t>
+          <t>22/10/2023 05:10</t>
         </is>
       </c>
       <c r="R316" t="n">
-        <v>3.01</v>
+        <v>2.96</v>
       </c>
       <c r="S316" t="inlineStr">
         <is>
@@ -29516,16 +29516,16 @@
         </is>
       </c>
       <c r="T316" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="U316" t="inlineStr">
         <is>
-          <t>22/10/2023 05:05</t>
+          <t>22/10/2023 05:10</t>
         </is>
       </c>
       <c r="V316" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-vanraure/rgmzxJFH/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-toyama/67KdgKph/</t>
         </is>
       </c>
     </row>
@@ -29553,7 +29553,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Gainare Tottori</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G317" t="n">
@@ -29561,14 +29561,14 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="I317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J317" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -29576,15 +29576,15 @@
         </is>
       </c>
       <c r="L317" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>22/10/2023 05:10</t>
+          <t>22/10/2023 05:05</t>
         </is>
       </c>
       <c r="N317" t="n">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="O317" t="inlineStr">
         <is>
@@ -29592,15 +29592,15 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>3.23</v>
+        <v>3.01</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>22/10/2023 05:10</t>
+          <t>22/10/2023 04:05</t>
         </is>
       </c>
       <c r="R317" t="n">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="S317" t="inlineStr">
         <is>
@@ -29608,16 +29608,16 @@
         </is>
       </c>
       <c r="T317" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="U317" t="inlineStr">
         <is>
-          <t>22/10/2023 05:10</t>
+          <t>22/10/2023 05:05</t>
         </is>
       </c>
       <c r="V317" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/gainare-tottori-toyama/67KdgKph/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-vanraure/rgmzxJFH/</t>
         </is>
       </c>
     </row>
@@ -30289,7 +30289,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="G325" t="n">
@@ -30297,14 +30297,14 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Grulla Morioka</t>
+          <t>Ryukyu</t>
         </is>
       </c>
       <c r="I325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J325" t="n">
-        <v>2.06</v>
+        <v>2.31</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -30312,15 +30312,15 @@
         </is>
       </c>
       <c r="L325" t="n">
-        <v>1.96</v>
+        <v>2.71</v>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>29/10/2023 03:23</t>
+          <t>29/10/2023 04:40</t>
         </is>
       </c>
       <c r="N325" t="n">
-        <v>3.59</v>
+        <v>3.1</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
@@ -30328,15 +30328,15 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>29/10/2023 03:23</t>
+          <t>29/10/2023 03:10</t>
         </is>
       </c>
       <c r="R325" t="n">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="S325" t="inlineStr">
         <is>
@@ -30344,16 +30344,16 @@
         </is>
       </c>
       <c r="T325" t="n">
-        <v>3.94</v>
+        <v>2.59</v>
       </c>
       <c r="U325" t="inlineStr">
         <is>
-          <t>29/10/2023 03:23</t>
+          <t>29/10/2023 04:40</t>
         </is>
       </c>
       <c r="V325" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-iwate-grulla-morioka/6uMs6Gic/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-ryukyu/E5Pk4fM9/</t>
         </is>
       </c>
     </row>
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Fukushima Utd</t>
         </is>
       </c>
       <c r="G326" t="n">
@@ -30389,14 +30389,14 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Ryukyu</t>
+          <t>Kagoshima Utd</t>
         </is>
       </c>
       <c r="I326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J326" t="n">
-        <v>2.31</v>
+        <v>3.17</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -30404,15 +30404,15 @@
         </is>
       </c>
       <c r="L326" t="n">
-        <v>2.71</v>
+        <v>3.62</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>29/10/2023 04:40</t>
+          <t>29/10/2023 04:56</t>
         </is>
       </c>
       <c r="N326" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
@@ -30420,15 +30420,15 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>3.31</v>
+        <v>3.8</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>29/10/2023 03:10</t>
+          <t>29/10/2023 04:56</t>
         </is>
       </c>
       <c r="R326" t="n">
-        <v>2.9</v>
+        <v>2.11</v>
       </c>
       <c r="S326" t="inlineStr">
         <is>
@@ -30436,16 +30436,16 @@
         </is>
       </c>
       <c r="T326" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="U326" t="inlineStr">
         <is>
-          <t>29/10/2023 04:40</t>
+          <t>29/10/2023 04:56</t>
         </is>
       </c>
       <c r="V326" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/tegevajaro-miyazaki-ryukyu/E5Pk4fM9/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-kagoshima-united/lfhlqzNp/</t>
         </is>
       </c>
     </row>
@@ -30473,7 +30473,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G327" t="n">
@@ -30481,14 +30481,14 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Grulla Morioka</t>
         </is>
       </c>
       <c r="I327" t="n">
         <v>1</v>
       </c>
       <c r="J327" t="n">
-        <v>3.17</v>
+        <v>2.06</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -30496,15 +30496,15 @@
         </is>
       </c>
       <c r="L327" t="n">
-        <v>3.62</v>
+        <v>1.96</v>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>29/10/2023 04:56</t>
+          <t>29/10/2023 03:23</t>
         </is>
       </c>
       <c r="N327" t="n">
-        <v>3.21</v>
+        <v>3.59</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
@@ -30512,15 +30512,15 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>3.8</v>
+        <v>3.39</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>29/10/2023 04:56</t>
+          <t>29/10/2023 03:23</t>
         </is>
       </c>
       <c r="R327" t="n">
-        <v>2.11</v>
+        <v>3.06</v>
       </c>
       <c r="S327" t="inlineStr">
         <is>
@@ -30528,16 +30528,16 @@
         </is>
       </c>
       <c r="T327" t="n">
-        <v>1.93</v>
+        <v>3.94</v>
       </c>
       <c r="U327" t="inlineStr">
         <is>
-          <t>29/10/2023 04:56</t>
+          <t>29/10/2023 03:23</t>
         </is>
       </c>
       <c r="V327" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/fukushima-united-kagoshima-united/lfhlqzNp/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/imabari-iwate-grulla-morioka/6uMs6Gic/</t>
         </is>
       </c>
     </row>
@@ -30565,22 +30565,22 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="G328" t="n">
+        <v>3</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Azul Claro Numazu</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>YSCC</t>
-        </is>
-      </c>
-      <c r="I328" t="n">
-        <v>2</v>
-      </c>
       <c r="J328" t="n">
-        <v>2.47</v>
+        <v>2.66</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -30588,15 +30588,15 @@
         </is>
       </c>
       <c r="L328" t="n">
-        <v>2.89</v>
+        <v>2.69</v>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>29/10/2023 04:12</t>
+          <t>29/10/2023 04:29</t>
         </is>
       </c>
       <c r="N328" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
@@ -30604,15 +30604,15 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>29/10/2023 04:12</t>
+          <t>29/10/2023 05:58</t>
         </is>
       </c>
       <c r="R328" t="n">
-        <v>2.72</v>
+        <v>2.51</v>
       </c>
       <c r="S328" t="inlineStr">
         <is>
@@ -30620,16 +30620,16 @@
         </is>
       </c>
       <c r="T328" t="n">
-        <v>2.54</v>
+        <v>2.45</v>
       </c>
       <c r="U328" t="inlineStr">
         <is>
-          <t>29/10/2023 04:12</t>
+          <t>29/10/2023 04:29</t>
         </is>
       </c>
       <c r="V328" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-yscc-yokohama/02Lo5z73/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-azul-claro-numazu/Spihrfxi/</t>
         </is>
       </c>
     </row>
@@ -30657,22 +30657,22 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -30680,15 +30680,15 @@
         </is>
       </c>
       <c r="L329" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>29/10/2023 04:29</t>
+          <t>29/10/2023 05:56</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
@@ -30696,15 +30696,15 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>3.62</v>
+        <v>3.29</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>29/10/2023 05:58</t>
+          <t>29/10/2023 05:14</t>
         </is>
       </c>
       <c r="R329" t="n">
-        <v>2.51</v>
+        <v>2.91</v>
       </c>
       <c r="S329" t="inlineStr">
         <is>
@@ -30712,16 +30712,16 @@
         </is>
       </c>
       <c r="T329" t="n">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="U329" t="inlineStr">
         <is>
-          <t>29/10/2023 04:29</t>
+          <t>29/10/2023 05:56</t>
         </is>
       </c>
       <c r="V329" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/nagano-parceiro-azul-claro-numazu/Spihrfxi/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-gifu/SlNw7dxi/</t>
         </is>
       </c>
     </row>
@@ -30749,22 +30749,22 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Vanraure</t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J330" t="n">
-        <v>2.31</v>
+        <v>2.04</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -30772,48 +30772,48 @@
         </is>
       </c>
       <c r="L330" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>29/10/2023 05:56</t>
+          <t>29/10/2023 05:58</t>
         </is>
       </c>
       <c r="N330" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
         <v>3.08</v>
       </c>
-      <c r="O330" t="inlineStr">
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>29/10/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R330" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S330" t="inlineStr">
         <is>
           <t>26/10/2023 09:12</t>
         </is>
       </c>
-      <c r="P330" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q330" t="inlineStr">
-        <is>
-          <t>29/10/2023 05:14</t>
-        </is>
-      </c>
-      <c r="R330" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S330" t="inlineStr">
-        <is>
-          <t>26/10/2023 09:12</t>
-        </is>
-      </c>
       <c r="T330" t="n">
-        <v>2.85</v>
+        <v>3.16</v>
       </c>
       <c r="U330" t="inlineStr">
         <is>
-          <t>29/10/2023 05:56</t>
+          <t>29/10/2023 05:58</t>
         </is>
       </c>
       <c r="V330" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/toyama-gifu/SlNw7dxi/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-kamatamare-sanuki/WE5MmGET/</t>
         </is>
       </c>
     </row>
@@ -30841,22 +30841,22 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Vanraure</t>
+          <t>Giravanz Kitakyushu</t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>YSCC</t>
         </is>
       </c>
       <c r="I331" t="n">
         <v>2</v>
       </c>
       <c r="J331" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -30864,15 +30864,15 @@
         </is>
       </c>
       <c r="L331" t="n">
-        <v>2.4</v>
+        <v>2.89</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>29/10/2023 05:58</t>
+          <t>29/10/2023 04:12</t>
         </is>
       </c>
       <c r="N331" t="n">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
@@ -30880,15 +30880,15 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>29/10/2023 05:58</t>
+          <t>29/10/2023 04:12</t>
         </is>
       </c>
       <c r="R331" t="n">
-        <v>3.43</v>
+        <v>2.72</v>
       </c>
       <c r="S331" t="inlineStr">
         <is>
@@ -30896,16 +30896,16 @@
         </is>
       </c>
       <c r="T331" t="n">
-        <v>3.16</v>
+        <v>2.54</v>
       </c>
       <c r="U331" t="inlineStr">
         <is>
-          <t>29/10/2023 05:58</t>
+          <t>29/10/2023 04:12</t>
         </is>
       </c>
       <c r="V331" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/vanraure-kamatamare-sanuki/WE5MmGET/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-yscc-yokohama/02Lo5z73/</t>
         </is>
       </c>
     </row>
@@ -31485,22 +31485,22 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Yamaga</t>
         </is>
       </c>
       <c r="G338" t="n">
+        <v>1</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Giravanz Kitakyushu</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>Tegevajaro Miyazaki</t>
-        </is>
-      </c>
-      <c r="I338" t="n">
-        <v>1</v>
-      </c>
       <c r="J338" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -31508,15 +31508,15 @@
         </is>
       </c>
       <c r="L338" t="n">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>05/11/2023 04:03</t>
+          <t>05/11/2023 05:40</t>
         </is>
       </c>
       <c r="N338" t="n">
-        <v>3.63</v>
+        <v>3.8</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
@@ -31524,15 +31524,15 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>3.74</v>
+        <v>3.91</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>05/11/2023 04:03</t>
+          <t>05/11/2023 05:40</t>
         </is>
       </c>
       <c r="R338" t="n">
-        <v>4.9</v>
+        <v>4.94</v>
       </c>
       <c r="S338" t="inlineStr">
         <is>
@@ -31540,16 +31540,16 @@
         </is>
       </c>
       <c r="T338" t="n">
-        <v>3.82</v>
+        <v>5.44</v>
       </c>
       <c r="U338" t="inlineStr">
         <is>
-          <t>05/11/2023 04:03</t>
+          <t>05/11/2023 05:40</t>
         </is>
       </c>
       <c r="V338" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-tegevajaro-miyazaki/lSgZeWTk/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-giravanz-kitakyushu/634UdCEq/</t>
         </is>
       </c>
     </row>
@@ -31577,22 +31577,22 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Kamatamare</t>
+          <t>Azul Claro Numazu</t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="I339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J339" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -31600,15 +31600,15 @@
         </is>
       </c>
       <c r="L339" t="n">
-        <v>2.71</v>
+        <v>1.89</v>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>05/11/2023 05:54</t>
+          <t>05/11/2023 04:03</t>
         </is>
       </c>
       <c r="N339" t="n">
-        <v>3.35</v>
+        <v>3.63</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
@@ -31616,15 +31616,15 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>3.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>05/11/2023 04:02</t>
+          <t>05/11/2023 04:03</t>
         </is>
       </c>
       <c r="R339" t="n">
-        <v>3.79</v>
+        <v>4.9</v>
       </c>
       <c r="S339" t="inlineStr">
         <is>
@@ -31632,16 +31632,16 @@
         </is>
       </c>
       <c r="T339" t="n">
-        <v>2.74</v>
+        <v>3.82</v>
       </c>
       <c r="U339" t="inlineStr">
         <is>
-          <t>05/11/2023 05:54</t>
+          <t>05/11/2023 04:03</t>
         </is>
       </c>
       <c r="V339" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-nagano-parceiro/E5oLJZLd/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/azul-claro-numazu-tegevajaro-miyazaki/lSgZeWTk/</t>
         </is>
       </c>
     </row>
@@ -31669,22 +31669,22 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Yamaga</t>
+          <t>Kamatamare</t>
         </is>
       </c>
       <c r="G340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Giravanz Kitakyushu</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="I340" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J340" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -31692,15 +31692,15 @@
         </is>
       </c>
       <c r="L340" t="n">
-        <v>1.62</v>
+        <v>2.71</v>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>05/11/2023 05:40</t>
+          <t>05/11/2023 05:54</t>
         </is>
       </c>
       <c r="N340" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="O340" t="inlineStr">
         <is>
@@ -31708,15 +31708,15 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>3.91</v>
+        <v>3.09</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>05/11/2023 05:40</t>
+          <t>05/11/2023 04:02</t>
         </is>
       </c>
       <c r="R340" t="n">
-        <v>4.94</v>
+        <v>3.79</v>
       </c>
       <c r="S340" t="inlineStr">
         <is>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="T340" t="n">
-        <v>5.44</v>
+        <v>2.74</v>
       </c>
       <c r="U340" t="inlineStr">
         <is>
-          <t>05/11/2023 05:40</t>
+          <t>05/11/2023 05:54</t>
         </is>
       </c>
       <c r="V340" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j3-league/matsumoto-yamaga-giravanz-kitakyushu/634UdCEq/</t>
+          <t>https://www.betexplorer.com/football/japan/j3-league/kamatamare-sanuki-nagano-parceiro/E5oLJZLd/</t>
         </is>
       </c>
     </row>
@@ -32010,6 +32010,190 @@
       <c r="V343" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j3-league/giravanz-kitakyushu-iwate-grulla-morioka/xneAcq5f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>45241.375</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>2</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Kagoshima Utd</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:54</t>
+        </is>
+      </c>
+      <c r="N344" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:54</t>
+        </is>
+      </c>
+      <c r="R344" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T344" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:54</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ryukyu-kagoshima-united/GxfEd3K0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>j3-league</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>45241.41666666666</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Ehime</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Imabari</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:10</t>
+        </is>
+      </c>
+      <c r="N345" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P345" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:10</t>
+        </is>
+      </c>
+      <c r="R345" t="n">
+        <v>3</v>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T345" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:51</t>
+        </is>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j3-league/ehime-imabari/fN55bPkl/</t>
         </is>
       </c>
     </row>
